--- a/VT_REG_PRI_V03.xlsx
+++ b/VT_REG_PRI_V03.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr showObjects="placeholders" codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VEDA\Veda\Veda_models\Demo_models\DemoS_003\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VEDA\Veda\Veda_Training\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D99DAAE-5873-48F9-B617-27473B061F22}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AD26534-427E-4854-BAFE-8EE1A26D7CC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="901" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="901" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EnergyBalance" sheetId="133" r:id="rId1"/>
@@ -9055,11 +9055,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="0.000"/>
-    <numFmt numFmtId="165" formatCode="General_)"/>
-    <numFmt numFmtId="166" formatCode="0.0"/>
-    <numFmt numFmtId="167" formatCode="\Te\x\t"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="General_)"/>
+    <numFmt numFmtId="167" formatCode="0.0"/>
+    <numFmt numFmtId="168" formatCode="\Te\x\t"/>
   </numFmts>
   <fonts count="29" x14ac:knownFonts="1">
     <font>
@@ -9635,7 +9635,7 @@
     <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="7" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="9" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -9776,13 +9776,13 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="9" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="9" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="165" fontId="9" fillId="15" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="9" fillId="15" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="15" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -9798,7 +9798,7 @@
     <xf numFmtId="1" fontId="15" fillId="7" borderId="11" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="15" fillId="7" borderId="5" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="15" fillId="7" borderId="5" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="15" fillId="7" borderId="19" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -9813,31 +9813,31 @@
     <xf numFmtId="1" fontId="15" fillId="7" borderId="22" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="16" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="9" fillId="16" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="16" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="9" fillId="16" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="15" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="9" fillId="15" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="15" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="9" fillId="15" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="15" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="9" fillId="15" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="15" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="9" fillId="15" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="15" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="9" fillId="15" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="15" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="9" fillId="15" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="15" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="9" fillId="15" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="14" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -9846,13 +9846,13 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="15" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="9" fillId="15" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="15" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="9" fillId="15" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="14" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -9955,17 +9955,17 @@
     <xf numFmtId="0" fontId="21" fillId="3" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="9" fillId="13" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="9" fillId="13" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="3" fillId="13" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -9984,49 +9984,49 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="10" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="1" fontId="4" fillId="16" borderId="0" xfId="10" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="4" fillId="16" borderId="0" xfId="10" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="4" fillId="16" borderId="2" xfId="10" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="4" fillId="16" borderId="0" xfId="10" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="4" fillId="16" borderId="2" xfId="10" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="12" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="2" xfId="10" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="167" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="167" fontId="21" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="21" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="21" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="21" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="10" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="3" fillId="2" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="10" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="5" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="3" fillId="2" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="167" fontId="3" fillId="2" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="3" fillId="2" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="22">
     <cellStyle name="20% - Accent5" xfId="1" builtinId="46"/>
@@ -13395,24 +13395,24 @@
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="41.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="12.7109375" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="11" width="12.7109375" customWidth="1"/>
-    <col min="12" max="13" width="10.85546875" customWidth="1"/>
-    <col min="14" max="14" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="41.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="12.6640625" customWidth="1"/>
+    <col min="6" max="6" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="11" width="12.6640625" customWidth="1"/>
+    <col min="12" max="13" width="10.88671875" customWidth="1"/>
+    <col min="14" max="14" width="12.5546875" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="P1" s="35" t="s">
         <v>118</v>
       </c>
@@ -13426,7 +13426,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C2" s="10"/>
       <c r="D2" s="70" t="s">
         <v>47</v>
@@ -13465,7 +13465,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="40.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:19" ht="40.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C3" s="12"/>
       <c r="D3" s="71" t="s">
         <v>55</v>
@@ -13496,7 +13496,7 @@
       </c>
       <c r="M3" s="9"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C4" s="164" t="s">
         <v>62</v>
       </c>
@@ -13511,7 +13511,7 @@
       <c r="L4" s="167"/>
       <c r="M4" s="9"/>
     </row>
-    <row r="5" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B5" s="72" t="s">
         <v>63</v>
       </c>
@@ -13549,7 +13549,7 @@
       <c r="M5" s="9"/>
       <c r="P5" s="13"/>
     </row>
-    <row r="6" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B6" s="72" t="s">
         <v>65</v>
       </c>
@@ -13586,7 +13586,7 @@
       </c>
       <c r="M6" s="9"/>
     </row>
-    <row r="7" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B7" s="72" t="s">
         <v>67</v>
       </c>
@@ -13624,7 +13624,7 @@
       <c r="M7" s="9"/>
       <c r="P7" s="13"/>
     </row>
-    <row r="8" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B8" s="160" t="s">
         <v>192</v>
       </c>
@@ -13669,7 +13669,7 @@
       </c>
       <c r="M8" s="9"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B9" s="67"/>
       <c r="C9" s="170" t="s">
         <v>69</v>
@@ -13685,7 +13685,7 @@
       <c r="L9" s="171"/>
       <c r="M9" s="9"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B10" s="72" t="s">
         <v>70</v>
       </c>
@@ -13722,7 +13722,7 @@
       </c>
       <c r="M10" s="9"/>
     </row>
-    <row r="11" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B11" s="72" t="s">
         <v>54</v>
       </c>
@@ -13759,7 +13759,7 @@
       </c>
       <c r="M11" s="9"/>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B12" s="72" t="s">
         <v>73</v>
       </c>
@@ -13796,7 +13796,7 @@
       </c>
       <c r="M12" s="9"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B13" s="72" t="s">
         <v>75</v>
       </c>
@@ -13819,7 +13819,7 @@
       </c>
       <c r="M13" s="9"/>
     </row>
-    <row r="14" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B14" s="67"/>
       <c r="C14" s="87" t="s">
         <v>77</v>
@@ -13862,7 +13862,7 @@
       </c>
       <c r="M14" s="9"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B15" s="67"/>
       <c r="C15" s="170" t="s">
         <v>78</v>
@@ -13878,7 +13878,7 @@
       <c r="L15" s="171"/>
       <c r="M15" s="9"/>
     </row>
-    <row r="16" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A16" s="9"/>
       <c r="B16" s="72" t="s">
         <v>79</v>
@@ -13916,7 +13916,7 @@
       </c>
       <c r="M16" s="9"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="9"/>
       <c r="B17" s="72" t="s">
         <v>81</v>
@@ -13954,7 +13954,7 @@
       </c>
       <c r="M17" s="9"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="9"/>
       <c r="B18" s="72" t="s">
         <v>83</v>
@@ -13992,7 +13992,7 @@
       </c>
       <c r="M18" s="9"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="9"/>
       <c r="B19" s="72" t="s">
         <v>85</v>
@@ -14030,7 +14030,7 @@
       </c>
       <c r="M19" s="9"/>
     </row>
-    <row r="20" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A20" s="9"/>
       <c r="B20" s="72" t="s">
         <v>87</v>
@@ -14068,7 +14068,7 @@
       </c>
       <c r="M20" s="9"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="9"/>
       <c r="B21" s="72" t="s">
         <v>89</v>
@@ -14112,7 +14112,7 @@
       </c>
       <c r="M21" s="9"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="9"/>
       <c r="B22" s="72" t="s">
         <v>109</v>
@@ -14148,7 +14148,7 @@
       </c>
       <c r="M22" s="9"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="9"/>
       <c r="B23" s="72" t="s">
         <v>110</v>
@@ -14184,7 +14184,7 @@
       </c>
       <c r="M23" s="9"/>
     </row>
-    <row r="24" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A24" s="9"/>
       <c r="B24" s="160" t="s">
         <v>112</v>
@@ -14230,7 +14230,7 @@
       </c>
       <c r="M24" s="9"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="9"/>
       <c r="D25" s="13"/>
       <c r="F25" s="13"/>
@@ -14242,7 +14242,7 @@
       <c r="L25" s="13"/>
       <c r="M25" s="9"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="9"/>
       <c r="D26" s="13"/>
       <c r="F26" s="13"/>
@@ -14254,7 +14254,7 @@
       <c r="L26" s="13"/>
       <c r="M26" s="13"/>
     </row>
-    <row r="27" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A27" s="9"/>
       <c r="C27" s="79" t="s">
         <v>180</v>
@@ -14270,7 +14270,7 @@
       <c r="L27" s="13"/>
       <c r="M27" s="13"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="9"/>
       <c r="D28" s="13"/>
       <c r="F28" s="13"/>
@@ -14282,7 +14282,7 @@
       <c r="L28" s="13"/>
       <c r="M28" s="13"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="9"/>
       <c r="D29" s="13"/>
       <c r="F29" s="13"/>
@@ -14294,7 +14294,7 @@
       <c r="L29" s="13"/>
       <c r="M29" s="13"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="9"/>
       <c r="D30" s="13"/>
       <c r="F30" s="13"/>
@@ -14306,7 +14306,7 @@
       <c r="L30" s="13"/>
       <c r="M30" s="13"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="9"/>
       <c r="D31" s="13"/>
       <c r="F31" s="13"/>
@@ -14318,7 +14318,7 @@
       <c r="L31" s="13"/>
       <c r="M31" s="13"/>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="9"/>
       <c r="D32" s="13"/>
       <c r="F32" s="13"/>
@@ -14330,7 +14330,7 @@
       <c r="L32" s="13"/>
       <c r="M32" s="13"/>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="9"/>
       <c r="D33" s="13"/>
       <c r="F33" s="13"/>
@@ -14342,7 +14342,7 @@
       <c r="L33" s="13"/>
       <c r="M33" s="13"/>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="9"/>
       <c r="D34" s="13"/>
       <c r="F34" s="13"/>
@@ -14354,7 +14354,7 @@
       <c r="L34" s="13"/>
       <c r="M34" s="13"/>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="9"/>
       <c r="D35" s="13"/>
       <c r="F35" s="13"/>
@@ -14366,7 +14366,7 @@
       <c r="L35" s="13"/>
       <c r="M35" s="13"/>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="9"/>
       <c r="D36" s="36" t="s">
         <v>47</v>
@@ -14385,7 +14385,7 @@
       <c r="L36" s="41"/>
       <c r="M36" s="41"/>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="9"/>
       <c r="C37" s="37" t="s">
         <v>148</v>
@@ -14407,7 +14407,7 @@
       <c r="L37" s="42"/>
       <c r="M37" s="42"/>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="9"/>
       <c r="C38" s="39" t="s">
         <v>149</v>
@@ -14429,17 +14429,17 @@
       <c r="L38" s="42"/>
       <c r="M38" s="42"/>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="9"/>
       <c r="C39" s="41"/>
       <c r="D39" s="42"/>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" s="9"/>
       <c r="C40" s="41"/>
       <c r="D40" s="42"/>
     </row>
-    <row r="41" spans="1:14" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:14" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A41" s="9"/>
       <c r="B41" s="46" t="s">
         <v>130</v>
@@ -14473,7 +14473,7 @@
       </c>
       <c r="L41" s="47"/>
     </row>
-    <row r="42" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A42" s="9"/>
       <c r="B42" s="72" t="s">
         <v>79</v>
@@ -14496,7 +14496,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="43" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A43" s="9"/>
       <c r="B43" s="72" t="s">
         <v>87</v>
@@ -14519,13 +14519,13 @@
         <v>133</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" s="9"/>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" s="9"/>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" s="9"/>
       <c r="C46" s="106" t="s">
         <v>138</v>
@@ -14537,7 +14537,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" s="9"/>
       <c r="B47" s="35" t="s">
         <v>152</v>
@@ -14552,7 +14552,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" s="9"/>
       <c r="B48" s="72" t="s">
         <v>79</v>
@@ -14563,7 +14563,7 @@
       <c r="D48" s="103"/>
       <c r="E48" s="103"/>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="9"/>
       <c r="B49" s="72" t="s">
         <v>87</v>
@@ -14574,7 +14574,7 @@
       <c r="D49" s="103"/>
       <c r="E49" s="103"/>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="9"/>
       <c r="B50" s="72" t="s">
         <v>89</v>
@@ -14585,7 +14585,7 @@
       <c r="D50" s="103"/>
       <c r="E50" s="103"/>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="9"/>
       <c r="B51" s="72" t="s">
         <v>54</v>
@@ -14611,32 +14611,32 @@
       <selection activeCell="I46" sqref="I46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" style="48" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" style="48" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.109375" style="48" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" style="48" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" style="48" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" style="48" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" style="48" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.85546875" style="48" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" style="48" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.42578125" style="48" customWidth="1"/>
-    <col min="10" max="10" width="8.140625" style="48" customWidth="1"/>
-    <col min="11" max="11" width="2.7109375" style="48" customWidth="1"/>
-    <col min="12" max="12" width="12.7109375" style="48" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.140625" style="48" customWidth="1"/>
-    <col min="14" max="14" width="11.42578125" style="48" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="41.5703125" style="48" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="6.5703125" style="48" customWidth="1"/>
-    <col min="17" max="17" width="11.7109375" style="48" customWidth="1"/>
+    <col min="4" max="4" width="13.88671875" style="48" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" style="48" customWidth="1"/>
+    <col min="6" max="6" width="13.109375" style="48" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.88671875" style="48" customWidth="1"/>
+    <col min="8" max="8" width="9.109375" style="48" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.44140625" style="48" customWidth="1"/>
+    <col min="10" max="10" width="8.109375" style="48" customWidth="1"/>
+    <col min="11" max="11" width="2.6640625" style="48" customWidth="1"/>
+    <col min="12" max="12" width="12.6640625" style="48" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.109375" style="48" customWidth="1"/>
+    <col min="14" max="14" width="11.44140625" style="48" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="41.5546875" style="48" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.5546875" style="48" customWidth="1"/>
+    <col min="17" max="17" width="11.6640625" style="48" customWidth="1"/>
     <col min="18" max="18" width="13" style="48" customWidth="1"/>
-    <col min="19" max="19" width="13.7109375" style="48" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.42578125" style="48" customWidth="1"/>
-    <col min="21" max="16384" width="8.85546875" style="48"/>
+    <col min="19" max="19" width="13.6640625" style="48" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.44140625" style="48" customWidth="1"/>
+    <col min="21" max="16384" width="8.88671875" style="48"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:20" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B1" s="16" t="s">
         <v>94</v>
       </c>
@@ -14657,7 +14657,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="2" spans="2:20" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:20" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B2" s="33" t="str">
         <f>EnergyBalance!B8</f>
         <v>TPS</v>
@@ -14694,7 +14694,7 @@
       <c r="S2" s="206"/>
       <c r="T2" s="206"/>
     </row>
-    <row r="3" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:20" x14ac:dyDescent="0.25">
       <c r="G3" s="50"/>
       <c r="L3" s="209" t="s">
         <v>7</v>
@@ -14724,7 +14724,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="2:20" s="50" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:20" s="50" customFormat="1" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="17"/>
       <c r="C4" s="17"/>
       <c r="D4" s="17"/>
@@ -14758,7 +14758,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="2:20" s="50" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:20" s="50" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B5" s="17"/>
       <c r="C5" s="17"/>
       <c r="D5" s="17"/>
@@ -14785,7 +14785,7 @@
       <c r="S5" s="211"/>
       <c r="T5" s="211"/>
     </row>
-    <row r="8" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:20" x14ac:dyDescent="0.25">
       <c r="D8" s="7" t="s">
         <v>13</v>
       </c>
@@ -14806,7 +14806,7 @@
       <c r="S8" s="207"/>
       <c r="T8" s="207"/>
     </row>
-    <row r="9" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B9" s="28" t="s">
         <v>1</v>
       </c>
@@ -14862,7 +14862,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="2:20" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:20" ht="21.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="26" t="s">
         <v>42</v>
       </c>
@@ -14918,7 +14918,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="2:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:20" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="25" t="s">
         <v>114</v>
       </c>
@@ -14953,7 +14953,7 @@
       <c r="S11" s="199"/>
       <c r="T11" s="199"/>
     </row>
-    <row r="12" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B12" s="48" t="str">
         <f>N12</f>
         <v>DTPSCOA</v>
@@ -15007,7 +15007,7 @@
       <c r="S12" s="212"/>
       <c r="T12" s="212"/>
     </row>
-    <row r="13" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:20" x14ac:dyDescent="0.25">
       <c r="D13" s="50"/>
       <c r="E13" s="135"/>
       <c r="F13" s="156"/>
@@ -15025,7 +15025,7 @@
       <c r="S13" s="50"/>
       <c r="T13" s="50"/>
     </row>
-    <row r="14" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B14" s="52"/>
       <c r="D14" s="52"/>
       <c r="E14" s="131"/>
@@ -15044,7 +15044,7 @@
       <c r="S14" s="50"/>
       <c r="T14" s="50"/>
     </row>
-    <row r="15" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B15" s="52"/>
       <c r="E15" s="131"/>
       <c r="F15" s="157"/>
@@ -15062,7 +15062,7 @@
       <c r="S15" s="50"/>
       <c r="T15" s="50"/>
     </row>
-    <row r="16" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:20" x14ac:dyDescent="0.25">
       <c r="F16" s="50"/>
       <c r="G16" s="50"/>
       <c r="H16" s="50"/>
@@ -15078,7 +15078,7 @@
       <c r="S16" s="50"/>
       <c r="T16" s="50"/>
     </row>
-    <row r="17" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:20" x14ac:dyDescent="0.25">
       <c r="F17" s="50"/>
       <c r="G17" s="50"/>
       <c r="H17" s="50"/>
@@ -15094,7 +15094,7 @@
       <c r="S17" s="50"/>
       <c r="T17" s="50"/>
     </row>
-    <row r="18" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:20" x14ac:dyDescent="0.25">
       <c r="I18" s="130"/>
       <c r="L18" s="50"/>
       <c r="M18" s="50"/>
@@ -15106,7 +15106,7 @@
       <c r="S18" s="50"/>
       <c r="T18" s="50"/>
     </row>
-    <row r="19" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:20" x14ac:dyDescent="0.25">
       <c r="I19" s="130"/>
       <c r="L19" s="50"/>
       <c r="M19" s="50"/>
@@ -15118,7 +15118,7 @@
       <c r="S19" s="50"/>
       <c r="T19" s="50"/>
     </row>
-    <row r="20" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:20" x14ac:dyDescent="0.25">
       <c r="L20" s="50"/>
       <c r="M20" s="50"/>
       <c r="N20" s="50"/>
@@ -15129,7 +15129,7 @@
       <c r="S20" s="50"/>
       <c r="T20" s="50"/>
     </row>
-    <row r="21" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:20" x14ac:dyDescent="0.25">
       <c r="L21" s="50"/>
       <c r="M21" s="50"/>
       <c r="N21" s="50"/>
@@ -15140,7 +15140,7 @@
       <c r="S21" s="50"/>
       <c r="T21" s="50"/>
     </row>
-    <row r="22" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:20" x14ac:dyDescent="0.25">
       <c r="L22" s="50"/>
       <c r="M22" s="50"/>
       <c r="N22" s="50"/>
@@ -15151,28 +15151,28 @@
       <c r="S22" s="50"/>
       <c r="T22" s="50"/>
     </row>
-    <row r="23" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B23" s="119"/>
       <c r="C23" s="49" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="24" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B24" s="159"/>
       <c r="C24" s="49" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="25" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:20" x14ac:dyDescent="0.25">
       <c r="K25" s="49"/>
     </row>
-    <row r="26" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:20" x14ac:dyDescent="0.25">
       <c r="K26" s="49"/>
     </row>
-    <row r="27" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:20" x14ac:dyDescent="0.25">
       <c r="K27" s="49"/>
     </row>
-    <row r="28" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:20" x14ac:dyDescent="0.25">
       <c r="K28" s="49"/>
     </row>
   </sheetData>
@@ -15190,32 +15190,32 @@
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" style="48" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" style="48" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.109375" style="48" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" style="48" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" style="48" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.28515625" style="48" customWidth="1"/>
-    <col min="6" max="6" width="12.140625" style="48" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.5703125" style="48" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" style="48" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.42578125" style="48" customWidth="1"/>
-    <col min="10" max="10" width="8.140625" style="48" customWidth="1"/>
-    <col min="11" max="11" width="2.7109375" style="48" customWidth="1"/>
-    <col min="12" max="12" width="12.7109375" style="48" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.140625" style="48" customWidth="1"/>
-    <col min="14" max="14" width="11.42578125" style="48" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="41.5703125" style="48" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="6.42578125" style="48" customWidth="1"/>
-    <col min="17" max="17" width="11.7109375" style="48" customWidth="1"/>
-    <col min="18" max="18" width="14.28515625" style="48" customWidth="1"/>
-    <col min="19" max="19" width="13.7109375" style="48" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.42578125" style="48" customWidth="1"/>
-    <col min="21" max="16384" width="8.85546875" style="48"/>
+    <col min="4" max="4" width="13.88671875" style="48" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" style="48" customWidth="1"/>
+    <col min="6" max="6" width="12.109375" style="48" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.5546875" style="48" customWidth="1"/>
+    <col min="8" max="8" width="9.109375" style="48" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.44140625" style="48" customWidth="1"/>
+    <col min="10" max="10" width="8.109375" style="48" customWidth="1"/>
+    <col min="11" max="11" width="2.6640625" style="48" customWidth="1"/>
+    <col min="12" max="12" width="12.6640625" style="48" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.109375" style="48" customWidth="1"/>
+    <col min="14" max="14" width="11.44140625" style="48" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="41.5546875" style="48" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.44140625" style="48" customWidth="1"/>
+    <col min="17" max="17" width="11.6640625" style="48" customWidth="1"/>
+    <col min="18" max="18" width="14.33203125" style="48" customWidth="1"/>
+    <col min="19" max="19" width="13.6640625" style="48" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.44140625" style="48" customWidth="1"/>
+    <col min="21" max="16384" width="8.88671875" style="48"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:20" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B1" s="16" t="s">
         <v>94</v>
       </c>
@@ -15235,7 +15235,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="2" spans="2:20" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:20" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B2" s="19" t="str">
         <f>EnergyBalance!B8</f>
         <v>TPS</v>
@@ -15271,7 +15271,7 @@
       <c r="S2" s="206"/>
       <c r="T2" s="206"/>
     </row>
-    <row r="3" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:20" x14ac:dyDescent="0.25">
       <c r="L3" s="209" t="s">
         <v>7</v>
       </c>
@@ -15300,7 +15300,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="2:20" s="50" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:20" s="50" customFormat="1" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="17"/>
       <c r="C4" s="17"/>
       <c r="D4" s="17"/>
@@ -15334,7 +15334,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="2:20" s="50" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:20" s="50" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B5" s="17"/>
       <c r="C5" s="17"/>
       <c r="D5" s="17"/>
@@ -15361,7 +15361,7 @@
       <c r="S5" s="211"/>
       <c r="T5" s="211"/>
     </row>
-    <row r="8" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:20" x14ac:dyDescent="0.25">
       <c r="D8" s="7" t="s">
         <v>13</v>
       </c>
@@ -15382,7 +15382,7 @@
       <c r="S8" s="207"/>
       <c r="T8" s="207"/>
     </row>
-    <row r="9" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B9" s="28" t="s">
         <v>1</v>
       </c>
@@ -15438,7 +15438,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="2:20" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:20" ht="21.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="26" t="s">
         <v>42</v>
       </c>
@@ -15494,7 +15494,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="2:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:20" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="25" t="s">
         <v>114</v>
       </c>
@@ -15529,7 +15529,7 @@
       <c r="S11" s="199"/>
       <c r="T11" s="199"/>
     </row>
-    <row r="12" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B12" s="48" t="str">
         <f>N12</f>
         <v>DTPSELC</v>
@@ -15583,7 +15583,7 @@
       <c r="S12" s="212"/>
       <c r="T12" s="212"/>
     </row>
-    <row r="13" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:20" x14ac:dyDescent="0.25">
       <c r="D13" s="50"/>
       <c r="E13" s="135"/>
       <c r="F13" s="156"/>
@@ -15601,7 +15601,7 @@
       <c r="S13" s="50"/>
       <c r="T13" s="50"/>
     </row>
-    <row r="14" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B14" s="52"/>
       <c r="D14" s="52"/>
       <c r="E14" s="131"/>
@@ -15620,7 +15620,7 @@
       <c r="S14" s="50"/>
       <c r="T14" s="50"/>
     </row>
-    <row r="15" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B15" s="52"/>
       <c r="E15" s="131"/>
       <c r="F15" s="157"/>
@@ -15638,7 +15638,7 @@
       <c r="S15" s="50"/>
       <c r="T15" s="50"/>
     </row>
-    <row r="16" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:20" x14ac:dyDescent="0.25">
       <c r="F16" s="50"/>
       <c r="G16" s="50"/>
       <c r="H16" s="50"/>
@@ -15654,7 +15654,7 @@
       <c r="S16" s="50"/>
       <c r="T16" s="50"/>
     </row>
-    <row r="17" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:20" x14ac:dyDescent="0.25">
       <c r="F17" s="50"/>
       <c r="G17" s="50"/>
       <c r="H17" s="50"/>
@@ -15670,7 +15670,7 @@
       <c r="S17" s="50"/>
       <c r="T17" s="50"/>
     </row>
-    <row r="18" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:20" x14ac:dyDescent="0.25">
       <c r="I18" s="130"/>
       <c r="L18" s="50"/>
       <c r="M18" s="50"/>
@@ -15682,7 +15682,7 @@
       <c r="S18" s="50"/>
       <c r="T18" s="50"/>
     </row>
-    <row r="19" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:20" x14ac:dyDescent="0.25">
       <c r="I19" s="130"/>
       <c r="L19" s="50"/>
       <c r="M19" s="50"/>
@@ -15694,7 +15694,7 @@
       <c r="S19" s="50"/>
       <c r="T19" s="50"/>
     </row>
-    <row r="20" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:20" x14ac:dyDescent="0.25">
       <c r="L20" s="50"/>
       <c r="M20" s="50"/>
       <c r="N20" s="50"/>
@@ -15705,7 +15705,7 @@
       <c r="S20" s="50"/>
       <c r="T20" s="50"/>
     </row>
-    <row r="21" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:20" x14ac:dyDescent="0.25">
       <c r="L21" s="50"/>
       <c r="M21" s="50"/>
       <c r="N21" s="50"/>
@@ -15716,7 +15716,7 @@
       <c r="S21" s="50"/>
       <c r="T21" s="50"/>
     </row>
-    <row r="22" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:20" x14ac:dyDescent="0.25">
       <c r="L22" s="50"/>
       <c r="M22" s="50"/>
       <c r="N22" s="50"/>
@@ -15727,28 +15727,28 @@
       <c r="S22" s="50"/>
       <c r="T22" s="50"/>
     </row>
-    <row r="23" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B23" s="119"/>
       <c r="C23" s="49" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="24" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B24" s="159"/>
       <c r="C24" s="49" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="25" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:20" x14ac:dyDescent="0.25">
       <c r="K25" s="49"/>
     </row>
-    <row r="26" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:20" x14ac:dyDescent="0.25">
       <c r="K26" s="49"/>
     </row>
-    <row r="27" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:20" x14ac:dyDescent="0.25">
       <c r="K27" s="49"/>
     </row>
-    <row r="28" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:20" x14ac:dyDescent="0.25">
       <c r="K28" s="49"/>
     </row>
   </sheetData>
@@ -15766,33 +15766,33 @@
       <selection activeCell="O34" sqref="O34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.85546875" customWidth="1"/>
+    <col min="4" max="4" width="13.88671875" customWidth="1"/>
+    <col min="5" max="5" width="13.109375" customWidth="1"/>
+    <col min="6" max="6" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.88671875" customWidth="1"/>
     <col min="11" max="11" width="7" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14" style="56" customWidth="1"/>
     <col min="13" max="13" width="2" customWidth="1"/>
-    <col min="14" max="14" width="12.42578125" customWidth="1"/>
-    <col min="15" max="15" width="7.140625" customWidth="1"/>
+    <col min="14" max="14" width="12.44140625" customWidth="1"/>
+    <col min="15" max="15" width="7.109375" customWidth="1"/>
     <col min="16" max="16" width="11" customWidth="1"/>
-    <col min="17" max="17" width="79.140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="6.140625" customWidth="1"/>
+    <col min="17" max="17" width="79.109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6.109375" customWidth="1"/>
     <col min="19" max="19" width="12" customWidth="1"/>
-    <col min="20" max="20" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.28515625" customWidth="1"/>
+    <col min="20" max="20" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.33203125" customWidth="1"/>
     <col min="22" max="22" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:22" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B1" s="16" t="s">
         <v>94</v>
       </c>
@@ -15818,7 +15818,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="2" spans="2:22" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:22" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B2" s="19" t="str">
         <f>EnergyBalance!B20</f>
         <v>TRA</v>
@@ -15859,7 +15859,7 @@
       <c r="U2" s="196"/>
       <c r="V2" s="196"/>
     </row>
-    <row r="3" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:22" x14ac:dyDescent="0.25">
       <c r="N3" s="197" t="s">
         <v>7</v>
       </c>
@@ -15888,7 +15888,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="2:22" s="9" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:22" s="9" customFormat="1" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="17"/>
       <c r="C4" s="17"/>
       <c r="D4" s="17"/>
@@ -15923,7 +15923,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="2:22" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:22" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B5" s="17"/>
       <c r="C5" s="17"/>
       <c r="D5" s="17"/>
@@ -15951,7 +15951,7 @@
       <c r="U5" s="200"/>
       <c r="V5" s="200"/>
     </row>
-    <row r="6" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:22" x14ac:dyDescent="0.25">
       <c r="N6" s="202" t="s">
         <v>137</v>
       </c>
@@ -15973,7 +15973,7 @@
       <c r="U6" s="202"/>
       <c r="V6" s="202"/>
     </row>
-    <row r="8" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:22" x14ac:dyDescent="0.25">
       <c r="D8" s="7" t="s">
         <v>13</v>
       </c>
@@ -15996,7 +15996,7 @@
       <c r="U8" s="202"/>
       <c r="V8" s="202"/>
     </row>
-    <row r="9" spans="2:22" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B9" s="28" t="s">
         <v>1</v>
       </c>
@@ -16058,7 +16058,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="2:22" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:22" ht="21.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="26" t="s">
         <v>42</v>
       </c>
@@ -16118,7 +16118,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="2:22" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:22" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="25" t="s">
         <v>114</v>
       </c>
@@ -16170,7 +16170,7 @@
       <c r="U11" s="201"/>
       <c r="V11" s="201"/>
     </row>
-    <row r="12" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B12" t="str">
         <f>P11</f>
         <v>TOTEOIL</v>
@@ -16223,7 +16223,7 @@
       <c r="U12" s="202"/>
       <c r="V12" s="202"/>
     </row>
-    <row r="13" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:22" x14ac:dyDescent="0.25">
       <c r="D13" t="str">
         <f>$P$6</f>
         <v>TRACO2</v>
@@ -16246,7 +16246,7 @@
       <c r="U13" s="15"/>
       <c r="V13" s="9"/>
     </row>
-    <row r="14" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B14" s="11" t="str">
         <f>P12</f>
         <v>TOTNOIL</v>
@@ -16290,7 +16290,7 @@
       <c r="U14" s="15"/>
       <c r="V14" s="9"/>
     </row>
-    <row r="15" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B15" s="11"/>
       <c r="D15" t="str">
         <f>$P$6</f>
@@ -16317,10 +16317,10 @@
       <c r="U15" s="15"/>
       <c r="V15" s="9"/>
     </row>
-    <row r="16" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:22" x14ac:dyDescent="0.25">
       <c r="L16"/>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="L17"/>
       <c r="N17" s="9"/>
       <c r="O17" s="9"/>
@@ -16332,7 +16332,7 @@
       <c r="U17" s="9"/>
       <c r="V17" s="9"/>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="L18"/>
       <c r="N18" s="9"/>
       <c r="O18" s="9"/>
@@ -16344,7 +16344,7 @@
       <c r="U18" s="9"/>
       <c r="V18" s="9"/>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="L19"/>
       <c r="N19" s="9"/>
       <c r="O19" s="9"/>
@@ -16356,7 +16356,7 @@
       <c r="U19" s="9"/>
       <c r="V19" s="9"/>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="L20"/>
       <c r="N20" s="9"/>
       <c r="O20" s="9"/>
@@ -16368,7 +16368,7 @@
       <c r="U20" s="9"/>
       <c r="V20" s="9"/>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="N21" s="9"/>
       <c r="O21" s="9"/>
       <c r="P21" s="9"/>
@@ -16379,7 +16379,7 @@
       <c r="U21" s="9"/>
       <c r="V21" s="9"/>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B23" s="76"/>
       <c r="C23" s="1" t="s">
         <v>181</v>
@@ -16387,7 +16387,7 @@
       <c r="K23" s="1"/>
       <c r="L23" s="14"/>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B24" s="111"/>
       <c r="C24" s="1" t="s">
         <v>182</v>
@@ -16396,13 +16396,13 @@
       <c r="L24" s="14"/>
       <c r="M24" s="1"/>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A25" s="11"/>
       <c r="K25" s="1"/>
       <c r="L25" s="14"/>
       <c r="M25" s="1"/>
     </row>
-    <row r="26" spans="1:22" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:22" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26"/>
       <c r="B26"/>
       <c r="C26"/>
@@ -16426,11 +16426,11 @@
       <c r="U26"/>
       <c r="V26"/>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
       <c r="E27" s="1"/>
       <c r="M27" s="1"/>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
       <c r="E28" s="1"/>
     </row>
   </sheetData>
@@ -16448,33 +16448,33 @@
       <selection activeCell="Q42" sqref="Q42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.88671875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.42578125" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.5703125" customWidth="1"/>
-    <col min="10" max="10" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.28515625" customWidth="1"/>
-    <col min="12" max="12" width="12.7109375" customWidth="1"/>
-    <col min="13" max="13" width="2.7109375" customWidth="1"/>
-    <col min="14" max="14" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.140625" customWidth="1"/>
-    <col min="16" max="16" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="62.42578125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="6.140625" customWidth="1"/>
-    <col min="19" max="19" width="11.7109375" customWidth="1"/>
-    <col min="20" max="20" width="13.42578125" customWidth="1"/>
-    <col min="21" max="21" width="13.85546875" customWidth="1"/>
-    <col min="22" max="22" width="8.42578125" customWidth="1"/>
+    <col min="6" max="6" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.44140625" customWidth="1"/>
+    <col min="8" max="8" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.5546875" customWidth="1"/>
+    <col min="10" max="10" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.33203125" customWidth="1"/>
+    <col min="12" max="12" width="12.6640625" customWidth="1"/>
+    <col min="13" max="13" width="2.6640625" customWidth="1"/>
+    <col min="14" max="14" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.109375" customWidth="1"/>
+    <col min="16" max="16" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="62.44140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6.109375" customWidth="1"/>
+    <col min="19" max="19" width="11.6640625" customWidth="1"/>
+    <col min="20" max="20" width="13.44140625" customWidth="1"/>
+    <col min="21" max="21" width="13.88671875" customWidth="1"/>
+    <col min="22" max="22" width="8.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:22" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B1" s="16" t="s">
         <v>94</v>
       </c>
@@ -16497,7 +16497,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="2" spans="2:22" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:22" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B2" s="19" t="str">
         <f>EnergyBalance!B16</f>
         <v>RSD</v>
@@ -16536,7 +16536,7 @@
       <c r="U2" s="196"/>
       <c r="V2" s="196"/>
     </row>
-    <row r="3" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:22" x14ac:dyDescent="0.25">
       <c r="N3" s="197" t="s">
         <v>7</v>
       </c>
@@ -16565,7 +16565,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="2:22" s="9" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:22" s="9" customFormat="1" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="17"/>
       <c r="C4" s="17"/>
       <c r="D4" s="17"/>
@@ -16599,7 +16599,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="2:22" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:22" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B5" s="17"/>
       <c r="C5" s="17"/>
       <c r="D5" s="17"/>
@@ -16626,7 +16626,7 @@
       <c r="U5" s="200"/>
       <c r="V5" s="200"/>
     </row>
-    <row r="6" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:22" x14ac:dyDescent="0.25">
       <c r="N6" s="202" t="s">
         <v>137</v>
       </c>
@@ -16648,7 +16648,7 @@
       <c r="U6" s="202"/>
       <c r="V6" s="202"/>
     </row>
-    <row r="8" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:22" x14ac:dyDescent="0.25">
       <c r="D8" s="7" t="s">
         <v>13</v>
       </c>
@@ -16670,7 +16670,7 @@
       <c r="U8" s="202"/>
       <c r="V8" s="202"/>
     </row>
-    <row r="9" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B9" s="28" t="s">
         <v>1</v>
       </c>
@@ -16732,7 +16732,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="2:22" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:22" ht="21.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="26" t="s">
         <v>42</v>
       </c>
@@ -16792,7 +16792,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="2:22" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:22" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="25" t="s">
         <v>114</v>
       </c>
@@ -16832,7 +16832,7 @@
       <c r="U11" s="199"/>
       <c r="V11" s="199"/>
     </row>
-    <row r="12" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B12" t="str">
         <f>P12</f>
         <v>ROTEGAS</v>
@@ -16886,7 +16886,7 @@
       <c r="U12" s="201"/>
       <c r="V12" s="201"/>
     </row>
-    <row r="13" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:22" x14ac:dyDescent="0.25">
       <c r="D13" t="str">
         <f>$P$6</f>
         <v>RSDCO2</v>
@@ -16921,7 +16921,7 @@
       <c r="U13" s="201"/>
       <c r="V13" s="201"/>
     </row>
-    <row r="14" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B14" s="11" t="str">
         <f>P13</f>
         <v>ROTNGAS</v>
@@ -16964,7 +16964,7 @@
       <c r="U14" s="9"/>
       <c r="V14" s="9"/>
     </row>
-    <row r="15" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B15" s="11"/>
       <c r="D15" t="str">
         <f>$P$6</f>
@@ -16991,7 +16991,7 @@
       <c r="U15" s="9"/>
       <c r="V15" s="9"/>
     </row>
-    <row r="16" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:22" x14ac:dyDescent="0.25">
       <c r="N16" s="9"/>
       <c r="O16" s="9"/>
       <c r="P16" s="9"/>
@@ -17002,7 +17002,7 @@
       <c r="U16" s="9"/>
       <c r="V16" s="9"/>
     </row>
-    <row r="17" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:22" x14ac:dyDescent="0.25">
       <c r="N17" s="9"/>
       <c r="O17" s="9"/>
       <c r="P17" s="9"/>
@@ -17013,7 +17013,7 @@
       <c r="U17" s="9"/>
       <c r="V17" s="9"/>
     </row>
-    <row r="18" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:22" x14ac:dyDescent="0.25">
       <c r="I18" s="24"/>
       <c r="N18" s="9"/>
       <c r="O18" s="9"/>
@@ -17025,7 +17025,7 @@
       <c r="U18" s="9"/>
       <c r="V18" s="9"/>
     </row>
-    <row r="19" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:22" x14ac:dyDescent="0.25">
       <c r="I19" s="24"/>
       <c r="N19" s="9"/>
       <c r="O19" s="9"/>
@@ -17037,7 +17037,7 @@
       <c r="U19" s="9"/>
       <c r="V19" s="9"/>
     </row>
-    <row r="20" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:22" x14ac:dyDescent="0.25">
       <c r="N20" s="9"/>
       <c r="O20" s="9"/>
       <c r="P20" s="9"/>
@@ -17048,7 +17048,7 @@
       <c r="U20" s="9"/>
       <c r="V20" s="9"/>
     </row>
-    <row r="21" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:22" x14ac:dyDescent="0.25">
       <c r="N21" s="9"/>
       <c r="O21" s="9"/>
       <c r="P21" s="9"/>
@@ -17059,7 +17059,7 @@
       <c r="U21" s="9"/>
       <c r="V21" s="9"/>
     </row>
-    <row r="22" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:22" x14ac:dyDescent="0.25">
       <c r="N22" s="9"/>
       <c r="O22" s="9"/>
       <c r="P22" s="9"/>
@@ -17070,35 +17070,35 @@
       <c r="U22" s="9"/>
       <c r="V22" s="9"/>
     </row>
-    <row r="23" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B23" s="76"/>
       <c r="C23" s="1" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="24" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B24" s="111"/>
       <c r="C24" s="1" t="s">
         <v>182</v>
       </c>
       <c r="K24" s="1"/>
     </row>
-    <row r="25" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:22" x14ac:dyDescent="0.25">
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
     </row>
-    <row r="26" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:22" x14ac:dyDescent="0.25">
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
     </row>
-    <row r="27" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:22" x14ac:dyDescent="0.25">
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
     </row>
-    <row r="28" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:22" x14ac:dyDescent="0.25">
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
     </row>
@@ -17117,20 +17117,20 @@
       <selection activeCell="K34" sqref="K34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="9" width="11.28515625" customWidth="1"/>
+    <col min="2" max="2" width="12.5546875" customWidth="1"/>
+    <col min="3" max="3" width="13.109375" customWidth="1"/>
+    <col min="4" max="4" width="11.5546875" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="9" width="11.33203125" customWidth="1"/>
     <col min="10" max="10" width="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.42578125" customWidth="1"/>
-    <col min="12" max="12" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.44140625" customWidth="1"/>
+    <col min="12" max="12" width="11.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B1" s="16" t="s">
         <v>94</v>
       </c>
@@ -17147,7 +17147,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="2" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="19" t="s">
         <v>105</v>
       </c>
@@ -17162,14 +17162,14 @@
         <v>M€2005</v>
       </c>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C5" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B6" s="4" t="s">
         <v>102</v>
       </c>
@@ -17195,7 +17195,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="7" spans="2:11" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:11" ht="21" x14ac:dyDescent="0.25">
       <c r="B7" s="26" t="s">
         <v>103</v>
       </c>
@@ -17216,7 +17216,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="8" spans="2:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="25" t="s">
         <v>114</v>
       </c>
@@ -17232,7 +17232,7 @@
       <c r="I8" s="23"/>
       <c r="K8" s="123"/>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B9" s="59" t="s">
         <v>35</v>
       </c>
@@ -17253,7 +17253,7 @@
       <c r="I9" s="151"/>
       <c r="K9" s="116"/>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B10" s="11" t="s">
         <v>35</v>
       </c>
@@ -17274,7 +17274,7 @@
       <c r="I10" s="152"/>
       <c r="K10" s="118"/>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B11" s="11" t="s">
         <v>35</v>
       </c>
@@ -17295,7 +17295,7 @@
       <c r="I11" s="129"/>
       <c r="K11" s="124"/>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B12" s="45" t="s">
         <v>35</v>
       </c>
@@ -17330,22 +17330,22 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
       <c r="E14" s="54"/>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
       <c r="E15" s="13"/>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
       <c r="E16" s="13"/>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B22" s="76"/>
       <c r="C22" s="1" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B23" s="111"/>
       <c r="C23" s="1" t="s">
         <v>182</v>
@@ -17361,60 +17361,60 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:W49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="1.85546875" customWidth="1"/>
-    <col min="2" max="2" width="7.7109375" customWidth="1"/>
-    <col min="3" max="3" width="6.85546875" customWidth="1"/>
-    <col min="12" max="12" width="6.7109375" customWidth="1"/>
-    <col min="13" max="13" width="7.140625" customWidth="1"/>
-    <col min="21" max="21" width="5.42578125" customWidth="1"/>
+    <col min="1" max="1" width="1.88671875" customWidth="1"/>
+    <col min="2" max="2" width="7.6640625" customWidth="1"/>
+    <col min="3" max="3" width="6.88671875" customWidth="1"/>
+    <col min="12" max="12" width="6.6640625" customWidth="1"/>
+    <col min="13" max="13" width="7.109375" customWidth="1"/>
+    <col min="21" max="21" width="5.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:15" ht="18" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:15" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B2" s="126" t="s">
         <v>200</v>
       </c>
       <c r="K2" s="126"/>
     </row>
-    <row r="3" spans="2:15" ht="18" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:15" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="K3" s="126"/>
     </row>
-    <row r="4" spans="2:15" ht="18" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:15" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B4" s="126" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B6" s="46" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
       <c r="M11" s="128"/>
       <c r="N11" s="128"/>
       <c r="O11" s="9"/>
     </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
       <c r="M12" s="9"/>
       <c r="N12" s="15"/>
       <c r="O12" s="9"/>
     </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
       <c r="M13" s="9"/>
       <c r="N13" s="15"/>
       <c r="O13" s="9"/>
     </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
       <c r="M14" s="9"/>
       <c r="N14" s="15"/>
       <c r="O14" s="9"/>
     </row>
-    <row r="15" spans="2:15" ht="18" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:15" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B15" s="126" t="s">
         <v>201</v>
       </c>
@@ -17422,7 +17422,7 @@
       <c r="N15" s="9"/>
       <c r="O15" s="9"/>
     </row>
-    <row r="17" spans="4:23" x14ac:dyDescent="0.2">
+    <row r="17" spans="4:23" x14ac:dyDescent="0.25">
       <c r="D17" s="127" t="s">
         <v>184</v>
       </c>
@@ -17444,15 +17444,15 @@
       <c r="V17" s="127"/>
       <c r="W17" s="127"/>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B33" s="185"/>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="49" spans="20:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="20:21" x14ac:dyDescent="0.25">
       <c r="T49" s="9"/>
       <c r="U49" s="9"/>
     </row>
@@ -17467,34 +17467,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:T36"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" customWidth="1"/>
-    <col min="8" max="8" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.6640625" customWidth="1"/>
+    <col min="8" max="8" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="2" customWidth="1"/>
-    <col min="11" max="11" width="13.7109375" customWidth="1"/>
-    <col min="12" max="12" width="7.140625" customWidth="1"/>
-    <col min="13" max="13" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.6640625" customWidth="1"/>
+    <col min="12" max="12" width="7.109375" customWidth="1"/>
+    <col min="13" max="13" width="11.44140625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="35" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.5703125" customWidth="1"/>
-    <col min="16" max="16" width="11.5703125" customWidth="1"/>
+    <col min="15" max="15" width="6.5546875" customWidth="1"/>
+    <col min="16" max="16" width="11.5546875" customWidth="1"/>
     <col min="17" max="17" width="13" customWidth="1"/>
-    <col min="18" max="18" width="15.140625" customWidth="1"/>
-    <col min="19" max="19" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.109375" customWidth="1"/>
+    <col min="19" max="19" width="7.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B1" s="43" t="s">
         <v>94</v>
       </c>
@@ -17512,7 +17512,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="19"/>
       <c r="C2" s="19" t="str">
         <f>EnergyBalance!D2</f>
@@ -17542,7 +17542,7 @@
       <c r="R2" s="196"/>
       <c r="S2" s="196"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="K3" s="197" t="s">
         <v>7</v>
       </c>
@@ -17571,7 +17571,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" ht="21.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C4" s="1"/>
       <c r="K4" s="199" t="s">
         <v>40</v>
@@ -17601,7 +17601,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="K5" s="200" t="s">
         <v>93</v>
       </c>
@@ -17623,7 +17623,7 @@
       <c r="R5" s="200"/>
       <c r="S5" s="200"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="K6" s="15"/>
       <c r="L6" s="9"/>
       <c r="M6" s="15"/>
@@ -17634,7 +17634,7 @@
       <c r="R6" s="15"/>
       <c r="S6" s="15"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="F7" s="7" t="s">
         <v>13</v>
       </c>
@@ -17651,7 +17651,7 @@
       <c r="R7" s="202"/>
       <c r="S7" s="202"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
         <v>1</v>
       </c>
@@ -17704,7 +17704,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" ht="21.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="25" t="s">
         <v>42</v>
       </c>
@@ -17753,7 +17753,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="25" t="s">
         <v>114</v>
       </c>
@@ -17785,7 +17785,7 @@
       <c r="R10" s="203"/>
       <c r="S10" s="203"/>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B11" s="15" t="str">
         <f>M11</f>
         <v>MINCOA1</v>
@@ -17806,8 +17806,8 @@
         <v>2</v>
       </c>
       <c r="I11" s="109">
-        <f>EnergyBalance!$D$5*EnergyBalance!D37</f>
-        <v>6073.7685000000001</v>
+        <f>EnergyBalance!$D$5*EnergyBalance!D37*1.1</f>
+        <v>6681.1453500000007</v>
       </c>
       <c r="J11" s="9"/>
       <c r="K11" s="200" t="str">
@@ -17832,7 +17832,7 @@
       <c r="R11" s="201"/>
       <c r="S11" s="201"/>
     </row>
-    <row r="12" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12"/>
       <c r="B12" s="15"/>
       <c r="C12" s="15"/>
@@ -17865,7 +17865,7 @@
       <c r="R12" s="201"/>
       <c r="S12" s="201"/>
     </row>
-    <row r="13" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B13" s="15" t="str">
         <f>M12</f>
         <v>MINCOA2</v>
@@ -17908,7 +17908,7 @@
       <c r="R13" s="201"/>
       <c r="S13" s="201"/>
     </row>
-    <row r="14" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B14" s="15"/>
       <c r="C14" s="15"/>
       <c r="D14" s="15"/>
@@ -17943,7 +17943,7 @@
       <c r="R14" s="201"/>
       <c r="S14" s="201"/>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="9"/>
       <c r="B15" s="15" t="str">
         <f>M13</f>
@@ -17987,7 +17987,7 @@
       <c r="S15" s="201"/>
       <c r="T15" s="9"/>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="9"/>
       <c r="B16" s="15" t="str">
         <f>M14</f>
@@ -18016,7 +18016,7 @@
       <c r="R16" s="9"/>
       <c r="S16" s="9"/>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B17" s="15" t="str">
         <f>M15</f>
         <v>EXPCOA1</v>
@@ -18049,7 +18049,7 @@
       <c r="R17" s="9"/>
       <c r="S17" s="9"/>
     </row>
-    <row r="18" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18"/>
       <c r="B18" s="15"/>
       <c r="C18" s="15"/>
@@ -18065,11 +18065,11 @@
       <c r="J18"/>
       <c r="T18"/>
     </row>
-    <row r="19" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19"/>
       <c r="J19"/>
     </row>
-    <row r="20" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B20"/>
       <c r="C20"/>
       <c r="D20"/>
@@ -18079,7 +18079,7 @@
       <c r="H20"/>
       <c r="I20"/>
     </row>
-    <row r="21" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B21"/>
       <c r="C21"/>
       <c r="D21"/>
@@ -18089,7 +18089,7 @@
       <c r="H21"/>
       <c r="I21"/>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" s="9"/>
       <c r="B22" s="113"/>
       <c r="C22" s="1" t="s">
@@ -18098,7 +18098,7 @@
       <c r="J22" s="9"/>
       <c r="T22" s="9"/>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" s="9"/>
       <c r="B23" s="111"/>
       <c r="C23" s="1" t="s">
@@ -18106,10 +18106,10 @@
       </c>
       <c r="J23" s="9"/>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="J24" s="9"/>
     </row>
-    <row r="25" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25"/>
       <c r="B25"/>
       <c r="C25"/>
@@ -18131,14 +18131,14 @@
       <c r="S25"/>
       <c r="T25"/>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="J26" s="9"/>
       <c r="T26" s="1"/>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
     </row>
-    <row r="28" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28"/>
       <c r="B28"/>
       <c r="C28"/>
@@ -18160,7 +18160,7 @@
       <c r="S28"/>
       <c r="T28"/>
     </row>
-    <row r="29" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29"/>
       <c r="B29"/>
       <c r="C29"/>
@@ -18181,7 +18181,7 @@
       <c r="R29"/>
       <c r="S29"/>
     </row>
-    <row r="30" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B30"/>
       <c r="C30"/>
       <c r="D30"/>
@@ -18201,7 +18201,7 @@
       <c r="R30"/>
       <c r="S30"/>
     </row>
-    <row r="31" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B31"/>
       <c r="C31"/>
       <c r="D31"/>
@@ -18212,7 +18212,7 @@
       <c r="I31"/>
       <c r="J31"/>
     </row>
-    <row r="32" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B32"/>
       <c r="C32"/>
       <c r="D32"/>
@@ -18223,7 +18223,7 @@
       <c r="I32"/>
       <c r="J32"/>
     </row>
-    <row r="33" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B33"/>
       <c r="C33"/>
       <c r="D33"/>
@@ -18234,7 +18234,7 @@
       <c r="I33"/>
       <c r="J33"/>
     </row>
-    <row r="34" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B34"/>
       <c r="C34"/>
       <c r="D34"/>
@@ -18254,11 +18254,11 @@
       <c r="R34"/>
       <c r="S34"/>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A35" s="9"/>
       <c r="T35" s="9"/>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A36" s="9"/>
     </row>
   </sheetData>
@@ -18278,30 +18278,30 @@
       <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" customWidth="1"/>
+    <col min="2" max="2" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5546875" customWidth="1"/>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.140625" customWidth="1"/>
-    <col min="8" max="8" width="8.7109375" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" customWidth="1"/>
+    <col min="5" max="5" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.109375" customWidth="1"/>
+    <col min="8" max="8" width="8.6640625" customWidth="1"/>
+    <col min="9" max="9" width="14.5546875" customWidth="1"/>
     <col min="10" max="10" width="2" customWidth="1"/>
-    <col min="11" max="11" width="13.7109375" customWidth="1"/>
-    <col min="12" max="12" width="7.140625" customWidth="1"/>
-    <col min="13" max="13" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.6640625" customWidth="1"/>
+    <col min="12" max="12" width="7.109375" customWidth="1"/>
+    <col min="13" max="13" width="11.44140625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="35" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.7109375" customWidth="1"/>
-    <col min="16" max="16" width="11.5703125" customWidth="1"/>
+    <col min="15" max="15" width="6.6640625" customWidth="1"/>
+    <col min="16" max="16" width="11.5546875" customWidth="1"/>
     <col min="17" max="17" width="13" customWidth="1"/>
-    <col min="18" max="18" width="15.140625" customWidth="1"/>
-    <col min="19" max="19" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.109375" customWidth="1"/>
+    <col min="19" max="19" width="7.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B1" s="43" t="s">
         <v>94</v>
       </c>
@@ -18319,7 +18319,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="19"/>
       <c r="C2" s="19" t="str">
         <f>EnergyBalance!E2</f>
@@ -18349,7 +18349,7 @@
       <c r="R2" s="196"/>
       <c r="S2" s="196"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="K3" s="197" t="s">
         <v>7</v>
       </c>
@@ -18378,7 +18378,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" ht="21.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C4" s="1"/>
       <c r="K4" s="199" t="s">
         <v>40</v>
@@ -18408,7 +18408,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="K5" s="200" t="s">
         <v>93</v>
       </c>
@@ -18430,7 +18430,7 @@
       <c r="R5" s="200"/>
       <c r="S5" s="200"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="F7" s="7" t="s">
         <v>13</v>
       </c>
@@ -18447,7 +18447,7 @@
       <c r="R7" s="202"/>
       <c r="S7" s="202"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
         <v>1</v>
       </c>
@@ -18500,7 +18500,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:20" s="9" customFormat="1" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" s="9" customFormat="1" ht="21.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="25" t="s">
         <v>42</v>
       </c>
@@ -18549,7 +18549,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:20" s="9" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" s="9" customFormat="1" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="25" t="s">
         <v>114</v>
       </c>
@@ -18581,7 +18581,7 @@
       <c r="R10" s="203"/>
       <c r="S10" s="203"/>
     </row>
-    <row r="11" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B11" s="15" t="str">
         <f>M11</f>
         <v>MINGAS1</v>
@@ -18627,7 +18627,7 @@
       <c r="R11" s="201"/>
       <c r="S11" s="201"/>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="9"/>
       <c r="B12" s="15"/>
       <c r="C12" s="15"/>
@@ -18662,7 +18662,7 @@
       <c r="S12" s="201"/>
       <c r="T12" s="9"/>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B13" s="15" t="str">
         <f>M12</f>
         <v>MINGAS2</v>
@@ -18706,7 +18706,7 @@
       <c r="R13" s="201"/>
       <c r="S13" s="201"/>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B14" s="15"/>
       <c r="C14" s="15"/>
       <c r="D14" s="15"/>
@@ -18742,7 +18742,7 @@
       <c r="R14" s="201"/>
       <c r="S14" s="201"/>
     </row>
-    <row r="15" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15"/>
       <c r="B15" s="15" t="str">
         <f>M13</f>
@@ -18784,7 +18784,7 @@
       <c r="S15" s="201"/>
       <c r="T15"/>
     </row>
-    <row r="16" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16"/>
       <c r="B16" s="15" t="str">
         <f>M14</f>
@@ -18803,7 +18803,7 @@
       </c>
       <c r="J16"/>
     </row>
-    <row r="17" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B17" s="15" t="str">
         <f>M15</f>
         <v>EXPGAS1</v>
@@ -18829,7 +18829,7 @@
       </c>
       <c r="J17"/>
     </row>
-    <row r="18" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B18" s="15"/>
       <c r="C18" s="15"/>
       <c r="E18" s="9">
@@ -18842,8 +18842,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" s="9"/>
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
@@ -18865,7 +18865,7 @@
       <c r="S20" s="9"/>
       <c r="T20" s="9"/>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" s="9"/>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -18879,11 +18879,11 @@
       <c r="R21" s="9"/>
       <c r="S21" s="9"/>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
     </row>
-    <row r="23" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23"/>
       <c r="B23"/>
       <c r="C23"/>
@@ -18905,7 +18905,7 @@
       <c r="S23"/>
       <c r="T23"/>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B24" s="113"/>
       <c r="C24" s="1" t="s">
         <v>181</v>
@@ -18913,7 +18913,7 @@
       <c r="I24" s="9"/>
       <c r="T24" s="1"/>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="111"/>
       <c r="C25" s="1" t="s">
@@ -18921,7 +18921,7 @@
       </c>
       <c r="I25" s="9"/>
     </row>
-    <row r="26" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26"/>
       <c r="B26"/>
       <c r="C26"/>
@@ -18942,7 +18942,7 @@
       <c r="S26"/>
       <c r="T26"/>
     </row>
-    <row r="27" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27"/>
       <c r="B27"/>
       <c r="C27"/>
@@ -18962,7 +18962,7 @@
       <c r="R27"/>
       <c r="S27"/>
     </row>
-    <row r="28" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B28"/>
       <c r="C28"/>
       <c r="D28"/>
@@ -18981,7 +18981,7 @@
       <c r="R28"/>
       <c r="S28"/>
     </row>
-    <row r="29" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B29"/>
       <c r="C29"/>
       <c r="D29"/>
@@ -19000,7 +19000,7 @@
       <c r="R29"/>
       <c r="S29"/>
     </row>
-    <row r="30" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B30"/>
       <c r="C30"/>
       <c r="D30"/>
@@ -19019,7 +19019,7 @@
       <c r="R30"/>
       <c r="S30"/>
     </row>
-    <row r="31" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B31"/>
       <c r="C31"/>
       <c r="D31"/>
@@ -19038,7 +19038,7 @@
       <c r="R31"/>
       <c r="S31"/>
     </row>
-    <row r="32" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B32"/>
       <c r="C32"/>
       <c r="D32"/>
@@ -19057,7 +19057,7 @@
       <c r="R32"/>
       <c r="S32"/>
     </row>
-    <row r="33" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B33"/>
       <c r="C33"/>
       <c r="D33"/>
@@ -19076,16 +19076,16 @@
       <c r="R33"/>
       <c r="S33"/>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A34" s="9"/>
       <c r="J34" s="9"/>
       <c r="T34" s="9"/>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A35" s="9"/>
       <c r="J35" s="9"/>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
       <c r="J36" s="9"/>
     </row>
   </sheetData>
@@ -19105,30 +19105,30 @@
       <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" customWidth="1"/>
-    <col min="5" max="5" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.140625" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" customWidth="1"/>
+    <col min="5" max="5" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.109375" customWidth="1"/>
+    <col min="9" max="9" width="13.44140625" customWidth="1"/>
     <col min="10" max="10" width="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.7109375" customWidth="1"/>
-    <col min="12" max="12" width="7.140625" customWidth="1"/>
-    <col min="13" max="13" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="51.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.5703125" customWidth="1"/>
-    <col min="16" max="16" width="11.5703125" customWidth="1"/>
+    <col min="11" max="11" width="13.6640625" customWidth="1"/>
+    <col min="12" max="12" width="7.109375" customWidth="1"/>
+    <col min="13" max="13" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="51.88671875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.5546875" customWidth="1"/>
+    <col min="16" max="16" width="11.5546875" customWidth="1"/>
     <col min="17" max="17" width="13" customWidth="1"/>
-    <col min="18" max="18" width="15.140625" customWidth="1"/>
-    <col min="19" max="19" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.109375" customWidth="1"/>
+    <col min="19" max="19" width="7.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B1" s="43" t="s">
         <v>94</v>
       </c>
@@ -19146,7 +19146,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="2" spans="1:25" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="19"/>
       <c r="C2" s="19" t="str">
         <f>EnergyBalance!F2</f>
@@ -19176,7 +19176,7 @@
       <c r="R2" s="196"/>
       <c r="S2" s="196"/>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="K3" s="197" t="s">
         <v>7</v>
       </c>
@@ -19205,7 +19205,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:25" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" ht="21.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C4" s="1"/>
       <c r="K4" s="199" t="s">
         <v>40</v>
@@ -19237,7 +19237,7 @@
       <c r="V4" s="9"/>
       <c r="W4" s="9"/>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="K5" s="200" t="s">
         <v>93</v>
       </c>
@@ -19264,14 +19264,14 @@
       <c r="X5" s="9"/>
       <c r="Y5" s="9"/>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="U6" s="9"/>
       <c r="V6" s="9"/>
       <c r="W6" s="9"/>
       <c r="X6" s="9"/>
       <c r="Y6" s="9"/>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="F7" s="7" t="s">
         <v>13</v>
       </c>
@@ -19290,7 +19290,7 @@
       <c r="X7" s="9"/>
       <c r="Y7" s="9"/>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
         <v>1</v>
       </c>
@@ -19343,7 +19343,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:25" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" ht="21.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="25" t="s">
         <v>42</v>
       </c>
@@ -19393,7 +19393,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:25" s="9" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" s="9" customFormat="1" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="25" t="s">
         <v>114</v>
       </c>
@@ -19428,7 +19428,7 @@
       <c r="X10"/>
       <c r="Y10"/>
     </row>
-    <row r="11" spans="1:25" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B11" s="15" t="str">
         <f>M11</f>
         <v>MINOIL1</v>
@@ -19474,7 +19474,7 @@
       <c r="R11" s="201"/>
       <c r="S11" s="201"/>
     </row>
-    <row r="12" spans="1:25" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:25" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B12" s="15"/>
       <c r="C12" s="15"/>
       <c r="D12" s="15"/>
@@ -19506,7 +19506,7 @@
       <c r="R12" s="201"/>
       <c r="S12" s="201"/>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" s="9"/>
       <c r="B13" s="15" t="str">
         <f>M12</f>
@@ -19557,7 +19557,7 @@
       <c r="X13" s="9"/>
       <c r="Y13" s="9"/>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14" s="9"/>
       <c r="B14" s="15"/>
       <c r="C14" s="15"/>
@@ -19599,7 +19599,7 @@
       <c r="X14" s="9"/>
       <c r="Y14" s="9"/>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B15" s="15" t="str">
         <f>M13</f>
         <v>MINOIL3</v>
@@ -19642,7 +19642,7 @@
       <c r="X15" s="9"/>
       <c r="Y15" s="9"/>
     </row>
-    <row r="16" spans="1:25" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:25" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16"/>
       <c r="B16" s="15" t="str">
         <f>M14</f>
@@ -19666,7 +19666,7 @@
       <c r="X16"/>
       <c r="Y16"/>
     </row>
-    <row r="17" spans="1:25" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:25" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17"/>
       <c r="B17" s="15" t="str">
         <f>M15</f>
@@ -19697,7 +19697,7 @@
       <c r="X17"/>
       <c r="Y17"/>
     </row>
-    <row r="18" spans="1:25" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:25" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E18" s="9">
         <v>0</v>
       </c>
@@ -19715,14 +19715,14 @@
       <c r="X18"/>
       <c r="Y18"/>
     </row>
-    <row r="19" spans="1:25" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:25" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="U19" s="1"/>
       <c r="V19"/>
       <c r="W19"/>
       <c r="X19" s="1"/>
       <c r="Y19" s="1"/>
     </row>
-    <row r="20" spans="1:25" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:25" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B20"/>
       <c r="C20"/>
       <c r="D20"/>
@@ -19734,7 +19734,7 @@
       <c r="X20"/>
       <c r="Y20"/>
     </row>
-    <row r="21" spans="1:25" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:25" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B21"/>
       <c r="C21"/>
       <c r="D21"/>
@@ -19749,7 +19749,7 @@
       <c r="X21"/>
       <c r="Y21"/>
     </row>
-    <row r="22" spans="1:25" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:25" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B22"/>
       <c r="C22"/>
       <c r="D22"/>
@@ -19773,48 +19773,48 @@
       <c r="X22"/>
       <c r="Y22"/>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A23" s="9"/>
       <c r="T23" s="9"/>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A24" s="9"/>
       <c r="B24" s="113"/>
       <c r="C24" s="1" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B25" s="111"/>
       <c r="C25" s="1" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
       <c r="J26" s="1"/>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
       <c r="J29" s="9"/>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
       <c r="J30" s="9"/>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="J31" s="9"/>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="J32" s="9"/>
     </row>
-    <row r="33" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="33" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J33" s="9"/>
     </row>
-    <row r="34" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="34" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J34" s="9"/>
     </row>
-    <row r="35" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="35" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J35" s="9"/>
     </row>
-    <row r="36" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="36" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J36" s="9"/>
     </row>
   </sheetData>
@@ -19834,31 +19834,31 @@
       <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2" style="48" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.85546875" customWidth="1"/>
-    <col min="8" max="8" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="48" customWidth="1"/>
-    <col min="10" max="10" width="2.5703125" style="48" customWidth="1"/>
-    <col min="11" max="11" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="40.5703125" customWidth="1"/>
-    <col min="15" max="15" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.88671875" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.88671875" customWidth="1"/>
+    <col min="8" max="8" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.6640625" style="48" customWidth="1"/>
+    <col min="10" max="10" width="2.5546875" style="48" customWidth="1"/>
+    <col min="11" max="11" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="40.5546875" customWidth="1"/>
+    <col min="15" max="15" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.109375" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="8" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="8.85546875" style="48"/>
+    <col min="20" max="16384" width="8.88671875" style="48"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:20" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:20" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B1" s="43" t="s">
         <v>94</v>
       </c>
@@ -19876,7 +19876,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="2" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="19"/>
       <c r="C2" s="19" t="str">
         <f>EnergyBalance!H2</f>
@@ -19906,7 +19906,7 @@
       <c r="R2" s="196"/>
       <c r="S2" s="196"/>
     </row>
-    <row r="3" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:20" x14ac:dyDescent="0.25">
       <c r="H3" s="18"/>
       <c r="K3" s="197" t="s">
         <v>7</v>
@@ -19936,7 +19936,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="2:20" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:20" ht="21.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="K4" s="199" t="s">
         <v>40</v>
@@ -19966,7 +19966,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:20" x14ac:dyDescent="0.25">
       <c r="K5" s="200" t="s">
         <v>93</v>
       </c>
@@ -19988,7 +19988,7 @@
       <c r="R5" s="200"/>
       <c r="S5" s="200"/>
     </row>
-    <row r="7" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:20" x14ac:dyDescent="0.25">
       <c r="F7" s="7" t="s">
         <v>13</v>
       </c>
@@ -20006,7 +20006,7 @@
       <c r="R7" s="202"/>
       <c r="S7" s="202"/>
     </row>
-    <row r="8" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
         <v>1</v>
       </c>
@@ -20059,7 +20059,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="2:20" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:20" ht="21.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="25" t="s">
         <v>42</v>
       </c>
@@ -20108,7 +20108,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="2:20" s="50" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:20" s="50" customFormat="1" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="25" t="s">
         <v>114</v>
       </c>
@@ -20142,7 +20142,7 @@
       <c r="S10" s="203"/>
       <c r="T10" s="48"/>
     </row>
-    <row r="11" spans="2:20" s="50" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:20" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B11" s="15" t="str">
         <f>M11</f>
         <v>MINRNW1</v>
@@ -20179,7 +20179,7 @@
       <c r="R11" s="201"/>
       <c r="S11" s="201"/>
     </row>
-    <row r="12" spans="2:20" s="50" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:20" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B12" s="15"/>
       <c r="C12" s="15"/>
       <c r="D12" s="15"/>
@@ -20198,7 +20198,7 @@
       <c r="R12" s="9"/>
       <c r="S12" s="9"/>
     </row>
-    <row r="13" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B13" s="15"/>
       <c r="C13" s="15"/>
       <c r="D13" s="15"/>
@@ -20219,7 +20219,7 @@
       <c r="S13" s="9"/>
       <c r="T13" s="50"/>
     </row>
-    <row r="14" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B14" s="15"/>
       <c r="C14" s="15"/>
       <c r="D14" s="15"/>
@@ -20238,7 +20238,7 @@
       <c r="R14" s="9"/>
       <c r="S14" s="9"/>
     </row>
-    <row r="15" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B15" s="15"/>
       <c r="C15" s="15"/>
       <c r="D15" s="15"/>
@@ -20257,7 +20257,7 @@
       <c r="R15" s="9"/>
       <c r="S15" s="9"/>
     </row>
-    <row r="16" spans="2:20" s="50" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:20" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B16" s="15"/>
       <c r="C16" s="15"/>
       <c r="D16" s="9"/>
@@ -20278,7 +20278,7 @@
       <c r="S16" s="9"/>
       <c r="T16" s="48"/>
     </row>
-    <row r="17" spans="2:20" s="50" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:20" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
@@ -20296,7 +20296,7 @@
       <c r="R17" s="9"/>
       <c r="S17" s="9"/>
     </row>
-    <row r="18" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
@@ -20317,7 +20317,7 @@
       <c r="S18" s="9"/>
       <c r="T18" s="50"/>
     </row>
-    <row r="19" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
       <c r="D19" s="9"/>
@@ -20335,7 +20335,7 @@
       <c r="R19" s="9"/>
       <c r="S19" s="9"/>
     </row>
-    <row r="20" spans="2:20" s="49" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:20" s="49" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
@@ -20356,7 +20356,7 @@
       <c r="S20" s="9"/>
       <c r="T20" s="48"/>
     </row>
-    <row r="21" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
       <c r="D21" s="9"/>
@@ -20377,7 +20377,7 @@
       <c r="S21" s="9"/>
       <c r="T21" s="49"/>
     </row>
-    <row r="22" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:20" x14ac:dyDescent="0.25">
       <c r="K22" s="9"/>
       <c r="L22" s="9"/>
       <c r="M22" s="9"/>
@@ -20388,7 +20388,7 @@
       <c r="R22" s="9"/>
       <c r="S22" s="9"/>
     </row>
-    <row r="23" spans="2:20" s="50" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:20" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B23" s="76"/>
       <c r="C23" s="1" t="s">
         <v>181</v>
@@ -20411,7 +20411,7 @@
       <c r="S23"/>
       <c r="T23" s="48"/>
     </row>
-    <row r="24" spans="2:20" s="50" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:20" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B24" s="111"/>
       <c r="C24" s="1" t="s">
         <v>182</v>
@@ -20431,7 +20431,7 @@
       <c r="R24"/>
       <c r="S24"/>
     </row>
-    <row r="25" spans="2:20" s="50" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:20" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B25"/>
       <c r="C25"/>
       <c r="D25"/>
@@ -20449,44 +20449,44 @@
       <c r="R25"/>
       <c r="S25"/>
     </row>
-    <row r="26" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:20" x14ac:dyDescent="0.25">
       <c r="I26" s="50"/>
       <c r="J26" s="50"/>
       <c r="T26" s="50"/>
     </row>
-    <row r="30" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:20" x14ac:dyDescent="0.25">
       <c r="I30" s="51"/>
       <c r="J30" s="51"/>
     </row>
-    <row r="31" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:20" x14ac:dyDescent="0.25">
       <c r="I31" s="51"/>
       <c r="J31" s="51"/>
     </row>
-    <row r="32" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:20" x14ac:dyDescent="0.25">
       <c r="I32" s="51"/>
       <c r="J32" s="51"/>
     </row>
-    <row r="33" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="33" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I33" s="51"/>
       <c r="J33" s="51"/>
     </row>
-    <row r="34" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="34" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I34" s="51"/>
       <c r="J34" s="51"/>
     </row>
-    <row r="35" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="35" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I35" s="51"/>
       <c r="J35" s="51"/>
     </row>
-    <row r="36" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="36" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I36" s="51"/>
       <c r="J36" s="51"/>
     </row>
-    <row r="37" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="37" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I37" s="51"/>
       <c r="J37" s="51"/>
     </row>
-    <row r="38" spans="9:10" x14ac:dyDescent="0.2">
+    <row r="38" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I38" s="51"/>
       <c r="J38" s="51"/>
     </row>
@@ -20507,31 +20507,31 @@
       <selection activeCell="G9" sqref="G9:I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2" style="48" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.88671875" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.85546875" customWidth="1"/>
+    <col min="5" max="5" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.88671875" customWidth="1"/>
     <col min="10" max="10" width="2" style="48" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="37.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="37.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.109375" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="8" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="8.85546875" style="48"/>
+    <col min="20" max="16384" width="8.88671875" style="48"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:20" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:20" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B1" s="43" t="s">
         <v>94</v>
       </c>
@@ -20549,7 +20549,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="2" spans="2:20" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:20" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="19"/>
       <c r="C2" s="19" t="str">
         <f>EnergyBalance!G2</f>
@@ -20579,7 +20579,7 @@
       <c r="R2" s="196"/>
       <c r="S2" s="196"/>
     </row>
-    <row r="3" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:20" x14ac:dyDescent="0.25">
       <c r="H3" s="18"/>
       <c r="K3" s="197" t="s">
         <v>7</v>
@@ -20609,7 +20609,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="2:20" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:20" ht="21.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="K4" s="199" t="s">
         <v>40</v>
@@ -20639,7 +20639,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:20" x14ac:dyDescent="0.25">
       <c r="K5" s="200" t="s">
         <v>93</v>
       </c>
@@ -20661,7 +20661,7 @@
       <c r="R5" s="200"/>
       <c r="S5" s="200"/>
     </row>
-    <row r="7" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:20" x14ac:dyDescent="0.25">
       <c r="F7" s="7" t="s">
         <v>13</v>
       </c>
@@ -20678,7 +20678,7 @@
       <c r="R7" s="202"/>
       <c r="S7" s="202"/>
     </row>
-    <row r="8" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
         <v>1</v>
       </c>
@@ -20731,7 +20731,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="2:20" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:20" ht="21.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="25" t="s">
         <v>42</v>
       </c>
@@ -20780,7 +20780,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="2:20" s="50" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:20" s="50" customFormat="1" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="25" t="s">
         <v>114</v>
       </c>
@@ -20814,7 +20814,7 @@
       <c r="S10" s="203"/>
       <c r="T10" s="48"/>
     </row>
-    <row r="11" spans="2:20" s="50" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:20" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B11" s="15" t="str">
         <f>M11</f>
         <v>MINNUC1</v>
@@ -20851,7 +20851,7 @@
       <c r="R11" s="201"/>
       <c r="S11" s="201"/>
     </row>
-    <row r="12" spans="2:20" s="50" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:20" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B12" s="15"/>
       <c r="C12" s="15"/>
       <c r="D12" s="15"/>
@@ -20870,7 +20870,7 @@
       <c r="R12" s="9"/>
       <c r="S12" s="9"/>
     </row>
-    <row r="13" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B13" s="15"/>
       <c r="C13" s="15"/>
       <c r="D13" s="15"/>
@@ -20891,7 +20891,7 @@
       <c r="S13" s="9"/>
       <c r="T13" s="50"/>
     </row>
-    <row r="14" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B14" s="15"/>
       <c r="C14" s="15"/>
       <c r="D14" s="15"/>
@@ -20910,7 +20910,7 @@
       <c r="R14" s="9"/>
       <c r="S14" s="9"/>
     </row>
-    <row r="15" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B15" s="15"/>
       <c r="C15" s="15"/>
       <c r="D15" s="15"/>
@@ -20929,7 +20929,7 @@
       <c r="R15" s="9"/>
       <c r="S15" s="9"/>
     </row>
-    <row r="16" spans="2:20" s="50" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:20" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B16" s="15"/>
       <c r="C16" s="15"/>
       <c r="D16" s="9"/>
@@ -20950,7 +20950,7 @@
       <c r="S16" s="9"/>
       <c r="T16" s="48"/>
     </row>
-    <row r="17" spans="2:20" s="50" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:20" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
@@ -20969,7 +20969,7 @@
       <c r="R17" s="9"/>
       <c r="S17" s="9"/>
     </row>
-    <row r="18" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
@@ -20990,7 +20990,7 @@
       <c r="S18" s="9"/>
       <c r="T18" s="50"/>
     </row>
-    <row r="19" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
       <c r="D19" s="9"/>
@@ -21009,7 +21009,7 @@
       <c r="R19" s="9"/>
       <c r="S19" s="9"/>
     </row>
-    <row r="20" spans="2:20" s="49" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:20" s="49" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
@@ -21030,7 +21030,7 @@
       <c r="S20" s="9"/>
       <c r="T20" s="48"/>
     </row>
-    <row r="21" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
       <c r="D21" s="9"/>
@@ -21051,7 +21051,7 @@
       <c r="S21" s="9"/>
       <c r="T21" s="49"/>
     </row>
-    <row r="22" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:20" x14ac:dyDescent="0.25">
       <c r="K22" s="9"/>
       <c r="L22" s="9"/>
       <c r="M22" s="9"/>
@@ -21062,7 +21062,7 @@
       <c r="R22" s="9"/>
       <c r="S22" s="9"/>
     </row>
-    <row r="23" spans="2:20" s="50" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:20" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B23" s="76"/>
       <c r="C23" s="1" t="s">
         <v>181</v>
@@ -21085,7 +21085,7 @@
       <c r="S23"/>
       <c r="T23" s="48"/>
     </row>
-    <row r="24" spans="2:20" s="50" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:20" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B24" s="111"/>
       <c r="C24" s="1" t="s">
         <v>182</v>
@@ -21106,7 +21106,7 @@
       <c r="R24"/>
       <c r="S24"/>
     </row>
-    <row r="25" spans="2:20" s="50" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:20" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B25"/>
       <c r="C25"/>
       <c r="D25"/>
@@ -21125,35 +21125,35 @@
       <c r="R25"/>
       <c r="S25"/>
     </row>
-    <row r="26" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:20" x14ac:dyDescent="0.25">
       <c r="J26" s="50"/>
       <c r="T26" s="50"/>
     </row>
-    <row r="30" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:20" x14ac:dyDescent="0.25">
       <c r="J30" s="51"/>
     </row>
-    <row r="31" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:20" x14ac:dyDescent="0.25">
       <c r="J31" s="51"/>
     </row>
-    <row r="32" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:20" x14ac:dyDescent="0.25">
       <c r="J32" s="51"/>
     </row>
-    <row r="33" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="33" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J33" s="51"/>
     </row>
-    <row r="34" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="34" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J34" s="51"/>
     </row>
-    <row r="35" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="35" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J35" s="51"/>
     </row>
-    <row r="36" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="36" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J36" s="51"/>
     </row>
-    <row r="37" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="37" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J37" s="51"/>
     </row>
-    <row r="38" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="38" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J38" s="51"/>
     </row>
   </sheetData>
@@ -21173,28 +21173,28 @@
       <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" customWidth="1"/>
-    <col min="6" max="6" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="2.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.42578125" customWidth="1"/>
-    <col min="10" max="10" width="7.140625" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="64.42578125" customWidth="1"/>
-    <col min="13" max="13" width="6.140625" customWidth="1"/>
-    <col min="14" max="14" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" customWidth="1"/>
+    <col min="4" max="4" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.88671875" customWidth="1"/>
+    <col min="6" max="6" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="2.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.44140625" customWidth="1"/>
+    <col min="10" max="10" width="7.109375" customWidth="1"/>
+    <col min="11" max="11" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="64.44140625" customWidth="1"/>
+    <col min="13" max="13" width="6.109375" customWidth="1"/>
+    <col min="14" max="14" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:17" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B1" s="16" t="s">
         <v>94</v>
       </c>
@@ -21214,7 +21214,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="2" spans="2:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
       <c r="D2" s="19" t="s">
@@ -21243,7 +21243,7 @@
       <c r="P2" s="196"/>
       <c r="Q2" s="196"/>
     </row>
-    <row r="3" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:17" x14ac:dyDescent="0.25">
       <c r="I3" s="197" t="s">
         <v>7</v>
       </c>
@@ -21272,7 +21272,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="2:17" s="9" customFormat="1" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:17" s="9" customFormat="1" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="17"/>
       <c r="C4" s="17"/>
       <c r="D4" s="17"/>
@@ -21306,7 +21306,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
       <c r="D5" s="11"/>
@@ -21333,7 +21333,7 @@
       <c r="P5" s="201"/>
       <c r="Q5" s="201"/>
     </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>
       <c r="D6" s="11"/>
@@ -21358,7 +21358,7 @@
       <c r="P6" s="201"/>
       <c r="Q6" s="201"/>
     </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
       <c r="D7" s="11"/>
@@ -21383,7 +21383,7 @@
       <c r="P7" s="201"/>
       <c r="Q7" s="201"/>
     </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
@@ -21408,7 +21408,7 @@
       <c r="P8" s="201"/>
       <c r="Q8" s="201"/>
     </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
       <c r="D9" s="11"/>
@@ -21433,7 +21433,7 @@
       <c r="P9" s="201"/>
       <c r="Q9" s="201"/>
     </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B10" s="11"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -21458,7 +21458,7 @@
       <c r="P10" s="201"/>
       <c r="Q10" s="201"/>
     </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B11" s="11"/>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
@@ -21483,11 +21483,11 @@
       <c r="P11" s="201"/>
       <c r="Q11" s="201"/>
     </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:17" x14ac:dyDescent="0.25">
       <c r="K12" s="51"/>
       <c r="L12" s="53"/>
     </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:17" x14ac:dyDescent="0.25">
       <c r="D13" s="7" t="s">
         <v>13</v>
       </c>
@@ -21505,7 +21505,7 @@
       <c r="P13" s="202"/>
       <c r="Q13" s="202"/>
     </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B14" s="28" t="s">
         <v>1</v>
       </c>
@@ -21552,7 +21552,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="2:17" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:17" ht="21.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="26" t="s">
         <v>42</v>
       </c>
@@ -21599,7 +21599,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="2:17" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:17" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="25" t="s">
         <v>114</v>
       </c>
@@ -21625,7 +21625,7 @@
       <c r="P16" s="203"/>
       <c r="Q16" s="203"/>
     </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B17" t="str">
         <f t="shared" ref="B17:B23" si="1">K17</f>
         <v>FTE-RSDGAS</v>
@@ -21669,7 +21669,7 @@
       <c r="P17" s="201"/>
       <c r="Q17" s="201"/>
     </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B18" t="str">
         <f t="shared" si="1"/>
         <v>FTE-TRAOIL</v>
@@ -21711,7 +21711,7 @@
       <c r="P18" s="201"/>
       <c r="Q18" s="201"/>
     </row>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B19" t="str">
         <f t="shared" si="1"/>
         <v>FTE-ELCCOA</v>
@@ -21753,7 +21753,7 @@
       <c r="P19" s="201"/>
       <c r="Q19" s="201"/>
     </row>
-    <row r="20" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B20" t="str">
         <f t="shared" si="1"/>
         <v>FTE-ELCGAS</v>
@@ -21795,7 +21795,7 @@
       <c r="P20" s="201"/>
       <c r="Q20" s="201"/>
     </row>
-    <row r="21" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B21" t="str">
         <f t="shared" si="1"/>
         <v>FTE-ELCOIL</v>
@@ -21837,7 +21837,7 @@
       <c r="P21" s="201"/>
       <c r="Q21" s="201"/>
     </row>
-    <row r="22" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B22" t="str">
         <f t="shared" si="1"/>
         <v>FTE-ELCRNW</v>
@@ -21879,7 +21879,7 @@
       <c r="P22" s="201"/>
       <c r="Q22" s="201"/>
     </row>
-    <row r="23" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B23" t="str">
         <f t="shared" si="1"/>
         <v>FTE-ELCNUC</v>
@@ -21921,21 +21921,21 @@
       <c r="P23" s="201"/>
       <c r="Q23" s="201"/>
     </row>
-    <row r="24" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:17" x14ac:dyDescent="0.25">
       <c r="I24" s="49"/>
       <c r="J24" s="48"/>
       <c r="O24" s="9"/>
       <c r="P24" s="9"/>
       <c r="Q24" s="9"/>
     </row>
-    <row r="25" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:17" x14ac:dyDescent="0.25">
       <c r="I25" s="48"/>
       <c r="J25" s="48"/>
       <c r="O25" s="9"/>
       <c r="P25" s="9"/>
       <c r="Q25" s="9"/>
     </row>
-    <row r="26" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B26" s="76"/>
       <c r="C26" s="1" t="s">
         <v>181</v>
@@ -21946,7 +21946,7 @@
       <c r="P26" s="9"/>
       <c r="Q26" s="9"/>
     </row>
-    <row r="27" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B27" s="111"/>
       <c r="C27" s="1" t="s">
         <v>182</v>
@@ -21957,7 +21957,7 @@
       <c r="P27" s="56"/>
       <c r="Q27" s="9"/>
     </row>
-    <row r="28" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:17" x14ac:dyDescent="0.25">
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
@@ -21984,39 +21984,39 @@
       <selection activeCell="V20" sqref="V20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" style="48" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" style="48" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="48" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" style="48" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.44140625" style="48" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="48" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" style="48" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" style="48" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" style="48" customWidth="1"/>
+    <col min="6" max="6" width="13.109375" style="48" customWidth="1"/>
     <col min="7" max="7" width="10" style="48" customWidth="1"/>
-    <col min="8" max="8" width="8.140625" style="48" customWidth="1"/>
-    <col min="9" max="9" width="9.7109375" style="48" customWidth="1"/>
-    <col min="10" max="10" width="7.140625" style="48" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.28515625" style="48" customWidth="1"/>
-    <col min="12" max="12" width="7.85546875" style="48" customWidth="1"/>
+    <col min="8" max="8" width="8.109375" style="48" customWidth="1"/>
+    <col min="9" max="9" width="9.6640625" style="48" customWidth="1"/>
+    <col min="10" max="10" width="7.109375" style="48" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.33203125" style="48" customWidth="1"/>
+    <col min="12" max="12" width="7.88671875" style="48" customWidth="1"/>
     <col min="13" max="13" width="7" style="48" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.5703125" style="48" customWidth="1"/>
-    <col min="15" max="15" width="15.140625" style="48" customWidth="1"/>
+    <col min="14" max="14" width="9.5546875" style="48" customWidth="1"/>
+    <col min="15" max="15" width="15.109375" style="48" customWidth="1"/>
     <col min="16" max="16" width="2" style="51" customWidth="1"/>
-    <col min="17" max="17" width="13.5703125" style="51" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.5546875" style="51" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="2" style="51" customWidth="1"/>
-    <col min="19" max="19" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.140625" customWidth="1"/>
+    <col min="19" max="19" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.109375" customWidth="1"/>
     <col min="22" max="22" width="55" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="6.28515625" customWidth="1"/>
-    <col min="24" max="24" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="6.33203125" customWidth="1"/>
+    <col min="24" max="24" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.5546875" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="15" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="8.85546875" style="48"/>
+    <col min="27" max="27" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="8.88671875" style="48"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:27" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:27" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B1" s="43" t="s">
         <v>94</v>
       </c>
@@ -22042,7 +22042,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="2" spans="2:27" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:27" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B2" s="19" t="str">
         <f>EnergyBalance!B11</f>
         <v>ELC</v>
@@ -22083,7 +22083,7 @@
       <c r="Z2" s="196"/>
       <c r="AA2" s="196"/>
     </row>
-    <row r="3" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:27" x14ac:dyDescent="0.25">
       <c r="S3" s="197" t="s">
         <v>7</v>
       </c>
@@ -22112,7 +22112,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="2:27" s="50" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:27" s="50" customFormat="1" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="58" t="s">
         <v>161</v>
       </c>
@@ -22160,7 +22160,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="2:27" s="50" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:27" s="50" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B5" s="57" t="s">
         <v>167</v>
       </c>
@@ -22203,7 +22203,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:27" x14ac:dyDescent="0.25">
       <c r="S6" s="202" t="s">
         <v>137</v>
       </c>
@@ -22225,11 +22225,11 @@
       <c r="Z6" s="202"/>
       <c r="AA6" s="202"/>
     </row>
-    <row r="7" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:27" x14ac:dyDescent="0.25">
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
     </row>
-    <row r="8" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:27" x14ac:dyDescent="0.25">
       <c r="D8" s="7" t="s">
         <v>13</v>
       </c>
@@ -22256,7 +22256,7 @@
       <c r="Z8" s="196"/>
       <c r="AA8" s="196"/>
     </row>
-    <row r="9" spans="2:27" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B9" s="28" t="s">
         <v>1</v>
       </c>
@@ -22332,7 +22332,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="2:27" ht="23.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:27" ht="23.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="26" t="s">
         <v>42</v>
       </c>
@@ -22406,7 +22406,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="2:27" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:27" ht="21.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="25" t="s">
         <v>114</v>
       </c>
@@ -22463,7 +22463,7 @@
       <c r="Z11" s="199"/>
       <c r="AA11" s="199"/>
     </row>
-    <row r="12" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B12" s="48" t="str">
         <f>U12</f>
         <v>ELCTECOA00</v>
@@ -22530,7 +22530,7 @@
       <c r="Z12" s="201"/>
       <c r="AA12" s="201"/>
     </row>
-    <row r="13" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:27" x14ac:dyDescent="0.25">
       <c r="D13" s="48" t="str">
         <f>$U$6</f>
         <v>ELCCO2</v>
@@ -22572,7 +22572,7 @@
       <c r="Z13" s="201"/>
       <c r="AA13" s="201"/>
     </row>
-    <row r="14" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B14" s="48" t="str">
         <f>U13</f>
         <v>ELCTEGAS00</v>
@@ -22638,7 +22638,7 @@
       <c r="Z14" s="201"/>
       <c r="AA14" s="201"/>
     </row>
-    <row r="15" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:27" x14ac:dyDescent="0.25">
       <c r="D15" s="48" t="str">
         <f>$U$6</f>
         <v>ELCCO2</v>
@@ -22680,7 +22680,7 @@
       <c r="Z15" s="201"/>
       <c r="AA15" s="201"/>
     </row>
-    <row r="16" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B16" s="48" t="str">
         <f>U14</f>
         <v>ELCTEOIL00</v>
@@ -22747,7 +22747,7 @@
       <c r="Z16" s="201"/>
       <c r="AA16" s="201"/>
     </row>
-    <row r="17" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:27" x14ac:dyDescent="0.25">
       <c r="D17" s="48" t="str">
         <f>$U$6</f>
         <v>ELCCO2</v>
@@ -22791,7 +22791,7 @@
       <c r="Z17" s="201"/>
       <c r="AA17" s="201"/>
     </row>
-    <row r="18" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B18" s="48" t="str">
         <f>U15</f>
         <v>ELCRERNW00</v>
@@ -22856,7 +22856,7 @@
       <c r="Z18" s="201"/>
       <c r="AA18" s="201"/>
     </row>
-    <row r="19" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B19" s="178" t="str">
         <f>U16</f>
         <v>ELCTENUC00</v>
@@ -22924,7 +22924,7 @@
       <c r="Z19" s="201"/>
       <c r="AA19" s="201"/>
     </row>
-    <row r="20" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B20" s="48" t="str">
         <f>U17</f>
         <v>ELCTNCOA00</v>
@@ -22977,7 +22977,7 @@
       <c r="Z20" s="9"/>
       <c r="AA20" s="9"/>
     </row>
-    <row r="21" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:27" x14ac:dyDescent="0.25">
       <c r="D21" s="48" t="str">
         <f>$U$6</f>
         <v>ELCCO2</v>
@@ -22998,7 +22998,7 @@
       <c r="P21" s="156"/>
       <c r="Q21" s="48"/>
     </row>
-    <row r="22" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B22" s="48" t="str">
         <f>U18</f>
         <v>ELCTNGAS00</v>
@@ -23039,7 +23039,7 @@
       <c r="P22" s="156"/>
       <c r="Q22" s="48"/>
     </row>
-    <row r="23" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:27" x14ac:dyDescent="0.25">
       <c r="D23" s="48" t="str">
         <f>$U$6</f>
         <v>ELCCO2</v>
@@ -23058,7 +23058,7 @@
       <c r="P23" s="156"/>
       <c r="Q23" s="48"/>
     </row>
-    <row r="24" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B24" s="48" t="str">
         <f>U19</f>
         <v>ELCTNOIL00</v>
@@ -23099,7 +23099,7 @@
       <c r="P24" s="156"/>
       <c r="Q24" s="48"/>
     </row>
-    <row r="25" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:27" x14ac:dyDescent="0.25">
       <c r="D25" s="48" t="str">
         <f>$U$6</f>
         <v>ELCCO2</v>
@@ -23118,14 +23118,14 @@
       <c r="P25" s="50"/>
       <c r="Q25" s="48"/>
     </row>
-    <row r="26" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:27" x14ac:dyDescent="0.25">
       <c r="N26" s="54"/>
       <c r="Q26" s="192"/>
     </row>
-    <row r="28" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:27" x14ac:dyDescent="0.25">
       <c r="Q28" s="192"/>
     </row>
-    <row r="30" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:27" x14ac:dyDescent="0.25">
       <c r="Q30" s="192"/>
       <c r="S30" s="9"/>
       <c r="T30" s="9"/>
@@ -23135,7 +23135,7 @@
       <c r="X30" s="9"/>
       <c r="Y30" s="15"/>
     </row>
-    <row r="31" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B31" s="76"/>
       <c r="C31" s="1" t="s">
         <v>181</v>
@@ -23148,7 +23148,7 @@
       <c r="X31" s="9"/>
       <c r="Y31" s="9"/>
     </row>
-    <row r="32" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B32" s="111"/>
       <c r="C32" s="1" t="s">
         <v>182</v>
@@ -23161,7 +23161,7 @@
       <c r="X32" s="9"/>
       <c r="Y32" s="9"/>
     </row>
-    <row r="33" spans="19:25" x14ac:dyDescent="0.2">
+    <row r="33" spans="19:25" x14ac:dyDescent="0.25">
       <c r="S33" s="9"/>
       <c r="T33" s="9"/>
       <c r="U33" s="9"/>
@@ -23170,7 +23170,7 @@
       <c r="X33" s="9"/>
       <c r="Y33" s="9"/>
     </row>
-    <row r="34" spans="19:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="19:25" x14ac:dyDescent="0.25">
       <c r="S34" s="9"/>
       <c r="T34" s="9"/>
       <c r="U34" s="9"/>
@@ -23179,7 +23179,7 @@
       <c r="X34" s="9"/>
       <c r="Y34" s="15"/>
     </row>
-    <row r="35" spans="19:25" x14ac:dyDescent="0.2">
+    <row r="35" spans="19:25" x14ac:dyDescent="0.25">
       <c r="S35" s="9"/>
       <c r="T35" s="9"/>
       <c r="U35" s="9"/>
@@ -23188,7 +23188,7 @@
       <c r="X35" s="9"/>
       <c r="Y35" s="15"/>
     </row>
-    <row r="36" spans="19:25" x14ac:dyDescent="0.2">
+    <row r="36" spans="19:25" x14ac:dyDescent="0.25">
       <c r="S36" s="9"/>
       <c r="T36" s="9"/>
       <c r="U36" s="9"/>
@@ -23197,7 +23197,7 @@
       <c r="X36" s="9"/>
       <c r="Y36" s="9"/>
     </row>
-    <row r="37" spans="19:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="19:25" x14ac:dyDescent="0.25">
       <c r="S37" s="9"/>
       <c r="T37" s="9"/>
       <c r="U37" s="9"/>

--- a/VT_REG_PRI_V03.xlsx
+++ b/VT_REG_PRI_V03.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VEDA\Veda\Veda_Training\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AD26534-427E-4854-BAFE-8EE1A26D7CC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB05DC16-D8C9-453D-9AE2-61552CE758DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="901" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="901" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EnergyBalance" sheetId="133" r:id="rId1"/>
@@ -9652,7 +9652,7 @@
     <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="214">
+  <cellXfs count="216">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -10027,6 +10027,10 @@
     <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="22">
     <cellStyle name="20% - Accent5" xfId="1" builtinId="46"/>
@@ -13391,7 +13395,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S51"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="A3" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
@@ -14608,7 +14612,7 @@
   <dimension ref="B1:T28"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I46" sqref="I46"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -15762,8 +15766,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:V28"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="O34" sqref="O34"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -17361,8 +17365,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:W49"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView topLeftCell="A36" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J53" sqref="J53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -17467,7 +17471,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:T36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
@@ -19101,8 +19105,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:Y36"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -19355,13 +19359,13 @@
       </c>
       <c r="E9" s="25"/>
       <c r="F9" s="25"/>
-      <c r="G9" s="25" t="s">
+      <c r="G9" s="215" t="s">
         <v>39</v>
       </c>
-      <c r="H9" s="25" t="s">
+      <c r="H9" s="215" t="s">
         <v>117</v>
       </c>
-      <c r="I9" s="25" t="s">
+      <c r="I9" s="215" t="s">
         <v>116</v>
       </c>
       <c r="J9" s="9"/>
@@ -19446,7 +19450,7 @@
         <v>24000</v>
       </c>
       <c r="H11" s="115">
-        <v>6.4</v>
+        <v>7</v>
       </c>
       <c r="I11" s="109">
         <f>EnergyBalance!$F$5*EnergyBalance!F37</f>
@@ -19680,7 +19684,7 @@
       <c r="E17">
         <v>2005</v>
       </c>
-      <c r="F17" s="15" t="s">
+      <c r="F17" s="214" t="s">
         <v>191</v>
       </c>
       <c r="H17" s="115">
@@ -19701,7 +19705,7 @@
       <c r="E18" s="9">
         <v>0</v>
       </c>
-      <c r="F18" s="15" t="s">
+      <c r="F18" s="214" t="s">
         <v>191</v>
       </c>
       <c r="G18" s="20"/>
@@ -21170,7 +21174,7 @@
   <dimension ref="B1:Q28"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H36" sqref="H36"/>
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>

--- a/VT_REG_PRI_V03.xlsx
+++ b/VT_REG_PRI_V03.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VEDA\Veda\Veda_Training\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB05DC16-D8C9-453D-9AE2-61552CE758DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB2989A5-0D7C-41A1-9D6D-345E52EFA434}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="901" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="901" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EnergyBalance" sheetId="133" r:id="rId1"/>
@@ -4197,7 +4197,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I8" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0400-000006000000}">
+    <comment ref="I9" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0400-000006000000}">
       <text>
         <r>
           <rPr>
@@ -4244,7 +4244,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q8" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0400-000007000000}">
+    <comment ref="Q9" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0400-000007000000}">
       <text>
         <r>
           <rPr>
@@ -4337,7 +4337,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R8" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0400-000008000000}">
+    <comment ref="R9" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0400-000008000000}">
       <text>
         <r>
           <rPr>
@@ -4362,7 +4362,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S8" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0400-000009000000}">
+    <comment ref="S9" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0400-000009000000}">
       <text>
         <r>
           <rPr>
@@ -4425,7 +4425,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K9" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0400-00000A000000}">
+    <comment ref="K10" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0400-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -6543,7 +6543,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O14" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0700-000006000000}">
+    <comment ref="O15" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0700-000006000000}">
       <text>
         <r>
           <rPr>
@@ -6636,7 +6636,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P14" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0700-000007000000}">
+    <comment ref="P15" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0700-000007000000}">
       <text>
         <r>
           <rPr>
@@ -6661,7 +6661,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q14" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0700-000008000000}">
+    <comment ref="Q15" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0700-000008000000}">
       <text>
         <r>
           <rPr>
@@ -6724,7 +6724,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I15" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0700-000009000000}">
+    <comment ref="I16" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0700-000009000000}">
       <text>
         <r>
           <rPr>
@@ -8442,7 +8442,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="914" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="938" uniqueCount="214">
   <si>
     <t>CommName</t>
   </si>
@@ -9049,6 +9049,42 @@
   <si>
     <t>Reference Energy System</t>
   </si>
+  <si>
+    <t>MINOILS1</t>
+  </si>
+  <si>
+    <t>OILS</t>
+  </si>
+  <si>
+    <t>Shale Oil</t>
+  </si>
+  <si>
+    <t>Domestic Supply of Shale Oil Step 1</t>
+  </si>
+  <si>
+    <t>ELCOILS</t>
+  </si>
+  <si>
+    <t>Electricity Plants Shale Oil</t>
+  </si>
+  <si>
+    <t>FTE-ELCOILS</t>
+  </si>
+  <si>
+    <t>Sector Fuel Technology Existing Electricity Plants Shale Oil</t>
+  </si>
+  <si>
+    <t>PJa</t>
+  </si>
+  <si>
+    <t>ELCCO2</t>
+  </si>
+  <si>
+    <t>ELCTNOILS00</t>
+  </si>
+  <si>
+    <t>Power Plants New00 - Shale Oil</t>
+  </si>
 </sst>
 </file>
 
@@ -9652,7 +9688,7 @@
     <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="216">
+  <cellXfs count="221">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -10031,6 +10067,13 @@
     <xf numFmtId="0" fontId="21" fillId="3" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="1" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyFont="1"/>
   </cellXfs>
   <cellStyles count="22">
     <cellStyle name="20% - Accent5" xfId="1" builtinId="46"/>
@@ -12230,13 +12273,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -12618,15 +12661,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>13335</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:colOff>19961</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>151572</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>4293870</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:colOff>4300496</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>161097</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -12641,8 +12684,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5871210" y="4724400"/>
-          <a:ext cx="6557010" cy="981075"/>
+          <a:off x="4996152" y="4909102"/>
+          <a:ext cx="6626170" cy="1003438"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12777,15 +12820,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>23916</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>11854</xdr:rowOff>
+      <xdr:colOff>91649</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>88054</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>38079</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>12732</xdr:rowOff>
+      <xdr:colOff>105812</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>88932</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -12800,8 +12843,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12942991" y="4524587"/>
-          <a:ext cx="7025622" cy="1016878"/>
+          <a:off x="12571516" y="5108787"/>
+          <a:ext cx="7414029" cy="1016878"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -17365,7 +17408,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:W49"/>
   <sheetViews>
-    <sheetView topLeftCell="A36" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A33" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="J53" sqref="J53"/>
     </sheetView>
   </sheetViews>
@@ -19103,10 +19146,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:Y36"/>
+  <dimension ref="A1:Y37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView topLeftCell="D2" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="Q17" sqref="Q17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -19269,6 +19312,18 @@
       <c r="Y5" s="9"/>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="K6" s="217" t="s">
+        <v>93</v>
+      </c>
+      <c r="M6" s="217" t="s">
+        <v>203</v>
+      </c>
+      <c r="N6" s="217" t="s">
+        <v>204</v>
+      </c>
+      <c r="O6" s="217" t="s">
+        <v>97</v>
+      </c>
       <c r="U6" s="9"/>
       <c r="V6" s="9"/>
       <c r="W6" s="9"/>
@@ -19276,230 +19331,209 @@
       <c r="Y6" s="9"/>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="F7" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H7" s="7"/>
-      <c r="K7" s="195" t="s">
-        <v>15</v>
-      </c>
-      <c r="L7" s="195"/>
-      <c r="M7" s="202"/>
-      <c r="N7" s="202"/>
-      <c r="O7" s="202"/>
-      <c r="P7" s="202"/>
-      <c r="Q7" s="202"/>
-      <c r="R7" s="202"/>
-      <c r="S7" s="202"/>
+      <c r="K7" s="217"/>
+      <c r="M7" s="217"/>
+      <c r="N7" s="217"/>
+      <c r="O7" s="217"/>
+      <c r="U7" s="9"/>
+      <c r="V7" s="9"/>
+      <c r="W7" s="9"/>
       <c r="X7" s="9"/>
       <c r="Y7" s="9"/>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B8" s="3" t="s">
+      <c r="F8" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" s="7"/>
+      <c r="K8" s="195" t="s">
+        <v>15</v>
+      </c>
+      <c r="L8" s="195"/>
+      <c r="M8" s="202"/>
+      <c r="N8" s="202"/>
+      <c r="O8" s="202"/>
+      <c r="P8" s="202"/>
+      <c r="Q8" s="202"/>
+      <c r="R8" s="202"/>
+      <c r="S8" s="202"/>
+      <c r="X8" s="9"/>
+      <c r="Y8" s="9"/>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B9" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="29" t="s">
+      <c r="C9" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D9" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E9" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G8" s="139" t="s">
+      <c r="G9" s="139" t="s">
         <v>37</v>
       </c>
-      <c r="H8" s="139" t="s">
+      <c r="H9" s="139" t="s">
         <v>38</v>
       </c>
-      <c r="I8" s="139" t="s">
+      <c r="I9" s="139" t="s">
         <v>100</v>
       </c>
-      <c r="K8" s="197" t="s">
+      <c r="K9" s="197" t="s">
         <v>11</v>
       </c>
-      <c r="L8" s="198" t="s">
+      <c r="L9" s="198" t="s">
         <v>30</v>
       </c>
-      <c r="M8" s="197" t="s">
+      <c r="M9" s="197" t="s">
         <v>1</v>
       </c>
-      <c r="N8" s="197" t="s">
+      <c r="N9" s="197" t="s">
         <v>2</v>
       </c>
-      <c r="O8" s="197" t="s">
+      <c r="O9" s="197" t="s">
         <v>16</v>
       </c>
-      <c r="P8" s="197" t="s">
+      <c r="P9" s="197" t="s">
         <v>17</v>
       </c>
-      <c r="Q8" s="197" t="s">
+      <c r="Q9" s="197" t="s">
         <v>18</v>
       </c>
-      <c r="R8" s="197" t="s">
+      <c r="R9" s="197" t="s">
         <v>19</v>
       </c>
-      <c r="S8" s="197" t="s">
+      <c r="S9" s="197" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:25" ht="21.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="25" t="s">
+    <row r="10" spans="1:25" ht="21.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="C9" s="25" t="s">
+      <c r="C10" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="25" t="s">
+      <c r="D10" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="215" t="s">
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="215" t="s">
         <v>39</v>
       </c>
-      <c r="H9" s="215" t="s">
+      <c r="H10" s="215" t="s">
         <v>117</v>
       </c>
-      <c r="I9" s="215" t="s">
+      <c r="I10" s="215" t="s">
         <v>116</v>
       </c>
-      <c r="J9" s="9"/>
-      <c r="K9" s="199" t="s">
+      <c r="J10" s="9"/>
+      <c r="K10" s="199" t="s">
         <v>41</v>
       </c>
-      <c r="L9" s="199" t="s">
+      <c r="L10" s="199" t="s">
         <v>31</v>
       </c>
-      <c r="M9" s="199" t="s">
+      <c r="M10" s="199" t="s">
         <v>21</v>
       </c>
-      <c r="N9" s="199" t="s">
+      <c r="N10" s="199" t="s">
         <v>22</v>
       </c>
-      <c r="O9" s="199" t="s">
+      <c r="O10" s="199" t="s">
         <v>23</v>
       </c>
-      <c r="P9" s="199" t="s">
+      <c r="P10" s="199" t="s">
         <v>24</v>
       </c>
-      <c r="Q9" s="199" t="s">
+      <c r="Q10" s="199" t="s">
         <v>46</v>
       </c>
-      <c r="R9" s="199" t="s">
+      <c r="R10" s="199" t="s">
         <v>45</v>
       </c>
-      <c r="S9" s="199" t="s">
+      <c r="S10" s="199" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:25" s="9" customFormat="1" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="25" t="s">
+    <row r="11" spans="1:25" s="9" customFormat="1" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="25" t="s">
         <v>114</v>
       </c>
-      <c r="C10" s="23"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="23" t="str">
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23" t="str">
         <f>$E$2</f>
         <v>PJ</v>
       </c>
-      <c r="H10" s="23" t="str">
+      <c r="H11" s="23" t="str">
         <f>$G$2&amp;"/"&amp;$E$2</f>
         <v>M€2005/PJ</v>
       </c>
-      <c r="I10" s="23" t="str">
+      <c r="I11" s="23" t="str">
         <f>$E$2</f>
         <v>PJ</v>
       </c>
-      <c r="K10" s="199" t="s">
+      <c r="K11" s="199" t="s">
         <v>103</v>
       </c>
-      <c r="L10" s="203"/>
-      <c r="M10" s="203"/>
-      <c r="N10" s="203"/>
-      <c r="O10" s="203"/>
-      <c r="P10" s="203"/>
-      <c r="Q10" s="203"/>
-      <c r="R10" s="203"/>
-      <c r="S10" s="203"/>
-      <c r="T10"/>
-      <c r="X10"/>
-      <c r="Y10"/>
-    </row>
-    <row r="11" spans="1:25" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="15" t="str">
-        <f>M11</f>
+      <c r="L11" s="203"/>
+      <c r="M11" s="203"/>
+      <c r="N11" s="203"/>
+      <c r="O11" s="203"/>
+      <c r="P11" s="203"/>
+      <c r="Q11" s="203"/>
+      <c r="R11" s="203"/>
+      <c r="S11" s="203"/>
+      <c r="T11"/>
+      <c r="X11"/>
+      <c r="Y11"/>
+    </row>
+    <row r="12" spans="1:25" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="15" t="str">
+        <f>M12</f>
         <v>MINOIL1</v>
       </c>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15" t="str">
+      <c r="C12" s="15"/>
+      <c r="D12" s="15" t="str">
         <f>$M$5</f>
         <v>OIL</v>
       </c>
-      <c r="E11">
+      <c r="E12">
         <v>2005</v>
       </c>
-      <c r="F11" s="15"/>
-      <c r="G11" s="113">
+      <c r="F12" s="15"/>
+      <c r="G12" s="113">
         <v>24000</v>
       </c>
-      <c r="H11" s="115">
+      <c r="H12" s="115">
         <v>7</v>
       </c>
-      <c r="I11" s="109">
+      <c r="I12" s="109">
         <f>EnergyBalance!$F$5*EnergyBalance!F37</f>
         <v>4302.8095999999996</v>
       </c>
-      <c r="K11" s="200" t="str">
+      <c r="K12" s="200" t="str">
         <f>EnergyBalance!$B$5</f>
         <v>MIN</v>
       </c>
-      <c r="L11" s="201"/>
-      <c r="M11" s="201" t="str">
-        <f>$K$11&amp;$C$2&amp;1</f>
-        <v>MINOIL1</v>
-      </c>
-      <c r="N11" s="205" t="str">
-        <f>"Domestic Supply of "&amp;$D$2&amp; " Step "&amp;RIGHT(M11,1)</f>
-        <v>Domestic Supply of Crude Oil Step 1</v>
-      </c>
-      <c r="O11" s="201" t="str">
-        <f>$E$2</f>
-        <v>PJ</v>
-      </c>
-      <c r="P11" s="201"/>
-      <c r="Q11" s="201"/>
-      <c r="R11" s="201"/>
-      <c r="S11" s="201"/>
-    </row>
-    <row r="12" spans="1:25" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="15"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="9">
-        <v>0</v>
-      </c>
-      <c r="F12" s="15"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="44"/>
-      <c r="I12" s="177">
-        <v>5</v>
-      </c>
-      <c r="K12" s="201"/>
       <c r="L12" s="201"/>
       <c r="M12" s="201" t="str">
-        <f>$K$11&amp;$C$2&amp;2</f>
-        <v>MINOIL2</v>
+        <f>$K$12&amp;$C$2&amp;1</f>
+        <v>MINOIL1</v>
       </c>
       <c r="N12" s="205" t="str">
         <f>"Domestic Supply of "&amp;$D$2&amp; " Step "&amp;RIGHT(M12,1)</f>
-        <v>Domestic Supply of Crude Oil Step 2</v>
+        <v>Domestic Supply of Crude Oil Step 1</v>
       </c>
       <c r="O12" s="201" t="str">
         <f>$E$2</f>
@@ -19510,41 +19544,28 @@
       <c r="R12" s="201"/>
       <c r="S12" s="201"/>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A13" s="9"/>
-      <c r="B13" s="15" t="str">
-        <f>M12</f>
-        <v>MINOIL2</v>
-      </c>
+    <row r="13" spans="1:25" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="15"/>
       <c r="C13" s="15"/>
-      <c r="D13" s="15" t="str">
-        <f>$M$5</f>
-        <v>OIL</v>
-      </c>
-      <c r="E13">
-        <v>2005</v>
+      <c r="D13" s="15"/>
+      <c r="E13" s="9">
+        <v>0</v>
       </c>
       <c r="F13" s="15"/>
-      <c r="G13" s="113">
-        <v>6000</v>
-      </c>
-      <c r="H13" s="115">
-        <v>7.3599999999999994</v>
-      </c>
-      <c r="I13" s="109">
-        <f>EnergyBalance!$F$5*EnergyBalance!F38</f>
-        <v>1075.7023999999999</v>
-      </c>
-      <c r="J13" s="9"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="44"/>
+      <c r="I13" s="177">
+        <v>5</v>
+      </c>
       <c r="K13" s="201"/>
       <c r="L13" s="201"/>
       <c r="M13" s="201" t="str">
-        <f>$K$11&amp;$C$2&amp;3</f>
-        <v>MINOIL3</v>
+        <f>$K$12&amp;$C$2&amp;2</f>
+        <v>MINOIL2</v>
       </c>
       <c r="N13" s="205" t="str">
         <f>"Domestic Supply of "&amp;$D$2&amp; " Step "&amp;RIGHT(M13,1)</f>
-        <v>Domestic Supply of Crude Oil Step 3</v>
+        <v>Domestic Supply of Crude Oil Step 2</v>
       </c>
       <c r="O13" s="201" t="str">
         <f>$E$2</f>
@@ -19554,40 +19575,42 @@
       <c r="Q13" s="201"/>
       <c r="R13" s="201"/>
       <c r="S13" s="201"/>
-      <c r="T13" s="9"/>
-      <c r="U13" s="9"/>
-      <c r="V13" s="9"/>
-      <c r="W13" s="9"/>
-      <c r="X13" s="9"/>
-      <c r="Y13" s="9"/>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14" s="9"/>
-      <c r="B14" s="15"/>
+      <c r="B14" s="15" t="str">
+        <f>M13</f>
+        <v>MINOIL2</v>
+      </c>
       <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="9">
-        <v>0</v>
+      <c r="D14" s="15" t="str">
+        <f>$M$5</f>
+        <v>OIL</v>
+      </c>
+      <c r="E14">
+        <v>2005</v>
       </c>
       <c r="F14" s="15"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="44"/>
-      <c r="I14" s="177">
-        <v>5</v>
+      <c r="G14" s="113">
+        <v>6000</v>
+      </c>
+      <c r="H14" s="115">
+        <v>7.3599999999999994</v>
+      </c>
+      <c r="I14" s="109">
+        <f>EnergyBalance!$F$5*EnergyBalance!F38</f>
+        <v>1075.7023999999999</v>
       </c>
       <c r="J14" s="9"/>
-      <c r="K14" s="201" t="str">
-        <f>EnergyBalance!$B$6</f>
-        <v>IMP</v>
-      </c>
+      <c r="K14" s="201"/>
       <c r="L14" s="201"/>
       <c r="M14" s="201" t="str">
-        <f>$K$14&amp;$C$2&amp;1</f>
-        <v>IMPOIL1</v>
+        <f>$K$12&amp;$C$2&amp;3</f>
+        <v>MINOIL3</v>
       </c>
       <c r="N14" s="205" t="str">
-        <f>"Import of "&amp;$D$2&amp; " Step "&amp;RIGHT(M14,1)</f>
-        <v>Import of Crude Oil Step 1</v>
+        <f>"Domestic Supply of "&amp;$D$2&amp; " Step "&amp;RIGHT(M14,1)</f>
+        <v>Domestic Supply of Crude Oil Step 3</v>
       </c>
       <c r="O14" s="201" t="str">
         <f>$E$2</f>
@@ -19597,6 +19620,7 @@
       <c r="Q14" s="201"/>
       <c r="R14" s="201"/>
       <c r="S14" s="201"/>
+      <c r="T14" s="9"/>
       <c r="U14" s="9"/>
       <c r="V14" s="9"/>
       <c r="W14" s="9"/>
@@ -19604,36 +19628,32 @@
       <c r="Y14" s="9"/>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B15" s="15" t="str">
-        <f>M13</f>
-        <v>MINOIL3</v>
-      </c>
+      <c r="A15" s="9"/>
+      <c r="B15" s="15"/>
       <c r="C15" s="15"/>
-      <c r="D15" s="15" t="str">
-        <f>$M$5</f>
-        <v>OIL</v>
-      </c>
-      <c r="E15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="9">
+        <v>0</v>
+      </c>
       <c r="F15" s="15"/>
-      <c r="G15" s="113">
-        <v>40000</v>
-      </c>
-      <c r="H15" s="115">
-        <v>9.6000000000000014</v>
-      </c>
-      <c r="I15" s="177"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="44"/>
+      <c r="I15" s="177">
+        <v>5</v>
+      </c>
+      <c r="J15" s="9"/>
       <c r="K15" s="201" t="str">
-        <f>EnergyBalance!B7</f>
-        <v>EXP</v>
+        <f>EnergyBalance!$B$6</f>
+        <v>IMP</v>
       </c>
       <c r="L15" s="201"/>
       <c r="M15" s="201" t="str">
         <f>$K$15&amp;$C$2&amp;1</f>
-        <v>EXPOIL1</v>
+        <v>IMPOIL1</v>
       </c>
       <c r="N15" s="205" t="str">
-        <f>"Export of "&amp;$D$2&amp; " Step "&amp;RIGHT(M15,1)</f>
-        <v>Export of Crude Oil Step 1</v>
+        <f>"Import of "&amp;$D$2&amp; " Step "&amp;RIGHT(M15,1)</f>
+        <v>Import of Crude Oil Step 1</v>
       </c>
       <c r="O15" s="201" t="str">
         <f>$E$2</f>
@@ -19643,14 +19663,16 @@
       <c r="Q15" s="201"/>
       <c r="R15" s="201"/>
       <c r="S15" s="201"/>
+      <c r="U15" s="9"/>
+      <c r="V15" s="9"/>
+      <c r="W15" s="9"/>
       <c r="X15" s="9"/>
       <c r="Y15" s="9"/>
     </row>
-    <row r="16" spans="1:25" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16"/>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B16" s="15" t="str">
         <f>M14</f>
-        <v>IMPOIL1</v>
+        <v>MINOIL3</v>
       </c>
       <c r="C16" s="15"/>
       <c r="D16" s="15" t="str">
@@ -19659,94 +19681,159 @@
       </c>
       <c r="E16" s="15"/>
       <c r="F16" s="15"/>
-      <c r="G16" s="14"/>
+      <c r="G16" s="113">
+        <v>40000</v>
+      </c>
       <c r="H16" s="115">
-        <v>8</v>
-      </c>
-      <c r="J16"/>
-      <c r="T16"/>
-      <c r="V16"/>
-      <c r="W16"/>
-      <c r="X16"/>
-      <c r="Y16"/>
+        <v>9.6000000000000014</v>
+      </c>
+      <c r="I16" s="177"/>
+      <c r="K16" s="201" t="str">
+        <f>EnergyBalance!B7</f>
+        <v>EXP</v>
+      </c>
+      <c r="L16" s="201"/>
+      <c r="M16" s="201" t="str">
+        <f>$K$16&amp;$C$2&amp;1</f>
+        <v>EXPOIL1</v>
+      </c>
+      <c r="N16" s="205" t="str">
+        <f>"Export of "&amp;$D$2&amp; " Step "&amp;RIGHT(M16,1)</f>
+        <v>Export of Crude Oil Step 1</v>
+      </c>
+      <c r="O16" s="201" t="str">
+        <f>$E$2</f>
+        <v>PJ</v>
+      </c>
+      <c r="P16" s="201"/>
+      <c r="Q16" s="201"/>
+      <c r="R16" s="201"/>
+      <c r="S16" s="201"/>
+      <c r="X16" s="9"/>
+      <c r="Y16" s="9"/>
     </row>
     <row r="17" spans="1:25" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17"/>
       <c r="B17" s="15" t="str">
         <f>M15</f>
-        <v>EXPOIL1</v>
-      </c>
-      <c r="C17" s="15" t="str">
+        <v>IMPOIL1</v>
+      </c>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15" t="str">
         <f>$M$5</f>
         <v>OIL</v>
       </c>
-      <c r="D17" s="15"/>
-      <c r="E17">
-        <v>2005</v>
-      </c>
-      <c r="F17" s="214" t="s">
-        <v>191</v>
-      </c>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="14"/>
       <c r="H17" s="115">
         <v>8</v>
       </c>
-      <c r="I17" s="110">
-        <f>-EnergyBalance!F7</f>
-        <v>14830.662</v>
-      </c>
       <c r="J17"/>
-      <c r="U17"/>
+      <c r="K17" s="214" t="s">
+        <v>63</v>
+      </c>
+      <c r="M17" s="214" t="s">
+        <v>202</v>
+      </c>
+      <c r="N17" s="214" t="s">
+        <v>205</v>
+      </c>
+      <c r="O17" s="214" t="s">
+        <v>97</v>
+      </c>
+      <c r="T17"/>
       <c r="V17"/>
       <c r="W17"/>
       <c r="X17"/>
       <c r="Y17"/>
     </row>
     <row r="18" spans="1:25" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E18" s="9">
-        <v>0</v>
+      <c r="A18"/>
+      <c r="B18" s="15" t="str">
+        <f>M16</f>
+        <v>EXPOIL1</v>
+      </c>
+      <c r="C18" s="15" t="str">
+        <f>$M$5</f>
+        <v>OIL</v>
+      </c>
+      <c r="D18" s="15"/>
+      <c r="E18">
+        <v>2005</v>
       </c>
       <c r="F18" s="214" t="s">
         <v>191</v>
       </c>
-      <c r="G18" s="20"/>
-      <c r="H18" s="44"/>
-      <c r="I18" s="177">
-        <v>5</v>
-      </c>
+      <c r="H18" s="115">
+        <v>8</v>
+      </c>
+      <c r="I18" s="110">
+        <f>-EnergyBalance!F7</f>
+        <v>14830.662</v>
+      </c>
+      <c r="J18"/>
       <c r="U18"/>
-      <c r="V18" s="1"/>
-      <c r="W18" s="1"/>
+      <c r="V18"/>
+      <c r="W18"/>
       <c r="X18"/>
       <c r="Y18"/>
     </row>
     <row r="19" spans="1:25" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="U19" s="1"/>
-      <c r="V19"/>
-      <c r="W19"/>
-      <c r="X19" s="1"/>
-      <c r="Y19" s="1"/>
+      <c r="E19" s="9">
+        <v>0</v>
+      </c>
+      <c r="F19" s="214" t="s">
+        <v>191</v>
+      </c>
+      <c r="G19" s="20"/>
+      <c r="H19" s="44"/>
+      <c r="I19" s="177">
+        <v>5</v>
+      </c>
+      <c r="U19"/>
+      <c r="V19" s="1"/>
+      <c r="W19" s="1"/>
+      <c r="X19"/>
+      <c r="Y19"/>
     </row>
     <row r="20" spans="1:25" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B20"/>
-      <c r="C20"/>
-      <c r="D20"/>
-      <c r="G20"/>
-      <c r="H20"/>
-      <c r="U20"/>
+      <c r="B20" s="214" t="s">
+        <v>202</v>
+      </c>
+      <c r="D20" s="214" t="s">
+        <v>203</v>
+      </c>
+      <c r="E20" s="9">
+        <v>2005</v>
+      </c>
+      <c r="G20" s="9">
+        <v>20000</v>
+      </c>
+      <c r="H20" s="216">
+        <v>8.5</v>
+      </c>
+      <c r="I20" s="9">
+        <v>1000</v>
+      </c>
+      <c r="U20" s="1"/>
       <c r="V20"/>
       <c r="W20"/>
-      <c r="X20"/>
-      <c r="Y20"/>
+      <c r="X20" s="1"/>
+      <c r="Y20" s="1"/>
     </row>
     <row r="21" spans="1:25" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B21"/>
       <c r="C21"/>
       <c r="D21"/>
-      <c r="E21"/>
-      <c r="F21"/>
+      <c r="E21" s="9">
+        <v>0</v>
+      </c>
       <c r="G21"/>
       <c r="H21"/>
-      <c r="I21"/>
+      <c r="I21" s="9">
+        <v>5</v>
+      </c>
       <c r="U21"/>
       <c r="V21"/>
       <c r="W21"/>
@@ -19762,43 +19849,55 @@
       <c r="G22"/>
       <c r="H22"/>
       <c r="I22"/>
-      <c r="K22"/>
-      <c r="L22"/>
-      <c r="M22"/>
-      <c r="N22"/>
-      <c r="O22"/>
-      <c r="P22"/>
-      <c r="Q22"/>
-      <c r="R22"/>
-      <c r="S22"/>
       <c r="U22"/>
       <c r="V22"/>
       <c r="W22"/>
       <c r="X22"/>
       <c r="Y22"/>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A23" s="9"/>
-      <c r="T23" s="9"/>
+    <row r="23" spans="1:25" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B23"/>
+      <c r="C23"/>
+      <c r="D23"/>
+      <c r="E23"/>
+      <c r="F23"/>
+      <c r="G23"/>
+      <c r="H23"/>
+      <c r="I23"/>
+      <c r="K23"/>
+      <c r="L23"/>
+      <c r="M23"/>
+      <c r="N23"/>
+      <c r="O23"/>
+      <c r="P23"/>
+      <c r="Q23"/>
+      <c r="R23"/>
+      <c r="S23"/>
+      <c r="U23"/>
+      <c r="V23"/>
+      <c r="W23"/>
+      <c r="X23"/>
+      <c r="Y23"/>
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A24" s="9"/>
-      <c r="B24" s="113"/>
-      <c r="C24" s="1" t="s">
+      <c r="T24" s="9"/>
+    </row>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A25" s="9"/>
+      <c r="B25" s="113"/>
+      <c r="C25" s="1" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B25" s="111"/>
-      <c r="C25" s="1" t="s">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B26" s="111"/>
+      <c r="C26" s="1" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="J26" s="1"/>
-    </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="J29" s="9"/>
+    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="J27" s="1"/>
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.25">
       <c r="J30" s="9"/>
@@ -19820,6 +19919,9 @@
     </row>
     <row r="36" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J36" s="9"/>
+    </row>
+    <row r="37" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J37" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -21171,10 +21273,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="B1:Q28"/>
+  <dimension ref="B1:Q29"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+    <sheetView topLeftCell="A6" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -21488,227 +21590,208 @@
       <c r="Q11" s="201"/>
     </row>
     <row r="12" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="K12" s="51"/>
-      <c r="L12" s="53"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="I12" s="201"/>
+      <c r="J12" s="201"/>
+      <c r="K12" s="218" t="str">
+        <f>D25</f>
+        <v>ELCOILS</v>
+      </c>
+      <c r="L12" s="219" t="s">
+        <v>207</v>
+      </c>
+      <c r="M12" s="218" t="s">
+        <v>97</v>
+      </c>
+      <c r="N12" s="201"/>
+      <c r="O12" s="201"/>
+      <c r="P12" s="201"/>
+      <c r="Q12" s="201"/>
     </row>
     <row r="13" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="D13" s="7" t="s">
+      <c r="K13" s="51"/>
+      <c r="L13" s="53"/>
+    </row>
+    <row r="14" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="D14" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="I13" s="195" t="s">
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="I14" s="195" t="s">
         <v>15</v>
       </c>
-      <c r="J13" s="195"/>
-      <c r="K13" s="202"/>
-      <c r="L13" s="202"/>
-      <c r="M13" s="202"/>
-      <c r="N13" s="202"/>
-      <c r="O13" s="202"/>
-      <c r="P13" s="202"/>
-      <c r="Q13" s="202"/>
-    </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B14" s="28" t="s">
+      <c r="J14" s="195"/>
+      <c r="K14" s="202"/>
+      <c r="L14" s="202"/>
+      <c r="M14" s="202"/>
+      <c r="N14" s="202"/>
+      <c r="O14" s="202"/>
+      <c r="P14" s="202"/>
+      <c r="Q14" s="202"/>
+    </row>
+    <row r="15" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B15" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C14" s="28" t="s">
+      <c r="C15" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="D14" s="28" t="s">
+      <c r="D15" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="E14" s="143" t="s">
+      <c r="E15" s="143" t="s">
         <v>189</v>
       </c>
-      <c r="F14" s="143" t="s">
+      <c r="F15" s="143" t="s">
         <v>108</v>
       </c>
-      <c r="G14" s="143" t="s">
+      <c r="G15" s="143" t="s">
         <v>101</v>
       </c>
-      <c r="I14" s="197" t="s">
+      <c r="I15" s="197" t="s">
         <v>11</v>
       </c>
-      <c r="J14" s="198" t="s">
+      <c r="J15" s="198" t="s">
         <v>30</v>
       </c>
-      <c r="K14" s="197" t="s">
+      <c r="K15" s="197" t="s">
         <v>1</v>
       </c>
-      <c r="L14" s="197" t="s">
+      <c r="L15" s="197" t="s">
         <v>2</v>
       </c>
-      <c r="M14" s="197" t="s">
+      <c r="M15" s="197" t="s">
         <v>16</v>
       </c>
-      <c r="N14" s="197" t="s">
+      <c r="N15" s="197" t="s">
         <v>17</v>
       </c>
-      <c r="O14" s="197" t="s">
+      <c r="O15" s="197" t="s">
         <v>18</v>
       </c>
-      <c r="P14" s="197" t="s">
+      <c r="P15" s="197" t="s">
         <v>19</v>
       </c>
-      <c r="Q14" s="197" t="s">
+      <c r="Q15" s="197" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="2:17" ht="21.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="26" t="s">
+    <row r="16" spans="2:17" ht="21.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="C15" s="26" t="s">
+      <c r="C16" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="D15" s="26" t="s">
+      <c r="D16" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="E15" s="26" t="s">
+      <c r="E16" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="F15" s="26" t="s">
+      <c r="F16" s="26" t="s">
         <v>113</v>
       </c>
-      <c r="G15" s="26" t="s">
+      <c r="G16" s="26" t="s">
         <v>195</v>
       </c>
-      <c r="I15" s="199" t="s">
+      <c r="I16" s="199" t="s">
         <v>41</v>
       </c>
-      <c r="J15" s="199" t="s">
+      <c r="J16" s="199" t="s">
         <v>31</v>
       </c>
-      <c r="K15" s="199" t="s">
+      <c r="K16" s="199" t="s">
         <v>21</v>
       </c>
-      <c r="L15" s="199" t="s">
+      <c r="L16" s="199" t="s">
         <v>22</v>
       </c>
-      <c r="M15" s="199" t="s">
+      <c r="M16" s="199" t="s">
         <v>23</v>
       </c>
-      <c r="N15" s="199" t="s">
+      <c r="N16" s="199" t="s">
         <v>24</v>
       </c>
-      <c r="O15" s="199" t="s">
+      <c r="O16" s="199" t="s">
         <v>46</v>
       </c>
-      <c r="P15" s="199" t="s">
+      <c r="P16" s="199" t="s">
         <v>45</v>
       </c>
-      <c r="Q15" s="199" t="s">
+      <c r="Q16" s="199" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="2:17" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="25" t="s">
+    <row r="17" spans="2:17" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="25" t="s">
         <v>114</v>
       </c>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="23" t="str">
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="23" t="str">
         <f>E2&amp;"a"</f>
         <v>PJa</v>
       </c>
-      <c r="F16" s="23"/>
-      <c r="G16" s="23" t="s">
+      <c r="F17" s="23"/>
+      <c r="G17" s="23" t="s">
         <v>115</v>
       </c>
-      <c r="I16" s="199" t="s">
+      <c r="I17" s="199" t="s">
         <v>103</v>
       </c>
-      <c r="J16" s="203"/>
-      <c r="K16" s="203"/>
-      <c r="L16" s="203"/>
-      <c r="M16" s="203"/>
-      <c r="N16" s="203"/>
-      <c r="O16" s="203"/>
-      <c r="P16" s="203"/>
-      <c r="Q16" s="203"/>
-    </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B17" t="str">
-        <f t="shared" ref="B17:B23" si="1">K17</f>
+      <c r="J17" s="203"/>
+      <c r="K17" s="203"/>
+      <c r="L17" s="203"/>
+      <c r="M17" s="203"/>
+      <c r="N17" s="203"/>
+      <c r="O17" s="203"/>
+      <c r="P17" s="203"/>
+      <c r="Q17" s="203"/>
+    </row>
+    <row r="18" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B18" t="str">
+        <f t="shared" ref="B18:B24" si="1">K18</f>
         <v>FTE-RSDGAS</v>
       </c>
-      <c r="C17" t="str">
-        <f t="shared" ref="C17:C23" si="2">RIGHT(D17,3)</f>
+      <c r="C18" t="str">
+        <f t="shared" ref="C18:C24" si="2">RIGHT(D18,3)</f>
         <v>GAS</v>
       </c>
-      <c r="D17" t="str">
+      <c r="D18" t="str">
         <f>$K$5</f>
         <v>RSDGAS</v>
       </c>
-      <c r="E17" s="22"/>
-      <c r="F17" s="112">
+      <c r="E18" s="22"/>
+      <c r="F18" s="112">
         <v>1</v>
       </c>
-      <c r="G17" s="113">
+      <c r="G18" s="113">
         <v>30</v>
       </c>
-      <c r="I17" s="200" t="s">
+      <c r="I18" s="200" t="s">
         <v>144</v>
       </c>
-      <c r="J17" s="201"/>
-      <c r="K17" s="201" t="str">
-        <f t="shared" ref="K17:K23" si="3">"FT"&amp;$G$2&amp;"-"&amp;K5</f>
+      <c r="J18" s="201"/>
+      <c r="K18" s="201" t="str">
+        <f t="shared" ref="K18:K24" si="3">"FT"&amp;$G$2&amp;"-"&amp;K5</f>
         <v>FTE-RSDGAS</v>
       </c>
-      <c r="L17" s="204" t="str">
+      <c r="L18" s="204" t="str">
         <f>$D$2&amp;" "&amp;$G$1&amp;" "&amp;EnergyBalance!$C$16&amp; " Sector- "&amp;EnergyBalance!$E$3</f>
         <v>Sector Fuel Existing Residential Sector- Natural Gas</v>
       </c>
-      <c r="M17" s="201" t="str">
-        <f t="shared" ref="M17:M23" si="4">$E$2</f>
+      <c r="M18" s="201" t="str">
+        <f t="shared" ref="M18:M24" si="4">$E$2</f>
         <v>PJ</v>
       </c>
-      <c r="N17" s="201" t="str">
-        <f t="shared" ref="N17:N23" si="5">$E$2&amp;"a"</f>
-        <v>PJa</v>
-      </c>
-      <c r="O17" s="201"/>
-      <c r="P17" s="201"/>
-      <c r="Q17" s="201"/>
-    </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B18" t="str">
-        <f t="shared" si="1"/>
-        <v>FTE-TRAOIL</v>
-      </c>
-      <c r="C18" t="str">
-        <f t="shared" si="2"/>
-        <v>OIL</v>
-      </c>
-      <c r="D18" t="str">
-        <f>$K$6</f>
-        <v>TRAOIL</v>
-      </c>
-      <c r="E18" s="182"/>
-      <c r="F18" s="112">
-        <v>1</v>
-      </c>
-      <c r="G18" s="113">
-        <v>30</v>
-      </c>
-      <c r="I18" s="201"/>
-      <c r="J18" s="201"/>
-      <c r="K18" s="201" t="str">
-        <f t="shared" si="3"/>
-        <v>FTE-TRAOIL</v>
-      </c>
-      <c r="L18" s="204" t="str">
-        <f>$D$2&amp;" "&amp;$G$1&amp;" "&amp;EnergyBalance!$C$20&amp; " Sector- "&amp;EnergyBalance!$F$3</f>
-        <v>Sector Fuel Existing Transport Sector- Crude Oil</v>
-      </c>
-      <c r="M18" s="201" t="str">
-        <f t="shared" si="4"/>
-        <v>PJ</v>
-      </c>
       <c r="N18" s="201" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="N18:N24" si="5">$E$2&amp;"a"</f>
         <v>PJa</v>
       </c>
       <c r="O18" s="201"/>
@@ -21718,17 +21801,17 @@
     <row r="19" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B19" t="str">
         <f t="shared" si="1"/>
-        <v>FTE-ELCCOA</v>
+        <v>FTE-TRAOIL</v>
       </c>
       <c r="C19" t="str">
         <f t="shared" si="2"/>
-        <v>COA</v>
-      </c>
-      <c r="D19" s="48" t="str">
-        <f>K7</f>
-        <v>ELCCOA</v>
-      </c>
-      <c r="E19" s="21"/>
+        <v>OIL</v>
+      </c>
+      <c r="D19" t="str">
+        <f>$K$6</f>
+        <v>TRAOIL</v>
+      </c>
+      <c r="E19" s="182"/>
       <c r="F19" s="112">
         <v>1</v>
       </c>
@@ -21739,11 +21822,11 @@
       <c r="J19" s="201"/>
       <c r="K19" s="201" t="str">
         <f t="shared" si="3"/>
-        <v>FTE-ELCCOA</v>
+        <v>FTE-TRAOIL</v>
       </c>
       <c r="L19" s="204" t="str">
-        <f>$D$2&amp;" Technology"&amp;" "&amp;$G$1&amp;" "&amp;L7</f>
-        <v>Sector Fuel Technology Existing Electricity Plants Solid Fuels</v>
+        <f>$D$2&amp;" "&amp;$G$1&amp;" "&amp;EnergyBalance!$C$20&amp; " Sector- "&amp;EnergyBalance!$F$3</f>
+        <v>Sector Fuel Existing Transport Sector- Crude Oil</v>
       </c>
       <c r="M19" s="201" t="str">
         <f t="shared" si="4"/>
@@ -21760,15 +21843,15 @@
     <row r="20" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B20" t="str">
         <f t="shared" si="1"/>
-        <v>FTE-ELCGAS</v>
+        <v>FTE-ELCCOA</v>
       </c>
       <c r="C20" t="str">
         <f t="shared" si="2"/>
-        <v>GAS</v>
+        <v>COA</v>
       </c>
       <c r="D20" s="48" t="str">
-        <f>K8</f>
-        <v>ELCGAS</v>
+        <f>K7</f>
+        <v>ELCCOA</v>
       </c>
       <c r="E20" s="21"/>
       <c r="F20" s="112">
@@ -21781,11 +21864,11 @@
       <c r="J20" s="201"/>
       <c r="K20" s="201" t="str">
         <f t="shared" si="3"/>
-        <v>FTE-ELCGAS</v>
+        <v>FTE-ELCCOA</v>
       </c>
       <c r="L20" s="204" t="str">
-        <f>$D$2&amp;" Technology"&amp;" "&amp;$G$1&amp;" "&amp;L8</f>
-        <v>Sector Fuel Technology Existing Electricity Plants Natural Gas</v>
+        <f>$D$2&amp;" Technology"&amp;" "&amp;$G$1&amp;" "&amp;L7</f>
+        <v>Sector Fuel Technology Existing Electricity Plants Solid Fuels</v>
       </c>
       <c r="M20" s="201" t="str">
         <f t="shared" si="4"/>
@@ -21802,15 +21885,15 @@
     <row r="21" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B21" t="str">
         <f t="shared" si="1"/>
-        <v>FTE-ELCOIL</v>
+        <v>FTE-ELCGAS</v>
       </c>
       <c r="C21" t="str">
         <f t="shared" si="2"/>
-        <v>OIL</v>
+        <v>GAS</v>
       </c>
       <c r="D21" s="48" t="str">
-        <f>K9</f>
-        <v>ELCOIL</v>
+        <f>K8</f>
+        <v>ELCGAS</v>
       </c>
       <c r="E21" s="21"/>
       <c r="F21" s="112">
@@ -21823,11 +21906,11 @@
       <c r="J21" s="201"/>
       <c r="K21" s="201" t="str">
         <f t="shared" si="3"/>
-        <v>FTE-ELCOIL</v>
-      </c>
-      <c r="L21" s="205" t="str">
-        <f>$D$2&amp;" Technology"&amp;" "&amp;$G$1&amp;" "&amp;L9</f>
-        <v>Sector Fuel Technology Existing Electricity Plants Crude Oil</v>
+        <v>FTE-ELCGAS</v>
+      </c>
+      <c r="L21" s="204" t="str">
+        <f>$D$2&amp;" Technology"&amp;" "&amp;$G$1&amp;" "&amp;L8</f>
+        <v>Sector Fuel Technology Existing Electricity Plants Natural Gas</v>
       </c>
       <c r="M21" s="201" t="str">
         <f t="shared" si="4"/>
@@ -21844,15 +21927,15 @@
     <row r="22" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B22" t="str">
         <f t="shared" si="1"/>
-        <v>FTE-ELCRNW</v>
+        <v>FTE-ELCOIL</v>
       </c>
       <c r="C22" t="str">
         <f t="shared" si="2"/>
-        <v>RNW</v>
+        <v>OIL</v>
       </c>
       <c r="D22" s="48" t="str">
-        <f>K10</f>
-        <v>ELCRNW</v>
+        <f>K9</f>
+        <v>ELCOIL</v>
       </c>
       <c r="E22" s="21"/>
       <c r="F22" s="112">
@@ -21865,11 +21948,11 @@
       <c r="J22" s="201"/>
       <c r="K22" s="201" t="str">
         <f t="shared" si="3"/>
-        <v>FTE-ELCRNW</v>
-      </c>
-      <c r="L22" s="204" t="str">
-        <f>$D$2&amp;" Technology"&amp;" "&amp;$G$1&amp;" "&amp;L10</f>
-        <v>Sector Fuel Technology Existing Electricity Plants Renewable Energies</v>
+        <v>FTE-ELCOIL</v>
+      </c>
+      <c r="L22" s="205" t="str">
+        <f>$D$2&amp;" Technology"&amp;" "&amp;$G$1&amp;" "&amp;L9</f>
+        <v>Sector Fuel Technology Existing Electricity Plants Crude Oil</v>
       </c>
       <c r="M22" s="201" t="str">
         <f t="shared" si="4"/>
@@ -21886,15 +21969,15 @@
     <row r="23" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B23" t="str">
         <f t="shared" si="1"/>
-        <v>FTE-ELCNUC</v>
+        <v>FTE-ELCRNW</v>
       </c>
       <c r="C23" t="str">
         <f t="shared" si="2"/>
-        <v>NUC</v>
+        <v>RNW</v>
       </c>
       <c r="D23" s="48" t="str">
-        <f>K11</f>
-        <v>ELCNUC</v>
+        <f>K10</f>
+        <v>ELCRNW</v>
       </c>
       <c r="E23" s="21"/>
       <c r="F23" s="112">
@@ -21903,15 +21986,15 @@
       <c r="G23" s="113">
         <v>30</v>
       </c>
-      <c r="I23" s="206"/>
-      <c r="J23" s="207"/>
+      <c r="I23" s="201"/>
+      <c r="J23" s="201"/>
       <c r="K23" s="201" t="str">
         <f t="shared" si="3"/>
-        <v>FTE-ELCNUC</v>
+        <v>FTE-ELCRNW</v>
       </c>
       <c r="L23" s="204" t="str">
-        <f>$D$2&amp;" Technology"&amp;" "&amp;$G$1&amp;" "&amp;L11</f>
-        <v>Sector Fuel Technology Existing Electricity Plants Nuclear Energy</v>
+        <f>$D$2&amp;" Technology"&amp;" "&amp;$G$1&amp;" "&amp;L10</f>
+        <v>Sector Fuel Technology Existing Electricity Plants Renewable Energies</v>
       </c>
       <c r="M23" s="201" t="str">
         <f t="shared" si="4"/>
@@ -21926,51 +22009,121 @@
       <c r="Q23" s="201"/>
     </row>
     <row r="24" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="I24" s="49"/>
-      <c r="J24" s="48"/>
-      <c r="O24" s="9"/>
-      <c r="P24" s="9"/>
-      <c r="Q24" s="9"/>
+      <c r="B24" t="str">
+        <f t="shared" si="1"/>
+        <v>FTE-ELCNUC</v>
+      </c>
+      <c r="C24" t="str">
+        <f t="shared" si="2"/>
+        <v>NUC</v>
+      </c>
+      <c r="D24" s="48" t="str">
+        <f>K11</f>
+        <v>ELCNUC</v>
+      </c>
+      <c r="E24" s="21"/>
+      <c r="F24" s="112">
+        <v>1</v>
+      </c>
+      <c r="G24" s="113">
+        <v>30</v>
+      </c>
+      <c r="I24" s="206"/>
+      <c r="J24" s="207"/>
+      <c r="K24" s="201" t="str">
+        <f t="shared" si="3"/>
+        <v>FTE-ELCNUC</v>
+      </c>
+      <c r="L24" s="204" t="str">
+        <f>$D$2&amp;" Technology"&amp;" "&amp;$G$1&amp;" "&amp;L11</f>
+        <v>Sector Fuel Technology Existing Electricity Plants Nuclear Energy</v>
+      </c>
+      <c r="M24" s="201" t="str">
+        <f t="shared" si="4"/>
+        <v>PJ</v>
+      </c>
+      <c r="N24" s="201" t="str">
+        <f t="shared" si="5"/>
+        <v>PJa</v>
+      </c>
+      <c r="O24" s="201"/>
+      <c r="P24" s="201"/>
+      <c r="Q24" s="201"/>
     </row>
     <row r="25" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="I25" s="48"/>
+      <c r="B25" s="217" t="s">
+        <v>208</v>
+      </c>
+      <c r="C25" s="217" t="s">
+        <v>203</v>
+      </c>
+      <c r="D25" s="217" t="s">
+        <v>206</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>30</v>
+      </c>
+      <c r="I25" s="49"/>
       <c r="J25" s="48"/>
+      <c r="K25" s="201" t="str">
+        <f>+B25</f>
+        <v>FTE-ELCOILS</v>
+      </c>
+      <c r="L25" s="217" t="s">
+        <v>209</v>
+      </c>
+      <c r="M25" s="217" t="s">
+        <v>97</v>
+      </c>
+      <c r="N25" s="217" t="s">
+        <v>210</v>
+      </c>
       <c r="O25" s="9"/>
       <c r="P25" s="9"/>
       <c r="Q25" s="9"/>
     </row>
     <row r="26" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B26" s="76"/>
-      <c r="C26" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="I26" s="55"/>
-      <c r="J26" s="52"/>
+      <c r="I26" s="48"/>
+      <c r="J26" s="48"/>
       <c r="O26" s="9"/>
       <c r="P26" s="9"/>
       <c r="Q26" s="9"/>
     </row>
     <row r="27" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B27" s="111"/>
+      <c r="B27" s="76"/>
       <c r="C27" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="I27" s="55"/>
+      <c r="J27" s="52"/>
+      <c r="O27" s="9"/>
+      <c r="P27" s="9"/>
+      <c r="Q27" s="9"/>
+    </row>
+    <row r="28" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B28" s="111"/>
+      <c r="C28" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="I27" s="56"/>
-      <c r="J27" s="56"/>
-      <c r="O27" s="56"/>
-      <c r="P27" s="56"/>
-      <c r="Q27" s="9"/>
-    </row>
-    <row r="28" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="I28" s="9"/>
-      <c r="J28" s="9"/>
-      <c r="K28" s="9"/>
-      <c r="L28" s="9"/>
-      <c r="M28" s="9"/>
-      <c r="N28" s="9"/>
-      <c r="O28" s="9"/>
-      <c r="P28" s="9"/>
+      <c r="I28" s="56"/>
+      <c r="J28" s="56"/>
+      <c r="O28" s="56"/>
+      <c r="P28" s="56"/>
       <c r="Q28" s="9"/>
+    </row>
+    <row r="29" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+      <c r="L29" s="9"/>
+      <c r="M29" s="9"/>
+      <c r="N29" s="9"/>
+      <c r="O29" s="9"/>
+      <c r="P29" s="9"/>
+      <c r="Q29" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -21984,8 +22137,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="B1:AA37"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="V20" sqref="V20"/>
+    <sheetView tabSelected="1" topLeftCell="B7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -22973,10 +23126,19 @@
       <c r="R20" s="64"/>
       <c r="S20" s="9"/>
       <c r="T20" s="9"/>
-      <c r="U20" s="9"/>
-      <c r="V20" s="9"/>
-      <c r="W20" s="9"/>
-      <c r="X20" s="9"/>
+      <c r="U20" s="9" t="str">
+        <f>+B26</f>
+        <v>ELCTNOILS00</v>
+      </c>
+      <c r="V20" s="214" t="s">
+        <v>213</v>
+      </c>
+      <c r="W20" s="214" t="s">
+        <v>97</v>
+      </c>
+      <c r="X20" s="214" t="s">
+        <v>155</v>
+      </c>
       <c r="Y20" s="9"/>
       <c r="Z20" s="9"/>
       <c r="AA20" s="9"/>
@@ -23123,8 +23285,50 @@
       <c r="Q25" s="48"/>
     </row>
     <row r="26" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B26" s="220" t="s">
+        <v>212</v>
+      </c>
+      <c r="C26" s="48" t="str">
+        <f>+Sector_Fuels!D25</f>
+        <v>ELCOILS</v>
+      </c>
+      <c r="D26" s="220" t="s">
+        <v>54</v>
+      </c>
+      <c r="G26" s="48">
+        <v>0.3</v>
+      </c>
+      <c r="H26" s="48">
+        <v>0.85</v>
+      </c>
+      <c r="I26" s="48">
+        <v>250</v>
+      </c>
+      <c r="J26" s="48">
+        <v>15</v>
+      </c>
+      <c r="K26" s="48">
+        <v>0.2</v>
+      </c>
+      <c r="L26" s="48">
+        <v>40</v>
+      </c>
+      <c r="M26" s="48">
+        <v>2006</v>
+      </c>
       <c r="N26" s="54"/>
+      <c r="O26" s="48">
+        <v>31.536000000000001</v>
+      </c>
       <c r="Q26" s="192"/>
+    </row>
+    <row r="27" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="D27" s="220" t="s">
+        <v>211</v>
+      </c>
+      <c r="N27" s="48">
+        <v>254.66666666666669</v>
+      </c>
     </row>
     <row r="28" spans="2:27" x14ac:dyDescent="0.25">
       <c r="Q28" s="192"/>

--- a/VT_REG_PRI_V03.xlsx
+++ b/VT_REG_PRI_V03.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VEDA\Veda\Veda_Training\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB2989A5-0D7C-41A1-9D6D-345E52EFA434}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F1BD7EB-649B-4D93-B4E2-6C03DD01935C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="901" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="901" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EnergyBalance" sheetId="133" r:id="rId1"/>
@@ -19148,8 +19148,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:Y37"/>
   <sheetViews>
-    <sheetView topLeftCell="D2" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="Q17" sqref="Q17"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -22137,8 +22137,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="B1:AA37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView topLeftCell="B7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24:C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>

--- a/VT_REG_PRI_V03.xlsx
+++ b/VT_REG_PRI_V03.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VEDA\Veda\Veda_Training\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F1BD7EB-649B-4D93-B4E2-6C03DD01935C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{352D508E-030C-4151-A681-3DCDA9B6A565}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="901" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="901" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EnergyBalance" sheetId="133" r:id="rId1"/>
@@ -22,14 +22,15 @@
     <sheet name="Pri_NUC" sheetId="144" r:id="rId7"/>
     <sheet name="Sector_Fuels" sheetId="140" r:id="rId8"/>
     <sheet name="Con_ELC" sheetId="143" r:id="rId9"/>
-    <sheet name="DemTechs_TPS" sheetId="145" r:id="rId10"/>
-    <sheet name="DemTechs_ELC" sheetId="146" r:id="rId11"/>
-    <sheet name="DemTechs_TRA" sheetId="141" r:id="rId12"/>
-    <sheet name="DemTechs_RSD" sheetId="138" r:id="rId13"/>
-    <sheet name="Demands" sheetId="134" r:id="rId14"/>
+    <sheet name="DemTechs_PCH" sheetId="147" r:id="rId10"/>
+    <sheet name="DemTechs_TPS" sheetId="145" r:id="rId11"/>
+    <sheet name="DemTechs_ELC" sheetId="146" r:id="rId12"/>
+    <sheet name="DemTechs_TRA" sheetId="141" r:id="rId13"/>
+    <sheet name="DemTechs_RSD" sheetId="138" r:id="rId14"/>
+    <sheet name="Demands" sheetId="134" r:id="rId15"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId15"/>
+    <externalReference r:id="rId16"/>
   </externalReferences>
   <definedNames>
     <definedName name="FID_1">[1]AGR_Fuels!$A$2</definedName>
@@ -80,7 +81,7 @@
     <author>Maurizio Gargiulo</author>
   </authors>
   <commentList>
-    <comment ref="L3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000001000000}">
+    <comment ref="L3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0900-000001000000}">
       <text>
         <r>
           <rPr>
@@ -194,7 +195,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q3" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000002000000}">
+    <comment ref="Q3" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0900-000002000000}">
       <text>
         <r>
           <rPr>
@@ -220,7 +221,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000003000000}">
+    <comment ref="R3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0900-000003000000}">
       <text>
         <r>
           <rPr>
@@ -293,7 +294,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000004000000}">
+    <comment ref="S3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0900-000004000000}">
       <text>
         <r>
           <rPr>
@@ -346,7 +347,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000005000000}">
+    <comment ref="T3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0900-000005000000}">
       <text>
         <r>
           <rPr>
@@ -379,7 +380,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R9" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000006000000}">
+    <comment ref="R9" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0900-000006000000}">
       <text>
         <r>
           <rPr>
@@ -472,7 +473,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S9" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000007000000}">
+    <comment ref="S9" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0900-000007000000}">
       <text>
         <r>
           <rPr>
@@ -497,7 +498,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T9" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000008000000}">
+    <comment ref="T9" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0900-000008000000}">
       <text>
         <r>
           <rPr>
@@ -560,7 +561,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L10" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000009000000}">
+    <comment ref="L10" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0900-000009000000}">
       <text>
         <r>
           <rPr>
@@ -815,7 +816,7 @@
     <author>Maurizio Gargiulo</author>
   </authors>
   <commentList>
-    <comment ref="N3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0B00-000001000000}">
+    <comment ref="L3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000001000000}">
       <text>
         <r>
           <rPr>
@@ -929,7 +930,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S3" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0B00-000002000000}">
+    <comment ref="Q3" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000002000000}">
       <text>
         <r>
           <rPr>
@@ -955,7 +956,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0B00-000003000000}">
+    <comment ref="R3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000003000000}">
       <text>
         <r>
           <rPr>
@@ -1028,7 +1029,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0B00-000004000000}">
+    <comment ref="S3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000004000000}">
       <text>
         <r>
           <rPr>
@@ -1081,7 +1082,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0B00-000005000000}">
+    <comment ref="T3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000005000000}">
       <text>
         <r>
           <rPr>
@@ -1114,7 +1115,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T9" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0B00-000006000000}">
+    <comment ref="R9" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000006000000}">
       <text>
         <r>
           <rPr>
@@ -1207,7 +1208,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U9" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0B00-000007000000}">
+    <comment ref="S9" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000007000000}">
       <text>
         <r>
           <rPr>
@@ -1232,7 +1233,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V9" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0B00-000008000000}">
+    <comment ref="T9" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000008000000}">
       <text>
         <r>
           <rPr>
@@ -1295,7 +1296,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N10" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0B00-000009000000}">
+    <comment ref="L10" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000009000000}">
       <text>
         <r>
           <rPr>
@@ -1543,6 +1544,741 @@
 </file>
 
 <file path=xl/comments12.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Gary Goldstein</author>
+    <author>Amit Kanudia</author>
+    <author>Maurizio Gargiulo</author>
+  </authors>
+  <commentList>
+    <comment ref="N3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0B00-000001000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Csets declarations are inherited until the next one is encountered.
+Allowed Cset:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>NRG</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> (Energy)
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>ENV</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> (Emission)
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>DEM</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> (Demand)
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>MAT</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> (Material)
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>FIN</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> (Financial)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="S3" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0B00-000002000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Amit Kanudia:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+LO for PRODUCTION &gt;= CONSUMPTION (Default)
+FX for PRODUCTION = CONSUMPTION
+UP for PRODUCTION &lt;= CONSUMPTION</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="T3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0B00-000003000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Allowed CTSLvl</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+SEASON</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> (Seasonal level)</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+WEEKLY</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> (Weekly level)</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+DAYNITE</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> (day and night level)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="U3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0B00-000004000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Allowed PeakTS</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+ANNUAL </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>(to generate Peak Equation for all the TimeSlices)</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+User TS </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>(to generate Peak Equation for a single TS)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="V3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0B00-000005000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Allowed Ctype
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>ELC</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> (Electricity)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="T9" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0B00-000006000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Allowed TsLvl
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>ANNUAL</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> (Annual level)
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>SEASON</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> (Seasonal level)
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>WEEKLY</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> (Weekly level)
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>DAYNITE</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> (day and night level)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="U9" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0B00-000007000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Amit Kanudia:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Needed only when one wants to override the VEDA default assignment
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="V9" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0B00-000008000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Allowed Vintage</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+NO</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> (if empty by default mean </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>NO</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>)</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+YES</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N10" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0B00-000009000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Sets declarations are </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>inherited. 
+Allowed Process Sets</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+ELE </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>(Thermal Electric Power Plant)</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+CHP </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>(Combined Heat and Power)</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+STGTSS </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>(Pump Storage)</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+STGIPS</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> (Pump Storage IP)</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+PRE </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>(Genric Process/Technology)</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+DMD</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> (Demand Device)</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+IMP </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">(Import)
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>EXP</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> (Export)</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+MIN </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>(Mining Process)</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+RNW </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>(Renewable Technology)</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+HPL</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> (Heating Plant)</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments13.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Gary Goldstein</author>
@@ -4979,7 +5715,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I8" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0500-000006000000}">
+    <comment ref="I9" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0500-000006000000}">
       <text>
         <r>
           <rPr>
@@ -5026,7 +5762,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q8" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0500-000007000000}">
+    <comment ref="Q9" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0500-000007000000}">
       <text>
         <r>
           <rPr>
@@ -5119,7 +5855,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R8" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0500-000008000000}">
+    <comment ref="R9" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0500-000008000000}">
       <text>
         <r>
           <rPr>
@@ -5144,7 +5880,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S8" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0500-000009000000}">
+    <comment ref="S9" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0500-000009000000}">
       <text>
         <r>
           <rPr>
@@ -5207,7 +5943,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K9" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0500-00000A000000}">
+    <comment ref="K10" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0500-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -6244,7 +6980,7 @@
     <author>Maurizio Gargiulo</author>
   </authors>
   <commentList>
-    <comment ref="I3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000001000000}">
+    <comment ref="J3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000001000000}">
       <text>
         <r>
           <rPr>
@@ -6358,7 +7094,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N3" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0700-000002000000}">
+    <comment ref="O3" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0700-000002000000}">
       <text>
         <r>
           <rPr>
@@ -6384,7 +7120,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0700-000003000000}">
+    <comment ref="P3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0700-000003000000}">
       <text>
         <r>
           <rPr>
@@ -6457,7 +7193,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0700-000004000000}">
+    <comment ref="Q3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0700-000004000000}">
       <text>
         <r>
           <rPr>
@@ -6510,7 +7246,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0700-000005000000}">
+    <comment ref="R3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0700-000005000000}">
       <text>
         <r>
           <rPr>
@@ -6543,7 +7279,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O15" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0700-000006000000}">
+    <comment ref="P17" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0700-000006000000}">
       <text>
         <r>
           <rPr>
@@ -6636,7 +7372,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P15" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0700-000007000000}">
+    <comment ref="Q17" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0700-000007000000}">
       <text>
         <r>
           <rPr>
@@ -6661,7 +7397,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q15" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0700-000008000000}">
+    <comment ref="R17" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0700-000008000000}">
       <text>
         <r>
           <rPr>
@@ -6724,7 +7460,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I16" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0700-000009000000}">
+    <comment ref="J18" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0700-000009000000}">
       <text>
         <r>
           <rPr>
@@ -7714,7 +8450,7 @@
     <author>Maurizio Gargiulo</author>
   </authors>
   <commentList>
-    <comment ref="L3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0900-000001000000}">
+    <comment ref="M3" authorId="0" shapeId="0" xr:uid="{58D44EB5-3567-47A0-A578-AAF5A853B1D3}">
       <text>
         <r>
           <rPr>
@@ -7828,7 +8564,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q3" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0900-000002000000}">
+    <comment ref="R3" authorId="1" shapeId="0" xr:uid="{07D8DEA5-D3C2-4606-BAAB-5C848DAC350F}">
       <text>
         <r>
           <rPr>
@@ -7854,7 +8590,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0900-000003000000}">
+    <comment ref="S3" authorId="2" shapeId="0" xr:uid="{7E4BEE64-BF39-4B49-B2A8-D3170D02E1F0}">
       <text>
         <r>
           <rPr>
@@ -7927,7 +8663,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0900-000004000000}">
+    <comment ref="T3" authorId="2" shapeId="0" xr:uid="{2FBF4EF2-6CD3-4257-B534-6DDC13FDD3EA}">
       <text>
         <r>
           <rPr>
@@ -7980,7 +8716,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T3" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0900-000005000000}">
+    <comment ref="U3" authorId="2" shapeId="0" xr:uid="{4FC38B48-4FA4-4FDC-B751-DE1355EC5554}">
       <text>
         <r>
           <rPr>
@@ -8013,7 +8749,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R9" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0900-000006000000}">
+    <comment ref="S9" authorId="2" shapeId="0" xr:uid="{677D955C-A88D-45C1-A795-6DA3142F3E0D}">
       <text>
         <r>
           <rPr>
@@ -8106,7 +8842,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S9" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0900-000007000000}">
+    <comment ref="T9" authorId="1" shapeId="0" xr:uid="{0EB6F265-8651-4AFB-8A48-94B418935B57}">
       <text>
         <r>
           <rPr>
@@ -8131,7 +8867,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T9" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0900-000008000000}">
+    <comment ref="U9" authorId="2" shapeId="0" xr:uid="{81805994-48EB-41AC-920F-2028B0B101C8}">
       <text>
         <r>
           <rPr>
@@ -8194,7 +8930,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L10" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0900-000009000000}">
+    <comment ref="M10" authorId="2" shapeId="0" xr:uid="{54D80243-8490-4BBB-861E-D0415FBC28C8}">
       <text>
         <r>
           <rPr>
@@ -8442,7 +9178,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="938" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1068" uniqueCount="243">
   <si>
     <t>CommName</t>
   </si>
@@ -9085,6 +9821,93 @@
   <si>
     <t>Power Plants New00 - Shale Oil</t>
   </si>
+  <si>
+    <t>DPCH</t>
+  </si>
+  <si>
+    <t>DPCHGAS</t>
+  </si>
+  <si>
+    <t>DPCHGAS2</t>
+  </si>
+  <si>
+    <t>LOIL</t>
+  </si>
+  <si>
+    <t>DPCHLOIL</t>
+  </si>
+  <si>
+    <t>Demand PetroChemical Using Gas</t>
+  </si>
+  <si>
+    <t>Demand PetroChemical Using Gas 2</t>
+  </si>
+  <si>
+    <t>Demand PetroChemical Using Fuel Oil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Demand Of PetroChemical </t>
+  </si>
+  <si>
+    <t>FTE-LOIL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Petrochemical Oil </t>
+  </si>
+  <si>
+    <t>Sector Fuel Technology Existing Losses to get Petrochemical Oil</t>
+  </si>
+  <si>
+    <t>RNW1</t>
+  </si>
+  <si>
+    <t>DPCHRNW1</t>
+  </si>
+  <si>
+    <t>Demand PetroChemical Using RNW1</t>
+  </si>
+  <si>
+    <t>MINRN1_1</t>
+  </si>
+  <si>
+    <t>Domestic Supply of Renewable Energies Step 1 from RNW1</t>
+  </si>
+  <si>
+    <t>Renewable Energies 1</t>
+  </si>
+  <si>
+    <t>H2</t>
+  </si>
+  <si>
+    <t>DPCH_H2</t>
+  </si>
+  <si>
+    <t>Demand PetroChemical Using H2</t>
+  </si>
+  <si>
+    <t>FTE-GASTOH2</t>
+  </si>
+  <si>
+    <t>Hydrogen</t>
+  </si>
+  <si>
+    <t>Sector Fuel Technology Existing Gas converting to Hydrogen</t>
+  </si>
+  <si>
+    <t>FTE-GASTOH2_CCS</t>
+  </si>
+  <si>
+    <t>ENV_ACT~ELCCO2</t>
+  </si>
+  <si>
+    <t>Sector Fuel Technology Existing Gas converting to Hydrogen + CCS</t>
+  </si>
+  <si>
+    <t>FTE-ELCTOH2</t>
+  </si>
+  <si>
+    <t>Sector Fuel Technology Existing ELC TO H2</t>
+  </si>
 </sst>
 </file>
 
@@ -9688,7 +10511,7 @@
     <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="221">
+  <cellXfs count="233">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -10074,6 +10897,26 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="1" fillId="16" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" xfId="9" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="22">
     <cellStyle name="20% - Accent5" xfId="1" builtinId="46"/>
@@ -10290,6 +11133,165 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>61985</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>162365</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>127592</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>160460</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FDF1A68B-2261-4D28-9774-7B4EAE289549}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8033677" y="3374488"/>
+          <a:ext cx="6308146" cy="848018"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Declare  total primary supply coal demand commodity and (FI_COMM table) and define demand</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> technology</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> option (FI_Process table).</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr lvl="0"/>
+          <a:endParaRPr lang="en-GB" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr lvl="0"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Construct a demand</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> technology to deliver the  total primary supply coal demand</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>173354</xdr:colOff>
       <xdr:row>14</xdr:row>
@@ -10445,7 +11447,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -10604,7 +11606,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -10811,7 +11813,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing14.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -10994,7 +11996,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing15.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -12398,15 +13400,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:colOff>79863</xdr:colOff>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>2695515</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:colOff>2765853</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -12421,8 +13423,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6362700" y="2952750"/>
-          <a:ext cx="4781550" cy="1047750"/>
+          <a:off x="7213355" y="3168894"/>
+          <a:ext cx="4843036" cy="1096108"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12660,15 +13662,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>19961</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>151572</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>4300496</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>161097</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -14651,6 +15653,719 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{738C2C70-1D39-420C-A1CE-B1A75A3064CA}">
+  <dimension ref="B1:U28"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3" style="48" customWidth="1"/>
+    <col min="2" max="2" width="12.109375" style="48" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15" style="48" customWidth="1"/>
+    <col min="4" max="4" width="13.88671875" style="48" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" style="48" customWidth="1"/>
+    <col min="6" max="6" width="13.109375" style="48" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.88671875" style="48" customWidth="1"/>
+    <col min="8" max="8" width="9.109375" style="48" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.44140625" style="48" customWidth="1"/>
+    <col min="10" max="11" width="8.109375" style="48" customWidth="1"/>
+    <col min="12" max="12" width="2.6640625" style="48" customWidth="1"/>
+    <col min="13" max="13" width="12.6640625" style="48" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.109375" style="48" customWidth="1"/>
+    <col min="15" max="15" width="11.44140625" style="48" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="41.5546875" style="48" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="6.5546875" style="48" customWidth="1"/>
+    <col min="18" max="18" width="11.6640625" style="48" customWidth="1"/>
+    <col min="19" max="19" width="13" style="48" customWidth="1"/>
+    <col min="20" max="20" width="13.6640625" style="48" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="8.44140625" style="48" customWidth="1"/>
+    <col min="22" max="16384" width="8.88671875" style="48"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:21" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="B1" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="G1" s="162"/>
+      <c r="H1" s="16" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="2" spans="2:21" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B2" s="33" t="str">
+        <f>EnergyBalance!B8</f>
+        <v>TPS</v>
+      </c>
+      <c r="C2" s="33" t="str">
+        <f>EnergyBalance!C8</f>
+        <v>Total Primary Supply</v>
+      </c>
+      <c r="D2" s="33" t="str">
+        <f>"Demand Technology"</f>
+        <v>Demand Technology</v>
+      </c>
+      <c r="E2" s="19" t="str">
+        <f>EnergyBalance!R2</f>
+        <v>PJ</v>
+      </c>
+      <c r="F2" s="19" t="str">
+        <f>EnergyBalance!Q2</f>
+        <v>M€2005</v>
+      </c>
+      <c r="G2" s="17"/>
+      <c r="H2" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="M2" s="208" t="s">
+        <v>14</v>
+      </c>
+      <c r="N2" s="208"/>
+      <c r="O2" s="206"/>
+      <c r="P2" s="206"/>
+      <c r="Q2" s="206"/>
+      <c r="R2" s="206"/>
+      <c r="S2" s="206"/>
+      <c r="T2" s="206"/>
+      <c r="U2" s="206"/>
+    </row>
+    <row r="3" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="G3" s="50"/>
+      <c r="M3" s="209" t="s">
+        <v>7</v>
+      </c>
+      <c r="N3" s="210" t="s">
+        <v>30</v>
+      </c>
+      <c r="O3" s="209" t="s">
+        <v>0</v>
+      </c>
+      <c r="P3" s="209" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q3" s="209" t="s">
+        <v>4</v>
+      </c>
+      <c r="R3" s="209" t="s">
+        <v>8</v>
+      </c>
+      <c r="S3" s="209" t="s">
+        <v>9</v>
+      </c>
+      <c r="T3" s="209" t="s">
+        <v>10</v>
+      </c>
+      <c r="U3" s="209" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="2:21" s="50" customFormat="1" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="M4" s="199" t="s">
+        <v>40</v>
+      </c>
+      <c r="N4" s="199" t="s">
+        <v>31</v>
+      </c>
+      <c r="O4" s="199" t="s">
+        <v>26</v>
+      </c>
+      <c r="P4" s="199" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q4" s="199" t="s">
+        <v>4</v>
+      </c>
+      <c r="R4" s="199" t="s">
+        <v>43</v>
+      </c>
+      <c r="S4" s="199" t="s">
+        <v>44</v>
+      </c>
+      <c r="T4" s="199" t="s">
+        <v>28</v>
+      </c>
+      <c r="U4" s="199" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="2:21" s="50" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="M5" s="211" t="s">
+        <v>105</v>
+      </c>
+      <c r="N5" s="212"/>
+      <c r="O5" s="211" t="str">
+        <f>+D12</f>
+        <v>DPCH</v>
+      </c>
+      <c r="P5" s="229" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q5" s="211" t="str">
+        <f>$E$2</f>
+        <v>PJ</v>
+      </c>
+      <c r="R5" s="211"/>
+      <c r="S5" s="211"/>
+      <c r="T5" s="211"/>
+      <c r="U5" s="211"/>
+    </row>
+    <row r="8" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="D8" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="M8" s="208" t="s">
+        <v>15</v>
+      </c>
+      <c r="N8" s="208"/>
+      <c r="O8" s="207"/>
+      <c r="P8" s="207"/>
+      <c r="Q8" s="207"/>
+      <c r="R8" s="207"/>
+      <c r="S8" s="207"/>
+      <c r="T8" s="207"/>
+      <c r="U8" s="207"/>
+    </row>
+    <row r="9" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B9" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="145" t="s">
+        <v>189</v>
+      </c>
+      <c r="F9" s="146" t="s">
+        <v>108</v>
+      </c>
+      <c r="G9" s="146" t="s">
+        <v>124</v>
+      </c>
+      <c r="H9" s="146" t="s">
+        <v>106</v>
+      </c>
+      <c r="I9" s="146" t="s">
+        <v>107</v>
+      </c>
+      <c r="J9" s="145" t="s">
+        <v>101</v>
+      </c>
+      <c r="K9" s="223" t="s">
+        <v>187</v>
+      </c>
+      <c r="M9" s="209" t="s">
+        <v>11</v>
+      </c>
+      <c r="N9" s="210" t="s">
+        <v>30</v>
+      </c>
+      <c r="O9" s="209" t="s">
+        <v>1</v>
+      </c>
+      <c r="P9" s="209" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q9" s="209" t="s">
+        <v>16</v>
+      </c>
+      <c r="R9" s="209" t="s">
+        <v>17</v>
+      </c>
+      <c r="S9" s="209" t="s">
+        <v>18</v>
+      </c>
+      <c r="T9" s="209" t="s">
+        <v>19</v>
+      </c>
+      <c r="U9" s="209" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="2:21" ht="21.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="F10" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="G10" s="163" t="s">
+        <v>125</v>
+      </c>
+      <c r="H10" s="26" t="s">
+        <v>122</v>
+      </c>
+      <c r="I10" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="J10" s="26" t="s">
+        <v>195</v>
+      </c>
+      <c r="K10" s="224"/>
+      <c r="M10" s="199" t="s">
+        <v>41</v>
+      </c>
+      <c r="N10" s="199" t="s">
+        <v>31</v>
+      </c>
+      <c r="O10" s="199" t="s">
+        <v>21</v>
+      </c>
+      <c r="P10" s="199" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q10" s="199" t="s">
+        <v>23</v>
+      </c>
+      <c r="R10" s="199" t="s">
+        <v>24</v>
+      </c>
+      <c r="S10" s="199" t="s">
+        <v>46</v>
+      </c>
+      <c r="T10" s="199" t="s">
+        <v>45</v>
+      </c>
+      <c r="U10" s="199" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="2:21" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="23" t="str">
+        <f>E2&amp;"a"</f>
+        <v>PJa</v>
+      </c>
+      <c r="F11" s="23"/>
+      <c r="G11" s="148"/>
+      <c r="H11" s="23" t="str">
+        <f>$F$2&amp;"/"&amp;$E$2</f>
+        <v>M€2005/PJ</v>
+      </c>
+      <c r="I11" s="23" t="str">
+        <f>$F$2&amp;"/"&amp;$E$2&amp;"a"</f>
+        <v>M€2005/PJa</v>
+      </c>
+      <c r="J11" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="K11" s="225"/>
+      <c r="M11" s="199" t="s">
+        <v>103</v>
+      </c>
+      <c r="N11" s="199"/>
+      <c r="O11" s="199"/>
+      <c r="P11" s="199"/>
+      <c r="Q11" s="199"/>
+      <c r="R11" s="199"/>
+      <c r="S11" s="199"/>
+      <c r="T11" s="199"/>
+      <c r="U11" s="199"/>
+    </row>
+    <row r="12" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B12" s="220" t="s">
+        <v>215</v>
+      </c>
+      <c r="C12" s="220" t="str">
+        <f>+Pri_GAS!M5</f>
+        <v>GAS</v>
+      </c>
+      <c r="D12" s="48" t="str">
+        <f>+Demands!$C$13</f>
+        <v>DPCH</v>
+      </c>
+      <c r="E12" s="50"/>
+      <c r="F12" s="120">
+        <v>1</v>
+      </c>
+      <c r="G12" s="120">
+        <v>0.95</v>
+      </c>
+      <c r="H12" s="119">
+        <v>10</v>
+      </c>
+      <c r="I12" s="120">
+        <f>H12*0.02</f>
+        <v>0.2</v>
+      </c>
+      <c r="J12" s="119">
+        <v>20</v>
+      </c>
+      <c r="K12" s="119">
+        <v>2010</v>
+      </c>
+      <c r="M12" s="211" t="s">
+        <v>123</v>
+      </c>
+      <c r="N12" s="212"/>
+      <c r="O12" s="212" t="str">
+        <f>+B12</f>
+        <v>DPCHGAS</v>
+      </c>
+      <c r="P12" s="227" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q12" s="212" t="str">
+        <f>$E$2</f>
+        <v>PJ</v>
+      </c>
+      <c r="R12" s="212" t="str">
+        <f>$E$2&amp;"a"</f>
+        <v>PJa</v>
+      </c>
+      <c r="S12" s="212"/>
+      <c r="T12" s="212"/>
+      <c r="U12" s="212"/>
+    </row>
+    <row r="13" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B13" s="220" t="s">
+        <v>216</v>
+      </c>
+      <c r="C13" s="220" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" s="48" t="str">
+        <f>+Demands!$C$13</f>
+        <v>DPCH</v>
+      </c>
+      <c r="E13" s="135"/>
+      <c r="F13" s="156">
+        <v>1.05</v>
+      </c>
+      <c r="G13" s="156">
+        <v>0.95</v>
+      </c>
+      <c r="H13" s="50">
+        <v>12</v>
+      </c>
+      <c r="I13" s="156">
+        <v>0.18</v>
+      </c>
+      <c r="J13" s="50">
+        <v>20</v>
+      </c>
+      <c r="K13" s="50">
+        <v>2020</v>
+      </c>
+      <c r="M13" s="154"/>
+      <c r="N13" s="50"/>
+      <c r="O13" s="212" t="str">
+        <f t="shared" ref="O13:O14" si="0">+B13</f>
+        <v>DPCHGAS2</v>
+      </c>
+      <c r="P13" s="227" t="s">
+        <v>220</v>
+      </c>
+      <c r="Q13" s="228" t="s">
+        <v>97</v>
+      </c>
+      <c r="R13" s="212" t="str">
+        <f>$E$2&amp;"a"</f>
+        <v>PJa</v>
+      </c>
+      <c r="S13" s="50"/>
+      <c r="T13" s="50"/>
+      <c r="U13" s="50"/>
+    </row>
+    <row r="14" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B14" s="226" t="s">
+        <v>218</v>
+      </c>
+      <c r="C14" s="220" t="s">
+        <v>217</v>
+      </c>
+      <c r="D14" s="48" t="str">
+        <f>+Demands!$C$13</f>
+        <v>DPCH</v>
+      </c>
+      <c r="E14" s="131"/>
+      <c r="F14" s="120">
+        <v>1</v>
+      </c>
+      <c r="G14" s="120">
+        <v>0.95</v>
+      </c>
+      <c r="H14" s="119">
+        <v>10</v>
+      </c>
+      <c r="I14" s="120">
+        <f>H14*0.02</f>
+        <v>0.2</v>
+      </c>
+      <c r="J14" s="119">
+        <v>20</v>
+      </c>
+      <c r="K14" s="119">
+        <v>2010</v>
+      </c>
+      <c r="M14" s="50"/>
+      <c r="N14" s="50"/>
+      <c r="O14" s="212" t="str">
+        <f t="shared" si="0"/>
+        <v>DPCHLOIL</v>
+      </c>
+      <c r="P14" s="227" t="s">
+        <v>221</v>
+      </c>
+      <c r="Q14" s="228" t="s">
+        <v>97</v>
+      </c>
+      <c r="R14" s="212" t="str">
+        <f>$E$2&amp;"a"</f>
+        <v>PJa</v>
+      </c>
+      <c r="S14" s="50"/>
+      <c r="T14" s="50"/>
+      <c r="U14" s="50"/>
+    </row>
+    <row r="15" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B15" s="226" t="s">
+        <v>227</v>
+      </c>
+      <c r="C15" s="220" t="s">
+        <v>226</v>
+      </c>
+      <c r="D15" s="48" t="str">
+        <f>+Demands!$C$13</f>
+        <v>DPCH</v>
+      </c>
+      <c r="E15" s="131"/>
+      <c r="F15" s="156">
+        <v>1.05</v>
+      </c>
+      <c r="G15" s="156">
+        <v>0.95</v>
+      </c>
+      <c r="H15" s="50">
+        <v>15</v>
+      </c>
+      <c r="I15" s="156">
+        <v>0.2</v>
+      </c>
+      <c r="J15" s="50">
+        <v>20</v>
+      </c>
+      <c r="K15" s="50">
+        <v>2020</v>
+      </c>
+      <c r="M15" s="50"/>
+      <c r="N15" s="50"/>
+      <c r="O15" s="50" t="str">
+        <f>+B15</f>
+        <v>DPCHRNW1</v>
+      </c>
+      <c r="P15" s="232" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q15" s="228" t="s">
+        <v>97</v>
+      </c>
+      <c r="R15" s="228" t="s">
+        <v>210</v>
+      </c>
+      <c r="S15" s="50"/>
+      <c r="T15" s="50"/>
+      <c r="U15" s="50"/>
+    </row>
+    <row r="16" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B16" s="220" t="s">
+        <v>233</v>
+      </c>
+      <c r="C16" s="220" t="s">
+        <v>232</v>
+      </c>
+      <c r="D16" s="48" t="str">
+        <f>+Demands!$C$13</f>
+        <v>DPCH</v>
+      </c>
+      <c r="F16" s="156">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G16" s="156">
+        <v>0.95</v>
+      </c>
+      <c r="H16" s="50">
+        <v>16</v>
+      </c>
+      <c r="I16" s="156">
+        <v>0.2</v>
+      </c>
+      <c r="J16" s="50">
+        <v>20</v>
+      </c>
+      <c r="K16" s="50">
+        <v>2020</v>
+      </c>
+      <c r="M16" s="50"/>
+      <c r="N16" s="50"/>
+      <c r="O16" s="50" t="str">
+        <f>+B16</f>
+        <v>DPCH_H2</v>
+      </c>
+      <c r="P16" s="232" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q16" s="228" t="s">
+        <v>97</v>
+      </c>
+      <c r="R16" s="228" t="s">
+        <v>210</v>
+      </c>
+      <c r="S16" s="50"/>
+      <c r="T16" s="50"/>
+      <c r="U16" s="50"/>
+    </row>
+    <row r="17" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="F17" s="50"/>
+      <c r="G17" s="50"/>
+      <c r="H17" s="50"/>
+      <c r="I17" s="50"/>
+      <c r="J17" s="50"/>
+      <c r="K17" s="50"/>
+      <c r="M17" s="50"/>
+      <c r="N17" s="50"/>
+      <c r="O17" s="50"/>
+      <c r="P17" s="50"/>
+      <c r="Q17" s="50"/>
+      <c r="R17" s="50"/>
+      <c r="S17" s="50"/>
+      <c r="T17" s="50"/>
+      <c r="U17" s="50"/>
+    </row>
+    <row r="18" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="I18" s="130"/>
+      <c r="M18" s="50"/>
+      <c r="N18" s="50"/>
+      <c r="O18" s="50"/>
+      <c r="P18" s="50"/>
+      <c r="Q18" s="50"/>
+      <c r="R18" s="50"/>
+      <c r="S18" s="50"/>
+      <c r="T18" s="50"/>
+      <c r="U18" s="50"/>
+    </row>
+    <row r="19" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="I19" s="130"/>
+      <c r="M19" s="50"/>
+      <c r="N19" s="50"/>
+      <c r="O19" s="50"/>
+      <c r="P19" s="50"/>
+      <c r="Q19" s="50"/>
+      <c r="R19" s="50"/>
+      <c r="S19" s="50"/>
+      <c r="T19" s="50"/>
+      <c r="U19" s="50"/>
+    </row>
+    <row r="20" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="M20" s="50"/>
+      <c r="N20" s="50"/>
+      <c r="O20" s="50"/>
+      <c r="P20" s="50"/>
+      <c r="Q20" s="50"/>
+      <c r="R20" s="50"/>
+      <c r="S20" s="50"/>
+      <c r="T20" s="50"/>
+      <c r="U20" s="50"/>
+    </row>
+    <row r="21" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="M21" s="50"/>
+      <c r="N21" s="50"/>
+      <c r="O21" s="50"/>
+      <c r="P21" s="50"/>
+      <c r="Q21" s="50"/>
+      <c r="R21" s="50"/>
+      <c r="S21" s="50"/>
+      <c r="T21" s="50"/>
+      <c r="U21" s="50"/>
+    </row>
+    <row r="22" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="M22" s="50"/>
+      <c r="N22" s="50"/>
+      <c r="O22" s="50"/>
+      <c r="P22" s="50"/>
+      <c r="Q22" s="50"/>
+      <c r="R22" s="50"/>
+      <c r="S22" s="50"/>
+      <c r="T22" s="50"/>
+      <c r="U22" s="50"/>
+    </row>
+    <row r="23" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B23" s="119"/>
+      <c r="C23" s="49" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="24" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B24" s="159"/>
+      <c r="C24" s="49" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="25" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="L25" s="49"/>
+    </row>
+    <row r="26" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="L26" s="49"/>
+    </row>
+    <row r="27" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="L27" s="49"/>
+    </row>
+    <row r="28" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="L28" s="49"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="B1:T28"/>
   <sheetViews>
@@ -15229,7 +16944,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="B1:T28"/>
   <sheetViews>
@@ -15805,12 +17520,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:V28"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -16487,12 +18202,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="B1:V28"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q42" sqref="Q42"/>
+    <sheetView topLeftCell="A2" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -17156,12 +18871,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="B1:K23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K34" sqref="K34"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -17375,6 +19090,32 @@
       </c>
       <c r="K12" s="125">
         <v>0.01</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B13" s="221" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="217" t="s">
+        <v>214</v>
+      </c>
+      <c r="D13" s="222" t="s">
+        <v>97</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>1000</v>
+      </c>
+      <c r="H13">
+        <v>1100</v>
+      </c>
+      <c r="I13">
+        <v>1200</v>
       </c>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.25">
@@ -18322,7 +20063,7 @@
   <dimension ref="A1:T36"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="D11" sqref="D11:D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -19148,8 +20889,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:Y37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -19934,10 +21675,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="B1:T38"/>
+  <dimension ref="B1:T39"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P11" sqref="P11"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -20094,236 +21835,244 @@
       <c r="R5" s="200"/>
       <c r="S5" s="200"/>
     </row>
-    <row r="7" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="F7" s="7" t="s">
+    <row r="6" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="K6" s="200"/>
+      <c r="L6" s="201"/>
+      <c r="M6" s="200" t="str">
+        <f>+D13</f>
+        <v>RNW1</v>
+      </c>
+      <c r="N6" s="218" t="s">
+        <v>231</v>
+      </c>
+      <c r="O6" s="218" t="s">
+        <v>97</v>
+      </c>
+      <c r="P6" s="200"/>
+      <c r="Q6" s="200"/>
+      <c r="R6" s="200"/>
+      <c r="S6" s="200"/>
+    </row>
+    <row r="8" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="F8" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="H7" s="7"/>
-      <c r="I7"/>
-      <c r="K7" s="195" t="s">
+      <c r="H8" s="7"/>
+      <c r="I8"/>
+      <c r="K8" s="195" t="s">
         <v>15</v>
       </c>
-      <c r="L7" s="195"/>
-      <c r="M7" s="202"/>
-      <c r="N7" s="202"/>
-      <c r="O7" s="202"/>
-      <c r="P7" s="202"/>
-      <c r="Q7" s="202"/>
-      <c r="R7" s="202"/>
-      <c r="S7" s="202"/>
-    </row>
-    <row r="8" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B8" s="3" t="s">
+      <c r="L8" s="195"/>
+      <c r="M8" s="202"/>
+      <c r="N8" s="202"/>
+      <c r="O8" s="202"/>
+      <c r="P8" s="202"/>
+      <c r="Q8" s="202"/>
+      <c r="R8" s="202"/>
+      <c r="S8" s="202"/>
+    </row>
+    <row r="9" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B9" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="29" t="s">
+      <c r="C9" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D9" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E9" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G8" s="139" t="s">
+      <c r="G9" s="139" t="s">
         <v>37</v>
       </c>
-      <c r="H8" s="139" t="s">
+      <c r="H9" s="139" t="s">
         <v>38</v>
       </c>
-      <c r="I8" s="139" t="s">
+      <c r="I9" s="139" t="s">
         <v>100</v>
       </c>
-      <c r="K8" s="197" t="s">
+      <c r="K9" s="197" t="s">
         <v>11</v>
       </c>
-      <c r="L8" s="198" t="s">
+      <c r="L9" s="198" t="s">
         <v>30</v>
       </c>
-      <c r="M8" s="197" t="s">
+      <c r="M9" s="197" t="s">
         <v>1</v>
       </c>
-      <c r="N8" s="197" t="s">
+      <c r="N9" s="197" t="s">
         <v>2</v>
       </c>
-      <c r="O8" s="197" t="s">
+      <c r="O9" s="197" t="s">
         <v>16</v>
       </c>
-      <c r="P8" s="197" t="s">
+      <c r="P9" s="197" t="s">
         <v>17</v>
       </c>
-      <c r="Q8" s="197" t="s">
+      <c r="Q9" s="197" t="s">
         <v>18</v>
       </c>
-      <c r="R8" s="197" t="s">
+      <c r="R9" s="197" t="s">
         <v>19</v>
       </c>
-      <c r="S8" s="197" t="s">
+      <c r="S9" s="197" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="2:20" ht="21.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="25" t="s">
+    <row r="10" spans="2:20" ht="21.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="C9" s="25" t="s">
+      <c r="C10" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="25" t="s">
+      <c r="D10" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="25" t="s">
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="H9" s="25" t="s">
+      <c r="H10" s="25" t="s">
         <v>117</v>
       </c>
-      <c r="I9" s="25" t="s">
+      <c r="I10" s="25" t="s">
         <v>116</v>
       </c>
-      <c r="K9" s="199" t="s">
+      <c r="K10" s="199" t="s">
         <v>41</v>
       </c>
-      <c r="L9" s="199" t="s">
+      <c r="L10" s="199" t="s">
         <v>31</v>
       </c>
-      <c r="M9" s="199" t="s">
+      <c r="M10" s="199" t="s">
         <v>21</v>
       </c>
-      <c r="N9" s="199" t="s">
+      <c r="N10" s="199" t="s">
         <v>22</v>
       </c>
-      <c r="O9" s="199" t="s">
+      <c r="O10" s="199" t="s">
         <v>23</v>
       </c>
-      <c r="P9" s="199" t="s">
+      <c r="P10" s="199" t="s">
         <v>24</v>
       </c>
-      <c r="Q9" s="199" t="s">
+      <c r="Q10" s="199" t="s">
         <v>46</v>
       </c>
-      <c r="R9" s="199" t="s">
+      <c r="R10" s="199" t="s">
         <v>45</v>
       </c>
-      <c r="S9" s="199" t="s">
+      <c r="S10" s="199" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="2:20" s="50" customFormat="1" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="25" t="s">
+    <row r="11" spans="2:20" s="50" customFormat="1" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="25" t="s">
         <v>114</v>
       </c>
-      <c r="C10" s="23"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="23" t="str">
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23" t="str">
         <f>$E$2</f>
         <v>PJ</v>
       </c>
-      <c r="H10" s="23" t="str">
+      <c r="H11" s="23" t="str">
         <f>$G$2&amp;"/"&amp;$E$2</f>
         <v>M€2005/PJ</v>
       </c>
-      <c r="I10" s="23" t="str">
+      <c r="I11" s="23" t="str">
         <f>$E$2</f>
         <v>PJ</v>
       </c>
-      <c r="J10" s="48"/>
-      <c r="K10" s="199" t="s">
+      <c r="J11" s="48"/>
+      <c r="K11" s="199" t="s">
         <v>103</v>
       </c>
-      <c r="L10" s="203"/>
-      <c r="M10" s="203"/>
-      <c r="N10" s="203"/>
-      <c r="O10" s="203"/>
-      <c r="P10" s="203"/>
-      <c r="Q10" s="203"/>
-      <c r="R10" s="203"/>
-      <c r="S10" s="203"/>
-      <c r="T10" s="48"/>
-    </row>
-    <row r="11" spans="2:20" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="15" t="str">
-        <f>M11</f>
+      <c r="L11" s="203"/>
+      <c r="M11" s="203"/>
+      <c r="N11" s="203"/>
+      <c r="O11" s="203"/>
+      <c r="P11" s="203"/>
+      <c r="Q11" s="203"/>
+      <c r="R11" s="203"/>
+      <c r="S11" s="203"/>
+      <c r="T11" s="48"/>
+    </row>
+    <row r="12" spans="2:20" s="50" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="15" t="str">
+        <f>M12</f>
         <v>MINRNW1</v>
       </c>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15" t="str">
+      <c r="C12" s="15"/>
+      <c r="D12" s="15" t="str">
         <f>$M$5</f>
         <v>RNW</v>
       </c>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="44"/>
-      <c r="I11" s="9"/>
-      <c r="K11" s="200" t="str">
-        <f>EnergyBalance!$B$5</f>
-        <v>MIN</v>
-      </c>
-      <c r="L11" s="201"/>
-      <c r="M11" s="201" t="str">
-        <f>$K$11&amp;$C$2&amp;1</f>
-        <v>MINRNW1</v>
-      </c>
-      <c r="N11" s="204" t="str">
-        <f>"Domestic Supply of "&amp;$D$2&amp; " Step "&amp;RIGHT(M11,1)</f>
-        <v>Domestic Supply of Renewable Energies Step 1</v>
-      </c>
-      <c r="O11" s="201" t="str">
-        <f>$E$2</f>
-        <v>PJ</v>
-      </c>
-      <c r="P11" s="201"/>
-      <c r="Q11" s="201"/>
-      <c r="R11" s="201"/>
-      <c r="S11" s="201"/>
-    </row>
-    <row r="12" spans="2:20" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="15"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
       <c r="E12" s="15"/>
       <c r="F12" s="15"/>
       <c r="G12" s="20"/>
       <c r="H12" s="44"/>
       <c r="I12" s="9"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="9"/>
-      <c r="M12" s="9"/>
-      <c r="N12" s="34"/>
-      <c r="O12" s="9"/>
-      <c r="P12" s="9"/>
-      <c r="Q12" s="9"/>
-      <c r="R12" s="9"/>
-      <c r="S12" s="9"/>
-    </row>
-    <row r="13" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B13" s="15"/>
+      <c r="K12" s="200" t="str">
+        <f>EnergyBalance!$B$5</f>
+        <v>MIN</v>
+      </c>
+      <c r="L12" s="201"/>
+      <c r="M12" s="201" t="str">
+        <f>$K$12&amp;$C$2&amp;1</f>
+        <v>MINRNW1</v>
+      </c>
+      <c r="N12" s="204" t="str">
+        <f>"Domestic Supply of "&amp;$D$2&amp; " Step "&amp;RIGHT(M12,1)</f>
+        <v>Domestic Supply of Renewable Energies Step 1</v>
+      </c>
+      <c r="O12" s="201" t="str">
+        <f>$E$2</f>
+        <v>PJ</v>
+      </c>
+      <c r="P12" s="201"/>
+      <c r="Q12" s="201"/>
+      <c r="R12" s="201"/>
+      <c r="S12" s="201"/>
+    </row>
+    <row r="13" spans="2:20" s="50" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="B13" s="214" t="s">
+        <v>229</v>
+      </c>
       <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
+      <c r="D13" s="214" t="s">
+        <v>226</v>
+      </c>
       <c r="E13" s="15"/>
       <c r="F13" s="15"/>
       <c r="G13" s="20"/>
       <c r="H13" s="44"/>
       <c r="I13" s="9"/>
-      <c r="J13" s="50"/>
       <c r="K13" s="9"/>
       <c r="L13" s="9"/>
-      <c r="M13" s="9"/>
-      <c r="N13" s="34"/>
-      <c r="O13" s="9"/>
+      <c r="M13" s="9" t="str">
+        <f>+B13</f>
+        <v>MINRN1_1</v>
+      </c>
+      <c r="N13" s="219" t="s">
+        <v>230</v>
+      </c>
+      <c r="O13" s="214" t="s">
+        <v>97</v>
+      </c>
       <c r="P13" s="9"/>
       <c r="Q13" s="9"/>
       <c r="R13" s="9"/>
       <c r="S13" s="9"/>
-      <c r="T13" s="50"/>
     </row>
     <row r="14" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B14" s="15"/>
@@ -20331,9 +22080,10 @@
       <c r="D14" s="15"/>
       <c r="E14" s="15"/>
       <c r="F14" s="15"/>
-      <c r="G14" s="14"/>
+      <c r="G14" s="20"/>
       <c r="H14" s="44"/>
       <c r="I14" s="9"/>
+      <c r="J14" s="50"/>
       <c r="K14" s="9"/>
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
@@ -20343,6 +22093,7 @@
       <c r="Q14" s="9"/>
       <c r="R14" s="9"/>
       <c r="S14" s="9"/>
+      <c r="T14" s="50"/>
     </row>
     <row r="15" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B15" s="15"/>
@@ -20352,7 +22103,7 @@
       <c r="F15" s="15"/>
       <c r="G15" s="14"/>
       <c r="H15" s="44"/>
-      <c r="I15" s="22"/>
+      <c r="I15" s="9"/>
       <c r="K15" s="9"/>
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
@@ -20363,35 +22114,35 @@
       <c r="R15" s="9"/>
       <c r="S15" s="9"/>
     </row>
-    <row r="16" spans="2:20" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B16" s="15"/>
       <c r="C16" s="15"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
       <c r="F16" s="15"/>
       <c r="G16" s="14"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="48"/>
-      <c r="J16" s="48"/>
+      <c r="H16" s="44"/>
+      <c r="I16" s="22"/>
       <c r="K16" s="9"/>
       <c r="L16" s="9"/>
       <c r="M16" s="9"/>
-      <c r="N16" s="9"/>
+      <c r="N16" s="34"/>
       <c r="O16" s="9"/>
       <c r="P16" s="9"/>
       <c r="Q16" s="9"/>
       <c r="R16" s="9"/>
       <c r="S16" s="9"/>
-      <c r="T16" s="48"/>
     </row>
     <row r="17" spans="2:20" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="15"/>
       <c r="D17" s="9"/>
       <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="48"/>
+      <c r="J17" s="48"/>
       <c r="K17" s="9"/>
       <c r="L17" s="9"/>
       <c r="M17" s="9"/>
@@ -20401,8 +22152,9 @@
       <c r="Q17" s="9"/>
       <c r="R17" s="9"/>
       <c r="S17" s="9"/>
-    </row>
-    <row r="18" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="T17" s="48"/>
+    </row>
+    <row r="18" spans="2:20" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
@@ -20410,8 +22162,6 @@
       <c r="F18" s="9"/>
       <c r="G18" s="9"/>
       <c r="H18" s="9"/>
-      <c r="I18" s="50"/>
-      <c r="J18" s="50"/>
       <c r="K18" s="9"/>
       <c r="L18" s="9"/>
       <c r="M18" s="9"/>
@@ -20421,7 +22171,6 @@
       <c r="Q18" s="9"/>
       <c r="R18" s="9"/>
       <c r="S18" s="9"/>
-      <c r="T18" s="50"/>
     </row>
     <row r="19" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B19" s="9"/>
@@ -20431,6 +22180,8 @@
       <c r="F19" s="9"/>
       <c r="G19" s="9"/>
       <c r="H19" s="9"/>
+      <c r="I19" s="50"/>
+      <c r="J19" s="50"/>
       <c r="K19" s="9"/>
       <c r="L19" s="9"/>
       <c r="M19" s="9"/>
@@ -20440,8 +22191,9 @@
       <c r="Q19" s="9"/>
       <c r="R19" s="9"/>
       <c r="S19" s="9"/>
-    </row>
-    <row r="20" spans="2:20" s="49" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T19" s="50"/>
+    </row>
+    <row r="20" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
@@ -20449,8 +22201,6 @@
       <c r="F20" s="9"/>
       <c r="G20" s="9"/>
       <c r="H20" s="9"/>
-      <c r="I20" s="48"/>
-      <c r="J20" s="48"/>
       <c r="K20" s="9"/>
       <c r="L20" s="9"/>
       <c r="M20" s="9"/>
@@ -20460,9 +22210,8 @@
       <c r="Q20" s="9"/>
       <c r="R20" s="9"/>
       <c r="S20" s="9"/>
-      <c r="T20" s="48"/>
-    </row>
-    <row r="21" spans="2:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="2:20" s="49" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
       <c r="D21" s="9"/>
@@ -20470,8 +22219,8 @@
       <c r="F21" s="9"/>
       <c r="G21" s="9"/>
       <c r="H21" s="9"/>
-      <c r="I21" s="49"/>
-      <c r="J21" s="49"/>
+      <c r="I21" s="48"/>
+      <c r="J21" s="48"/>
       <c r="K21" s="9"/>
       <c r="L21" s="9"/>
       <c r="M21" s="9"/>
@@ -20481,9 +22230,18 @@
       <c r="Q21" s="9"/>
       <c r="R21" s="9"/>
       <c r="S21" s="9"/>
-      <c r="T21" s="49"/>
+      <c r="T21" s="48"/>
     </row>
     <row r="22" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="49"/>
+      <c r="J22" s="49"/>
       <c r="K22" s="9"/>
       <c r="L22" s="9"/>
       <c r="M22" s="9"/>
@@ -20493,40 +22251,31 @@
       <c r="Q22" s="9"/>
       <c r="R22" s="9"/>
       <c r="S22" s="9"/>
-    </row>
-    <row r="23" spans="2:20" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="76"/>
-      <c r="C23" s="1" t="s">
+      <c r="T22" s="49"/>
+    </row>
+    <row r="23" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="K23" s="9"/>
+      <c r="L23" s="9"/>
+      <c r="M23" s="9"/>
+      <c r="N23" s="9"/>
+      <c r="O23" s="9"/>
+      <c r="P23" s="9"/>
+      <c r="Q23" s="9"/>
+      <c r="R23" s="9"/>
+      <c r="S23" s="9"/>
+    </row>
+    <row r="24" spans="2:20" s="50" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="76"/>
+      <c r="C24" s="1" t="s">
         <v>181</v>
-      </c>
-      <c r="D23"/>
-      <c r="E23"/>
-      <c r="F23"/>
-      <c r="G23"/>
-      <c r="H23"/>
-      <c r="I23" s="48"/>
-      <c r="J23" s="48"/>
-      <c r="K23"/>
-      <c r="L23"/>
-      <c r="M23"/>
-      <c r="N23"/>
-      <c r="O23"/>
-      <c r="P23"/>
-      <c r="Q23"/>
-      <c r="R23"/>
-      <c r="S23"/>
-      <c r="T23" s="48"/>
-    </row>
-    <row r="24" spans="2:20" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="111"/>
-      <c r="C24" s="1" t="s">
-        <v>182</v>
       </c>
       <c r="D24"/>
       <c r="E24"/>
       <c r="F24"/>
       <c r="G24"/>
       <c r="H24"/>
+      <c r="I24" s="48"/>
+      <c r="J24" s="48"/>
       <c r="K24"/>
       <c r="L24"/>
       <c r="M24"/>
@@ -20536,10 +22285,13 @@
       <c r="Q24"/>
       <c r="R24"/>
       <c r="S24"/>
+      <c r="T24" s="48"/>
     </row>
     <row r="25" spans="2:20" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B25"/>
-      <c r="C25"/>
+      <c r="B25" s="111"/>
+      <c r="C25" s="1" t="s">
+        <v>182</v>
+      </c>
       <c r="D25"/>
       <c r="E25"/>
       <c r="F25"/>
@@ -20555,14 +22307,28 @@
       <c r="R25"/>
       <c r="S25"/>
     </row>
-    <row r="26" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="I26" s="50"/>
-      <c r="J26" s="50"/>
-      <c r="T26" s="50"/>
-    </row>
-    <row r="30" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="I30" s="51"/>
-      <c r="J30" s="51"/>
+    <row r="26" spans="2:20" s="50" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B26"/>
+      <c r="C26"/>
+      <c r="D26"/>
+      <c r="E26"/>
+      <c r="F26"/>
+      <c r="G26"/>
+      <c r="H26"/>
+      <c r="K26"/>
+      <c r="L26"/>
+      <c r="M26"/>
+      <c r="N26"/>
+      <c r="O26"/>
+      <c r="P26"/>
+      <c r="Q26"/>
+      <c r="R26"/>
+      <c r="S26"/>
+    </row>
+    <row r="27" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="I27" s="50"/>
+      <c r="J27" s="50"/>
+      <c r="T27" s="50"/>
     </row>
     <row r="31" spans="2:20" x14ac:dyDescent="0.25">
       <c r="I31" s="51"/>
@@ -20595,6 +22361,10 @@
     <row r="38" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I38" s="51"/>
       <c r="J38" s="51"/>
+    </row>
+    <row r="39" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I39" s="51"/>
+      <c r="J39" s="51"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -21273,34 +23043,35 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="B1:Q29"/>
+  <dimension ref="B1:R35"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" topLeftCell="B13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.21875" customWidth="1"/>
     <col min="3" max="3" width="12.33203125" customWidth="1"/>
     <col min="4" max="4" width="11.88671875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.88671875" customWidth="1"/>
     <col min="6" max="6" width="8.88671875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="2.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.44140625" customWidth="1"/>
-    <col min="10" max="10" width="7.109375" customWidth="1"/>
-    <col min="11" max="11" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="64.44140625" customWidth="1"/>
-    <col min="13" max="13" width="6.109375" customWidth="1"/>
-    <col min="14" max="14" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.109375" customWidth="1"/>
+    <col min="8" max="8" width="10.5546875" customWidth="1"/>
+    <col min="9" max="9" width="2.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.44140625" customWidth="1"/>
+    <col min="11" max="11" width="7.109375" customWidth="1"/>
+    <col min="12" max="12" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="64.44140625" customWidth="1"/>
+    <col min="14" max="14" width="6.109375" customWidth="1"/>
+    <col min="15" max="15" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:18" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B1" s="16" t="s">
         <v>94</v>
       </c>
@@ -21319,8 +23090,9 @@
       <c r="G1" s="16" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="2" spans="2:17" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="H1" s="16"/>
+    </row>
+    <row r="2" spans="2:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
       <c r="D2" s="19" t="s">
@@ -21337,605 +23109,576 @@
       <c r="G2" s="19" t="s">
         <v>127</v>
       </c>
-      <c r="I2" s="195" t="s">
+      <c r="H2" s="19"/>
+      <c r="J2" s="195" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="195"/>
-      <c r="K2" s="196"/>
+      <c r="K2" s="195"/>
       <c r="L2" s="196"/>
       <c r="M2" s="196"/>
       <c r="N2" s="196"/>
       <c r="O2" s="196"/>
       <c r="P2" s="196"/>
       <c r="Q2" s="196"/>
-    </row>
-    <row r="3" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="I3" s="197" t="s">
+      <c r="R2" s="196"/>
+    </row>
+    <row r="3" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="J3" s="197" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="198" t="s">
+      <c r="K3" s="198" t="s">
         <v>30</v>
       </c>
-      <c r="K3" s="197" t="s">
+      <c r="L3" s="197" t="s">
         <v>0</v>
       </c>
-      <c r="L3" s="197" t="s">
+      <c r="M3" s="197" t="s">
         <v>3</v>
       </c>
-      <c r="M3" s="197" t="s">
+      <c r="N3" s="197" t="s">
         <v>4</v>
       </c>
-      <c r="N3" s="197" t="s">
+      <c r="O3" s="197" t="s">
         <v>8</v>
       </c>
-      <c r="O3" s="197" t="s">
+      <c r="P3" s="197" t="s">
         <v>9</v>
       </c>
-      <c r="P3" s="197" t="s">
+      <c r="Q3" s="197" t="s">
         <v>10</v>
       </c>
-      <c r="Q3" s="197" t="s">
+      <c r="R3" s="197" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="2:17" s="9" customFormat="1" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:18" s="9" customFormat="1" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="17"/>
       <c r="C4" s="17"/>
       <c r="D4" s="17"/>
       <c r="E4" s="17"/>
       <c r="G4"/>
-      <c r="I4" s="199" t="s">
+      <c r="H4"/>
+      <c r="J4" s="199" t="s">
         <v>40</v>
       </c>
-      <c r="J4" s="199" t="s">
+      <c r="K4" s="199" t="s">
         <v>31</v>
       </c>
-      <c r="K4" s="199" t="s">
+      <c r="L4" s="199" t="s">
         <v>26</v>
       </c>
-      <c r="L4" s="199" t="s">
+      <c r="M4" s="199" t="s">
         <v>27</v>
       </c>
-      <c r="M4" s="199" t="s">
+      <c r="N4" s="199" t="s">
         <v>4</v>
       </c>
-      <c r="N4" s="199" t="s">
+      <c r="O4" s="199" t="s">
         <v>43</v>
       </c>
-      <c r="O4" s="199" t="s">
+      <c r="P4" s="199" t="s">
         <v>44</v>
       </c>
-      <c r="P4" s="199" t="s">
+      <c r="Q4" s="199" t="s">
         <v>28</v>
       </c>
-      <c r="Q4" s="199" t="s">
+      <c r="R4" s="199" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
       <c r="D5" s="11"/>
       <c r="E5" s="21"/>
       <c r="F5" s="21"/>
-      <c r="I5" s="201" t="s">
+      <c r="J5" s="201" t="s">
         <v>93</v>
       </c>
-      <c r="J5" s="201"/>
-      <c r="K5" s="201" t="str">
+      <c r="K5" s="201"/>
+      <c r="L5" s="201" t="str">
         <f>EnergyBalance!$B$16&amp;EnergyBalance!$E$2</f>
         <v>RSDGAS</v>
       </c>
-      <c r="L5" s="204" t="str">
+      <c r="M5" s="204" t="str">
         <f>EnergyBalance!$C$16&amp;" "&amp;EnergyBalance!$E$3</f>
         <v>Residential Natural Gas</v>
       </c>
-      <c r="M5" s="201" t="str">
-        <f t="shared" ref="M5:M11" si="0">$E$2</f>
+      <c r="N5" s="201" t="str">
+        <f t="shared" ref="N5:N11" si="0">$E$2</f>
         <v>PJ</v>
       </c>
-      <c r="N5" s="201"/>
       <c r="O5" s="201"/>
       <c r="P5" s="201"/>
       <c r="Q5" s="201"/>
-    </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R5" s="201"/>
+    </row>
+    <row r="6" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>
       <c r="D6" s="11"/>
       <c r="E6" s="21"/>
       <c r="F6" s="21"/>
-      <c r="I6" s="202"/>
       <c r="J6" s="202"/>
-      <c r="K6" s="202" t="str">
+      <c r="K6" s="202"/>
+      <c r="L6" s="202" t="str">
         <f>EnergyBalance!$B$20&amp;EnergyBalance!$F$2</f>
         <v>TRAOIL</v>
       </c>
-      <c r="L6" s="202" t="str">
+      <c r="M6" s="202" t="str">
         <f>EnergyBalance!$C$20&amp;" "&amp;EnergyBalance!$F$3</f>
         <v>Transport Crude Oil</v>
       </c>
-      <c r="M6" s="202" t="str">
+      <c r="N6" s="202" t="str">
         <f t="shared" si="0"/>
         <v>PJ</v>
       </c>
-      <c r="N6" s="201"/>
       <c r="O6" s="201"/>
       <c r="P6" s="201"/>
       <c r="Q6" s="201"/>
-    </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R6" s="201"/>
+    </row>
+    <row r="7" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
       <c r="D7" s="11"/>
       <c r="E7" s="21"/>
       <c r="F7" s="21"/>
-      <c r="I7" s="201"/>
       <c r="J7" s="201"/>
-      <c r="K7" s="201" t="str">
+      <c r="K7" s="201"/>
+      <c r="L7" s="201" t="str">
         <f>Con_ELC!$B$2&amp;EnergyBalance!$D$2</f>
         <v>ELCCOA</v>
       </c>
-      <c r="L7" s="204" t="str">
+      <c r="M7" s="204" t="str">
         <f>Con_ELC!$C$2&amp;" "&amp;EnergyBalance!$D$3</f>
         <v>Electricity Plants Solid Fuels</v>
       </c>
-      <c r="M7" s="201" t="str">
+      <c r="N7" s="201" t="str">
         <f t="shared" si="0"/>
         <v>PJ</v>
       </c>
-      <c r="N7" s="201"/>
       <c r="O7" s="201"/>
       <c r="P7" s="201"/>
       <c r="Q7" s="201"/>
-    </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R7" s="201"/>
+    </row>
+    <row r="8" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
       <c r="E8" s="21"/>
       <c r="F8" s="21"/>
-      <c r="I8" s="201"/>
       <c r="J8" s="201"/>
-      <c r="K8" s="201" t="str">
+      <c r="K8" s="201"/>
+      <c r="L8" s="201" t="str">
         <f>Con_ELC!$B$2&amp;EnergyBalance!$E$2</f>
         <v>ELCGAS</v>
       </c>
-      <c r="L8" s="204" t="str">
+      <c r="M8" s="204" t="str">
         <f>Con_ELC!$C$2&amp;" "&amp;EnergyBalance!$E$3</f>
         <v>Electricity Plants Natural Gas</v>
       </c>
-      <c r="M8" s="201" t="str">
+      <c r="N8" s="201" t="str">
         <f t="shared" si="0"/>
         <v>PJ</v>
       </c>
-      <c r="N8" s="201"/>
       <c r="O8" s="201"/>
       <c r="P8" s="201"/>
       <c r="Q8" s="201"/>
-    </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R8" s="201"/>
+    </row>
+    <row r="9" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
       <c r="D9" s="11"/>
       <c r="E9" s="21"/>
       <c r="F9" s="21"/>
-      <c r="I9" s="201"/>
       <c r="J9" s="201"/>
-      <c r="K9" s="201" t="str">
+      <c r="K9" s="201"/>
+      <c r="L9" s="201" t="str">
         <f>Con_ELC!$B$2&amp;EnergyBalance!$F$2</f>
         <v>ELCOIL</v>
       </c>
-      <c r="L9" s="204" t="str">
+      <c r="M9" s="204" t="str">
         <f>Con_ELC!$C$2&amp;" "&amp;EnergyBalance!$F$3</f>
         <v>Electricity Plants Crude Oil</v>
       </c>
-      <c r="M9" s="201" t="str">
+      <c r="N9" s="201" t="str">
         <f t="shared" si="0"/>
         <v>PJ</v>
       </c>
-      <c r="N9" s="201"/>
       <c r="O9" s="201"/>
       <c r="P9" s="201"/>
       <c r="Q9" s="201"/>
-    </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R9" s="201"/>
+    </row>
+    <row r="10" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B10" s="11"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
       <c r="E10" s="21"/>
       <c r="F10" s="21"/>
-      <c r="I10" s="201"/>
       <c r="J10" s="201"/>
-      <c r="K10" s="201" t="str">
+      <c r="K10" s="201"/>
+      <c r="L10" s="201" t="str">
         <f>Con_ELC!$B$2&amp;EnergyBalance!$H$2</f>
         <v>ELCRNW</v>
       </c>
-      <c r="L10" s="204" t="str">
+      <c r="M10" s="204" t="str">
         <f>Con_ELC!$C$2&amp;" "&amp;EnergyBalance!$H$3</f>
         <v>Electricity Plants Renewable Energies</v>
       </c>
-      <c r="M10" s="201" t="str">
+      <c r="N10" s="201" t="str">
         <f t="shared" si="0"/>
         <v>PJ</v>
       </c>
-      <c r="N10" s="201"/>
       <c r="O10" s="201"/>
       <c r="P10" s="201"/>
       <c r="Q10" s="201"/>
-    </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R10" s="201"/>
+    </row>
+    <row r="11" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B11" s="11"/>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
       <c r="E11" s="21"/>
       <c r="F11" s="21"/>
-      <c r="I11" s="201"/>
       <c r="J11" s="201"/>
-      <c r="K11" s="201" t="str">
+      <c r="K11" s="201"/>
+      <c r="L11" s="201" t="str">
         <f>Con_ELC!$B$2&amp;EnergyBalance!$G$2</f>
         <v>ELCNUC</v>
       </c>
-      <c r="L11" s="204" t="str">
+      <c r="M11" s="204" t="str">
         <f>Con_ELC!$C$2&amp;" "&amp;EnergyBalance!$G$3</f>
         <v>Electricity Plants Nuclear Energy</v>
       </c>
-      <c r="M11" s="201" t="str">
+      <c r="N11" s="201" t="str">
         <f t="shared" si="0"/>
         <v>PJ</v>
       </c>
-      <c r="N11" s="201"/>
       <c r="O11" s="201"/>
       <c r="P11" s="201"/>
       <c r="Q11" s="201"/>
-    </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R11" s="201"/>
+    </row>
+    <row r="12" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B12" s="11"/>
       <c r="C12" s="11"/>
       <c r="D12" s="11"/>
       <c r="E12" s="21"/>
       <c r="F12" s="21"/>
-      <c r="I12" s="201"/>
       <c r="J12" s="201"/>
-      <c r="K12" s="218" t="str">
-        <f>D25</f>
+      <c r="K12" s="201"/>
+      <c r="L12" s="218" t="str">
+        <f>D27</f>
         <v>ELCOILS</v>
       </c>
-      <c r="L12" s="219" t="s">
+      <c r="M12" s="219" t="s">
         <v>207</v>
       </c>
-      <c r="M12" s="218" t="s">
+      <c r="N12" s="218" t="s">
         <v>97</v>
       </c>
-      <c r="N12" s="201"/>
       <c r="O12" s="201"/>
       <c r="P12" s="201"/>
       <c r="Q12" s="201"/>
-    </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="K13" s="51"/>
-      <c r="L13" s="53"/>
-    </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="D14" s="7" t="s">
+      <c r="R12" s="201"/>
+    </row>
+    <row r="13" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="J13" s="201"/>
+      <c r="K13" s="201"/>
+      <c r="L13" s="218" t="str">
+        <f>+D28</f>
+        <v>LOIL</v>
+      </c>
+      <c r="M13" s="219" t="s">
+        <v>224</v>
+      </c>
+      <c r="N13" s="218" t="s">
+        <v>97</v>
+      </c>
+      <c r="O13" s="201"/>
+      <c r="P13" s="201"/>
+      <c r="Q13" s="201"/>
+      <c r="R13" s="201"/>
+    </row>
+    <row r="14" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="J14" s="201"/>
+      <c r="K14" s="201"/>
+      <c r="L14" s="218" t="str">
+        <f>+D29</f>
+        <v>H2</v>
+      </c>
+      <c r="M14" s="219" t="s">
+        <v>236</v>
+      </c>
+      <c r="N14" s="218" t="s">
+        <v>97</v>
+      </c>
+      <c r="O14" s="201"/>
+      <c r="P14" s="201"/>
+      <c r="Q14" s="201"/>
+      <c r="R14" s="201"/>
+    </row>
+    <row r="15" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="L15" s="51"/>
+      <c r="M15" s="53"/>
+    </row>
+    <row r="16" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="D16" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="I14" s="195" t="s">
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="J16" s="195" t="s">
         <v>15</v>
       </c>
-      <c r="J14" s="195"/>
-      <c r="K14" s="202"/>
-      <c r="L14" s="202"/>
-      <c r="M14" s="202"/>
-      <c r="N14" s="202"/>
-      <c r="O14" s="202"/>
-      <c r="P14" s="202"/>
-      <c r="Q14" s="202"/>
-    </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B15" s="28" t="s">
+      <c r="K16" s="195"/>
+      <c r="L16" s="202"/>
+      <c r="M16" s="202"/>
+      <c r="N16" s="202"/>
+      <c r="O16" s="202"/>
+      <c r="P16" s="202"/>
+      <c r="Q16" s="202"/>
+      <c r="R16" s="202"/>
+    </row>
+    <row r="17" spans="2:18" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="B17" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="28" t="s">
+      <c r="C17" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="D15" s="28" t="s">
+      <c r="D17" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="E15" s="143" t="s">
+      <c r="E17" s="143" t="s">
         <v>189</v>
       </c>
-      <c r="F15" s="143" t="s">
+      <c r="F17" s="143" t="s">
         <v>108</v>
       </c>
-      <c r="G15" s="143" t="s">
+      <c r="G17" s="143" t="s">
         <v>101</v>
       </c>
-      <c r="I15" s="197" t="s">
+      <c r="H17" s="145" t="s">
+        <v>239</v>
+      </c>
+      <c r="J17" s="197" t="s">
         <v>11</v>
       </c>
-      <c r="J15" s="198" t="s">
+      <c r="K17" s="198" t="s">
         <v>30</v>
       </c>
-      <c r="K15" s="197" t="s">
+      <c r="L17" s="197" t="s">
         <v>1</v>
       </c>
-      <c r="L15" s="197" t="s">
+      <c r="M17" s="197" t="s">
         <v>2</v>
       </c>
-      <c r="M15" s="197" t="s">
+      <c r="N17" s="197" t="s">
         <v>16</v>
       </c>
-      <c r="N15" s="197" t="s">
+      <c r="O17" s="197" t="s">
         <v>17</v>
       </c>
-      <c r="O15" s="197" t="s">
+      <c r="P17" s="197" t="s">
         <v>18</v>
       </c>
-      <c r="P15" s="197" t="s">
+      <c r="Q17" s="197" t="s">
         <v>19</v>
       </c>
-      <c r="Q15" s="197" t="s">
+      <c r="R17" s="197" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="2:17" ht="21.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="26" t="s">
+    <row r="18" spans="2:18" ht="21.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="C16" s="26" t="s">
+      <c r="C18" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="D16" s="26" t="s">
+      <c r="D18" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="E16" s="26" t="s">
+      <c r="E18" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="F16" s="26" t="s">
+      <c r="F18" s="26" t="s">
         <v>113</v>
       </c>
-      <c r="G16" s="26" t="s">
+      <c r="G18" s="26" t="s">
         <v>195</v>
       </c>
-      <c r="I16" s="199" t="s">
+      <c r="H18" s="224"/>
+      <c r="J18" s="199" t="s">
         <v>41</v>
       </c>
-      <c r="J16" s="199" t="s">
+      <c r="K18" s="199" t="s">
         <v>31</v>
       </c>
-      <c r="K16" s="199" t="s">
+      <c r="L18" s="199" t="s">
         <v>21</v>
       </c>
-      <c r="L16" s="199" t="s">
+      <c r="M18" s="199" t="s">
         <v>22</v>
       </c>
-      <c r="M16" s="199" t="s">
+      <c r="N18" s="199" t="s">
         <v>23</v>
       </c>
-      <c r="N16" s="199" t="s">
+      <c r="O18" s="199" t="s">
         <v>24</v>
       </c>
-      <c r="O16" s="199" t="s">
+      <c r="P18" s="199" t="s">
         <v>46</v>
       </c>
-      <c r="P16" s="199" t="s">
+      <c r="Q18" s="199" t="s">
         <v>45</v>
       </c>
-      <c r="Q16" s="199" t="s">
+      <c r="R18" s="199" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="2:17" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="25" t="s">
+    <row r="19" spans="2:18" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="25" t="s">
         <v>114</v>
       </c>
-      <c r="C17" s="25"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="23" t="str">
+      <c r="C19" s="25"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="23" t="str">
         <f>E2&amp;"a"</f>
         <v>PJa</v>
       </c>
-      <c r="F17" s="23"/>
-      <c r="G17" s="23" t="s">
+      <c r="F19" s="23"/>
+      <c r="G19" s="23" t="s">
         <v>115</v>
       </c>
-      <c r="I17" s="199" t="s">
+      <c r="H19" s="225"/>
+      <c r="J19" s="199" t="s">
         <v>103</v>
       </c>
-      <c r="J17" s="203"/>
-      <c r="K17" s="203"/>
-      <c r="L17" s="203"/>
-      <c r="M17" s="203"/>
-      <c r="N17" s="203"/>
-      <c r="O17" s="203"/>
-      <c r="P17" s="203"/>
-      <c r="Q17" s="203"/>
-    </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B18" t="str">
-        <f t="shared" ref="B18:B24" si="1">K18</f>
+      <c r="K19" s="203"/>
+      <c r="L19" s="203"/>
+      <c r="M19" s="203"/>
+      <c r="N19" s="203"/>
+      <c r="O19" s="203"/>
+      <c r="P19" s="203"/>
+      <c r="Q19" s="203"/>
+      <c r="R19" s="203"/>
+    </row>
+    <row r="20" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B20" t="str">
+        <f t="shared" ref="B20:B26" si="1">L20</f>
         <v>FTE-RSDGAS</v>
       </c>
-      <c r="C18" t="str">
-        <f t="shared" ref="C18:C24" si="2">RIGHT(D18,3)</f>
+      <c r="C20" t="str">
+        <f t="shared" ref="C20:C26" si="2">RIGHT(D20,3)</f>
         <v>GAS</v>
       </c>
-      <c r="D18" t="str">
-        <f>$K$5</f>
+      <c r="D20" t="str">
+        <f>$L$5</f>
         <v>RSDGAS</v>
       </c>
-      <c r="E18" s="22"/>
-      <c r="F18" s="112">
+      <c r="E20" s="22"/>
+      <c r="F20" s="112">
         <v>1</v>
       </c>
-      <c r="G18" s="113">
+      <c r="G20" s="113">
         <v>30</v>
       </c>
-      <c r="I18" s="200" t="s">
+      <c r="H20" s="113"/>
+      <c r="J20" s="200" t="s">
         <v>144</v>
       </c>
-      <c r="J18" s="201"/>
-      <c r="K18" s="201" t="str">
-        <f t="shared" ref="K18:K24" si="3">"FT"&amp;$G$2&amp;"-"&amp;K5</f>
+      <c r="K20" s="201"/>
+      <c r="L20" s="201" t="str">
+        <f t="shared" ref="L20:L26" si="3">"FT"&amp;$G$2&amp;"-"&amp;L5</f>
         <v>FTE-RSDGAS</v>
       </c>
-      <c r="L18" s="204" t="str">
+      <c r="M20" s="204" t="str">
         <f>$D$2&amp;" "&amp;$G$1&amp;" "&amp;EnergyBalance!$C$16&amp; " Sector- "&amp;EnergyBalance!$E$3</f>
         <v>Sector Fuel Existing Residential Sector- Natural Gas</v>
       </c>
-      <c r="M18" s="201" t="str">
-        <f t="shared" ref="M18:M24" si="4">$E$2</f>
+      <c r="N20" s="201" t="str">
+        <f t="shared" ref="N20:N26" si="4">$E$2</f>
         <v>PJ</v>
       </c>
-      <c r="N18" s="201" t="str">
-        <f t="shared" ref="N18:N24" si="5">$E$2&amp;"a"</f>
+      <c r="O20" s="201" t="str">
+        <f t="shared" ref="O20:O26" si="5">$E$2&amp;"a"</f>
         <v>PJa</v>
       </c>
-      <c r="O18" s="201"/>
-      <c r="P18" s="201"/>
-      <c r="Q18" s="201"/>
-    </row>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B19" t="str">
+      <c r="P20" s="201"/>
+      <c r="Q20" s="201"/>
+      <c r="R20" s="201"/>
+    </row>
+    <row r="21" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B21" t="str">
         <f t="shared" si="1"/>
         <v>FTE-TRAOIL</v>
       </c>
-      <c r="C19" t="str">
+      <c r="C21" t="str">
         <f t="shared" si="2"/>
         <v>OIL</v>
       </c>
-      <c r="D19" t="str">
-        <f>$K$6</f>
+      <c r="D21" t="str">
+        <f>$L$6</f>
         <v>TRAOIL</v>
       </c>
-      <c r="E19" s="182"/>
-      <c r="F19" s="112">
+      <c r="E21" s="182"/>
+      <c r="F21" s="112">
         <v>1</v>
       </c>
-      <c r="G19" s="113">
+      <c r="G21" s="113">
         <v>30</v>
       </c>
-      <c r="I19" s="201"/>
-      <c r="J19" s="201"/>
-      <c r="K19" s="201" t="str">
+      <c r="H21" s="113"/>
+      <c r="J21" s="201"/>
+      <c r="K21" s="201"/>
+      <c r="L21" s="201" t="str">
         <f t="shared" si="3"/>
         <v>FTE-TRAOIL</v>
       </c>
-      <c r="L19" s="204" t="str">
+      <c r="M21" s="204" t="str">
         <f>$D$2&amp;" "&amp;$G$1&amp;" "&amp;EnergyBalance!$C$20&amp; " Sector- "&amp;EnergyBalance!$F$3</f>
         <v>Sector Fuel Existing Transport Sector- Crude Oil</v>
       </c>
-      <c r="M19" s="201" t="str">
+      <c r="N21" s="201" t="str">
         <f t="shared" si="4"/>
         <v>PJ</v>
       </c>
-      <c r="N19" s="201" t="str">
+      <c r="O21" s="201" t="str">
         <f t="shared" si="5"/>
         <v>PJa</v>
       </c>
-      <c r="O19" s="201"/>
-      <c r="P19" s="201"/>
-      <c r="Q19" s="201"/>
-    </row>
-    <row r="20" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B20" t="str">
+      <c r="P21" s="201"/>
+      <c r="Q21" s="201"/>
+      <c r="R21" s="201"/>
+    </row>
+    <row r="22" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B22" t="str">
         <f t="shared" si="1"/>
         <v>FTE-ELCCOA</v>
       </c>
-      <c r="C20" t="str">
+      <c r="C22" t="str">
         <f t="shared" si="2"/>
         <v>COA</v>
       </c>
-      <c r="D20" s="48" t="str">
-        <f>K7</f>
+      <c r="D22" s="48" t="str">
+        <f>L7</f>
         <v>ELCCOA</v>
-      </c>
-      <c r="E20" s="21"/>
-      <c r="F20" s="112">
-        <v>1</v>
-      </c>
-      <c r="G20" s="113">
-        <v>30</v>
-      </c>
-      <c r="I20" s="201"/>
-      <c r="J20" s="201"/>
-      <c r="K20" s="201" t="str">
-        <f t="shared" si="3"/>
-        <v>FTE-ELCCOA</v>
-      </c>
-      <c r="L20" s="204" t="str">
-        <f>$D$2&amp;" Technology"&amp;" "&amp;$G$1&amp;" "&amp;L7</f>
-        <v>Sector Fuel Technology Existing Electricity Plants Solid Fuels</v>
-      </c>
-      <c r="M20" s="201" t="str">
-        <f t="shared" si="4"/>
-        <v>PJ</v>
-      </c>
-      <c r="N20" s="201" t="str">
-        <f t="shared" si="5"/>
-        <v>PJa</v>
-      </c>
-      <c r="O20" s="201"/>
-      <c r="P20" s="201"/>
-      <c r="Q20" s="201"/>
-    </row>
-    <row r="21" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B21" t="str">
-        <f t="shared" si="1"/>
-        <v>FTE-ELCGAS</v>
-      </c>
-      <c r="C21" t="str">
-        <f t="shared" si="2"/>
-        <v>GAS</v>
-      </c>
-      <c r="D21" s="48" t="str">
-        <f>K8</f>
-        <v>ELCGAS</v>
-      </c>
-      <c r="E21" s="21"/>
-      <c r="F21" s="112">
-        <v>1</v>
-      </c>
-      <c r="G21" s="113">
-        <v>30</v>
-      </c>
-      <c r="I21" s="201"/>
-      <c r="J21" s="201"/>
-      <c r="K21" s="201" t="str">
-        <f t="shared" si="3"/>
-        <v>FTE-ELCGAS</v>
-      </c>
-      <c r="L21" s="204" t="str">
-        <f>$D$2&amp;" Technology"&amp;" "&amp;$G$1&amp;" "&amp;L8</f>
-        <v>Sector Fuel Technology Existing Electricity Plants Natural Gas</v>
-      </c>
-      <c r="M21" s="201" t="str">
-        <f t="shared" si="4"/>
-        <v>PJ</v>
-      </c>
-      <c r="N21" s="201" t="str">
-        <f t="shared" si="5"/>
-        <v>PJa</v>
-      </c>
-      <c r="O21" s="201"/>
-      <c r="P21" s="201"/>
-      <c r="Q21" s="201"/>
-    </row>
-    <row r="22" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B22" t="str">
-        <f t="shared" si="1"/>
-        <v>FTE-ELCOIL</v>
-      </c>
-      <c r="C22" t="str">
-        <f t="shared" si="2"/>
-        <v>OIL</v>
-      </c>
-      <c r="D22" s="48" t="str">
-        <f>K9</f>
-        <v>ELCOIL</v>
       </c>
       <c r="E22" s="21"/>
       <c r="F22" s="112">
@@ -21944,40 +23687,41 @@
       <c r="G22" s="113">
         <v>30</v>
       </c>
-      <c r="I22" s="201"/>
+      <c r="H22" s="113"/>
       <c r="J22" s="201"/>
-      <c r="K22" s="201" t="str">
+      <c r="K22" s="201"/>
+      <c r="L22" s="201" t="str">
         <f t="shared" si="3"/>
-        <v>FTE-ELCOIL</v>
-      </c>
-      <c r="L22" s="205" t="str">
-        <f>$D$2&amp;" Technology"&amp;" "&amp;$G$1&amp;" "&amp;L9</f>
-        <v>Sector Fuel Technology Existing Electricity Plants Crude Oil</v>
-      </c>
-      <c r="M22" s="201" t="str">
+        <v>FTE-ELCCOA</v>
+      </c>
+      <c r="M22" s="204" t="str">
+        <f>$D$2&amp;" Technology"&amp;" "&amp;$G$1&amp;" "&amp;M7</f>
+        <v>Sector Fuel Technology Existing Electricity Plants Solid Fuels</v>
+      </c>
+      <c r="N22" s="201" t="str">
         <f t="shared" si="4"/>
         <v>PJ</v>
       </c>
-      <c r="N22" s="201" t="str">
+      <c r="O22" s="201" t="str">
         <f t="shared" si="5"/>
         <v>PJa</v>
       </c>
-      <c r="O22" s="201"/>
       <c r="P22" s="201"/>
       <c r="Q22" s="201"/>
-    </row>
-    <row r="23" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R22" s="201"/>
+    </row>
+    <row r="23" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B23" t="str">
         <f t="shared" si="1"/>
-        <v>FTE-ELCRNW</v>
+        <v>FTE-ELCGAS</v>
       </c>
       <c r="C23" t="str">
         <f t="shared" si="2"/>
-        <v>RNW</v>
+        <v>GAS</v>
       </c>
       <c r="D23" s="48" t="str">
-        <f>K10</f>
-        <v>ELCRNW</v>
+        <f>L8</f>
+        <v>ELCGAS</v>
       </c>
       <c r="E23" s="21"/>
       <c r="F23" s="112">
@@ -21986,40 +23730,41 @@
       <c r="G23" s="113">
         <v>30</v>
       </c>
-      <c r="I23" s="201"/>
+      <c r="H23" s="113"/>
       <c r="J23" s="201"/>
-      <c r="K23" s="201" t="str">
+      <c r="K23" s="201"/>
+      <c r="L23" s="201" t="str">
         <f t="shared" si="3"/>
-        <v>FTE-ELCRNW</v>
-      </c>
-      <c r="L23" s="204" t="str">
-        <f>$D$2&amp;" Technology"&amp;" "&amp;$G$1&amp;" "&amp;L10</f>
-        <v>Sector Fuel Technology Existing Electricity Plants Renewable Energies</v>
-      </c>
-      <c r="M23" s="201" t="str">
+        <v>FTE-ELCGAS</v>
+      </c>
+      <c r="M23" s="204" t="str">
+        <f>$D$2&amp;" Technology"&amp;" "&amp;$G$1&amp;" "&amp;M8</f>
+        <v>Sector Fuel Technology Existing Electricity Plants Natural Gas</v>
+      </c>
+      <c r="N23" s="201" t="str">
         <f t="shared" si="4"/>
         <v>PJ</v>
       </c>
-      <c r="N23" s="201" t="str">
+      <c r="O23" s="201" t="str">
         <f t="shared" si="5"/>
         <v>PJa</v>
       </c>
-      <c r="O23" s="201"/>
       <c r="P23" s="201"/>
       <c r="Q23" s="201"/>
-    </row>
-    <row r="24" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R23" s="201"/>
+    </row>
+    <row r="24" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B24" t="str">
         <f t="shared" si="1"/>
-        <v>FTE-ELCNUC</v>
+        <v>FTE-ELCOIL</v>
       </c>
       <c r="C24" t="str">
         <f t="shared" si="2"/>
-        <v>NUC</v>
+        <v>OIL</v>
       </c>
       <c r="D24" s="48" t="str">
-        <f>K11</f>
-        <v>ELCNUC</v>
+        <f>L9</f>
+        <v>ELCOIL</v>
       </c>
       <c r="E24" s="21"/>
       <c r="F24" s="112">
@@ -22028,102 +23773,338 @@
       <c r="G24" s="113">
         <v>30</v>
       </c>
-      <c r="I24" s="206"/>
-      <c r="J24" s="207"/>
-      <c r="K24" s="201" t="str">
+      <c r="H24" s="113"/>
+      <c r="J24" s="201"/>
+      <c r="K24" s="201"/>
+      <c r="L24" s="201" t="str">
+        <f t="shared" si="3"/>
+        <v>FTE-ELCOIL</v>
+      </c>
+      <c r="M24" s="205" t="str">
+        <f>$D$2&amp;" Technology"&amp;" "&amp;$G$1&amp;" "&amp;M9</f>
+        <v>Sector Fuel Technology Existing Electricity Plants Crude Oil</v>
+      </c>
+      <c r="N24" s="201" t="str">
+        <f t="shared" si="4"/>
+        <v>PJ</v>
+      </c>
+      <c r="O24" s="201" t="str">
+        <f t="shared" si="5"/>
+        <v>PJa</v>
+      </c>
+      <c r="P24" s="201"/>
+      <c r="Q24" s="201"/>
+      <c r="R24" s="201"/>
+    </row>
+    <row r="25" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B25" t="str">
+        <f t="shared" si="1"/>
+        <v>FTE-ELCRNW</v>
+      </c>
+      <c r="C25" t="str">
+        <f t="shared" si="2"/>
+        <v>RNW</v>
+      </c>
+      <c r="D25" s="48" t="str">
+        <f>L10</f>
+        <v>ELCRNW</v>
+      </c>
+      <c r="E25" s="21"/>
+      <c r="F25" s="112">
+        <v>1</v>
+      </c>
+      <c r="G25" s="113">
+        <v>30</v>
+      </c>
+      <c r="H25" s="113"/>
+      <c r="J25" s="201"/>
+      <c r="K25" s="201"/>
+      <c r="L25" s="201" t="str">
+        <f t="shared" si="3"/>
+        <v>FTE-ELCRNW</v>
+      </c>
+      <c r="M25" s="204" t="str">
+        <f>$D$2&amp;" Technology"&amp;" "&amp;$G$1&amp;" "&amp;M10</f>
+        <v>Sector Fuel Technology Existing Electricity Plants Renewable Energies</v>
+      </c>
+      <c r="N25" s="201" t="str">
+        <f t="shared" si="4"/>
+        <v>PJ</v>
+      </c>
+      <c r="O25" s="201" t="str">
+        <f t="shared" si="5"/>
+        <v>PJa</v>
+      </c>
+      <c r="P25" s="201"/>
+      <c r="Q25" s="201"/>
+      <c r="R25" s="201"/>
+    </row>
+    <row r="26" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B26" t="str">
+        <f t="shared" si="1"/>
+        <v>FTE-ELCNUC</v>
+      </c>
+      <c r="C26" t="str">
+        <f t="shared" si="2"/>
+        <v>NUC</v>
+      </c>
+      <c r="D26" s="48" t="str">
+        <f>L11</f>
+        <v>ELCNUC</v>
+      </c>
+      <c r="E26" s="21"/>
+      <c r="F26" s="112">
+        <v>1</v>
+      </c>
+      <c r="G26" s="113">
+        <v>30</v>
+      </c>
+      <c r="H26" s="113"/>
+      <c r="J26" s="206"/>
+      <c r="K26" s="207"/>
+      <c r="L26" s="201" t="str">
         <f t="shared" si="3"/>
         <v>FTE-ELCNUC</v>
       </c>
-      <c r="L24" s="204" t="str">
-        <f>$D$2&amp;" Technology"&amp;" "&amp;$G$1&amp;" "&amp;L11</f>
+      <c r="M26" s="204" t="str">
+        <f>$D$2&amp;" Technology"&amp;" "&amp;$G$1&amp;" "&amp;M11</f>
         <v>Sector Fuel Technology Existing Electricity Plants Nuclear Energy</v>
       </c>
-      <c r="M24" s="201" t="str">
+      <c r="N26" s="201" t="str">
         <f t="shared" si="4"/>
         <v>PJ</v>
       </c>
-      <c r="N24" s="201" t="str">
+      <c r="O26" s="201" t="str">
         <f t="shared" si="5"/>
         <v>PJa</v>
       </c>
-      <c r="O24" s="201"/>
-      <c r="P24" s="201"/>
-      <c r="Q24" s="201"/>
-    </row>
-    <row r="25" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B25" s="217" t="s">
+      <c r="P26" s="201"/>
+      <c r="Q26" s="201"/>
+      <c r="R26" s="201"/>
+    </row>
+    <row r="27" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B27" s="217" t="s">
         <v>208</v>
       </c>
-      <c r="C25" s="217" t="s">
+      <c r="C27" s="217" t="s">
         <v>203</v>
       </c>
-      <c r="D25" s="217" t="s">
+      <c r="D27" s="217" t="s">
         <v>206</v>
       </c>
-      <c r="F25">
+      <c r="F27">
         <v>1</v>
       </c>
-      <c r="G25">
+      <c r="G27">
         <v>30</v>
       </c>
-      <c r="I25" s="49"/>
-      <c r="J25" s="48"/>
-      <c r="K25" s="201" t="str">
-        <f>+B25</f>
+      <c r="J27" s="49"/>
+      <c r="K27" s="48"/>
+      <c r="L27" s="201" t="str">
+        <f>+B27</f>
         <v>FTE-ELCOILS</v>
       </c>
-      <c r="L25" s="217" t="s">
+      <c r="M27" s="217" t="s">
         <v>209</v>
       </c>
-      <c r="M25" s="217" t="s">
+      <c r="N27" s="217" t="s">
         <v>97</v>
       </c>
-      <c r="N25" s="217" t="s">
+      <c r="O27" s="217" t="s">
         <v>210</v>
       </c>
-      <c r="O25" s="9"/>
-      <c r="P25" s="9"/>
-      <c r="Q25" s="9"/>
-    </row>
-    <row r="26" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="I26" s="48"/>
-      <c r="J26" s="48"/>
-      <c r="O26" s="9"/>
-      <c r="P26" s="9"/>
-      <c r="Q26" s="9"/>
-    </row>
-    <row r="27" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B27" s="76"/>
-      <c r="C27" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="I27" s="55"/>
-      <c r="J27" s="52"/>
-      <c r="O27" s="9"/>
       <c r="P27" s="9"/>
       <c r="Q27" s="9"/>
-    </row>
-    <row r="28" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B28" s="111"/>
-      <c r="C28" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="I28" s="56"/>
-      <c r="J28" s="56"/>
-      <c r="O28" s="56"/>
-      <c r="P28" s="56"/>
+      <c r="R27" s="9"/>
+    </row>
+    <row r="28" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B28" s="217" t="s">
+        <v>223</v>
+      </c>
+      <c r="C28" s="217" t="s">
+        <v>49</v>
+      </c>
+      <c r="D28" s="217" t="s">
+        <v>217</v>
+      </c>
+      <c r="F28" s="230">
+        <v>0.9</v>
+      </c>
+      <c r="G28" s="231">
+        <v>30</v>
+      </c>
+      <c r="H28" s="231"/>
+      <c r="J28" s="49"/>
+      <c r="K28" s="48"/>
+      <c r="L28" s="201" t="str">
+        <f>+B28</f>
+        <v>FTE-LOIL</v>
+      </c>
+      <c r="M28" s="217" t="s">
+        <v>225</v>
+      </c>
+      <c r="N28" s="217" t="s">
+        <v>97</v>
+      </c>
+      <c r="O28" s="217" t="s">
+        <v>210</v>
+      </c>
+      <c r="P28" s="9"/>
       <c r="Q28" s="9"/>
-    </row>
-    <row r="29" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="I29" s="9"/>
-      <c r="J29" s="9"/>
-      <c r="K29" s="9"/>
-      <c r="L29" s="9"/>
-      <c r="M29" s="9"/>
-      <c r="N29" s="9"/>
-      <c r="O29" s="9"/>
+      <c r="R28" s="9"/>
+    </row>
+    <row r="29" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B29" s="217" t="s">
+        <v>235</v>
+      </c>
+      <c r="C29" s="217" t="s">
+        <v>48</v>
+      </c>
+      <c r="D29" s="217" t="s">
+        <v>232</v>
+      </c>
+      <c r="F29" s="230">
+        <v>0.75</v>
+      </c>
+      <c r="G29" s="231">
+        <v>30</v>
+      </c>
+      <c r="H29" s="231">
+        <v>50</v>
+      </c>
+      <c r="J29" s="49"/>
+      <c r="K29" s="48"/>
+      <c r="L29" s="201" t="str">
+        <f>+B29</f>
+        <v>FTE-GASTOH2</v>
+      </c>
+      <c r="M29" s="217" t="s">
+        <v>237</v>
+      </c>
+      <c r="N29" s="217" t="s">
+        <v>97</v>
+      </c>
+      <c r="O29" s="217" t="s">
+        <v>210</v>
+      </c>
       <c r="P29" s="9"/>
       <c r="Q29" s="9"/>
+      <c r="R29" s="9"/>
+    </row>
+    <row r="30" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B30" s="217" t="s">
+        <v>238</v>
+      </c>
+      <c r="C30" s="217" t="s">
+        <v>48</v>
+      </c>
+      <c r="D30" s="217" t="s">
+        <v>232</v>
+      </c>
+      <c r="F30" s="230">
+        <v>0.65</v>
+      </c>
+      <c r="G30" s="231">
+        <v>30</v>
+      </c>
+      <c r="H30" s="231">
+        <v>5</v>
+      </c>
+      <c r="J30" s="49"/>
+      <c r="K30" s="48"/>
+      <c r="L30" s="201" t="str">
+        <f>+B30</f>
+        <v>FTE-GASTOH2_CCS</v>
+      </c>
+      <c r="M30" s="217" t="s">
+        <v>240</v>
+      </c>
+      <c r="N30" s="217" t="s">
+        <v>97</v>
+      </c>
+      <c r="O30" s="217" t="s">
+        <v>210</v>
+      </c>
+      <c r="P30" s="9"/>
+      <c r="Q30" s="9"/>
+      <c r="R30" s="9"/>
+    </row>
+    <row r="31" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B31" s="217" t="s">
+        <v>241</v>
+      </c>
+      <c r="C31" s="217" t="str">
+        <f>Con_ELC!D16</f>
+        <v>ELC</v>
+      </c>
+      <c r="D31" s="217" t="s">
+        <v>232</v>
+      </c>
+      <c r="F31" s="230">
+        <v>0.9</v>
+      </c>
+      <c r="G31" s="231"/>
+      <c r="H31" s="231">
+        <v>0</v>
+      </c>
+      <c r="J31" s="49"/>
+      <c r="K31" s="48"/>
+      <c r="L31" s="201" t="str">
+        <f>+B31</f>
+        <v>FTE-ELCTOH2</v>
+      </c>
+      <c r="M31" s="217" t="s">
+        <v>242</v>
+      </c>
+      <c r="N31" s="217" t="s">
+        <v>97</v>
+      </c>
+      <c r="O31" s="217" t="s">
+        <v>210</v>
+      </c>
+      <c r="P31" s="9"/>
+      <c r="Q31" s="9"/>
+      <c r="R31" s="9"/>
+    </row>
+    <row r="32" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="J32" s="48"/>
+      <c r="K32" s="48"/>
+      <c r="P32" s="9"/>
+      <c r="Q32" s="9"/>
+      <c r="R32" s="9"/>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B33" s="76"/>
+      <c r="C33" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="J33" s="55"/>
+      <c r="K33" s="52"/>
+      <c r="P33" s="9"/>
+      <c r="Q33" s="9"/>
+      <c r="R33" s="9"/>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B34" s="111"/>
+      <c r="C34" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="J34" s="56"/>
+      <c r="K34" s="56"/>
+      <c r="P34" s="56"/>
+      <c r="Q34" s="56"/>
+      <c r="R34" s="9"/>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
+      <c r="L35" s="9"/>
+      <c r="M35" s="9"/>
+      <c r="N35" s="9"/>
+      <c r="O35" s="9"/>
+      <c r="P35" s="9"/>
+      <c r="Q35" s="9"/>
+      <c r="R35" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -22138,7 +24119,7 @@
   <dimension ref="B1:AA37"/>
   <sheetViews>
     <sheetView topLeftCell="B7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24:C26"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -22626,7 +24607,7 @@
         <v>ELCTECOA00</v>
       </c>
       <c r="C12" s="48" t="str">
-        <f>$B$2&amp;RIGHT(Sector_Fuels!$K$7,3)</f>
+        <f>$B$2&amp;RIGHT(Sector_Fuels!$L$7,3)</f>
         <v>ELCCOA</v>
       </c>
       <c r="D12" s="48" t="str">
@@ -22668,7 +24649,7 @@
       </c>
       <c r="T12" s="201"/>
       <c r="U12" s="201" t="str">
-        <f>$B$2&amp;$C$5&amp;$I$2&amp;RIGHT(Sector_Fuels!$K$7,3)&amp;"00"</f>
+        <f>$B$2&amp;$C$5&amp;$I$2&amp;RIGHT(Sector_Fuels!$L$7,3)&amp;"00"</f>
         <v>ELCTECOA00</v>
       </c>
       <c r="V12" s="205" t="str">
@@ -22710,7 +24691,7 @@
       <c r="S13" s="201"/>
       <c r="T13" s="201"/>
       <c r="U13" s="201" t="str">
-        <f>$B$2&amp;$C$5&amp;$I$2&amp;RIGHT(Sector_Fuels!$K$8,3)&amp;"00"</f>
+        <f>$B$2&amp;$C$5&amp;$I$2&amp;RIGHT(Sector_Fuels!$L$8,3)&amp;"00"</f>
         <v>ELCTEGAS00</v>
       </c>
       <c r="V13" s="205" t="str">
@@ -22735,7 +24716,7 @@
         <v>ELCTEGAS00</v>
       </c>
       <c r="C14" s="48" t="str">
-        <f>$B$2&amp;RIGHT(Sector_Fuels!$K$8,3)</f>
+        <f>$B$2&amp;RIGHT(Sector_Fuels!$L$8,3)</f>
         <v>ELCGAS</v>
       </c>
       <c r="D14" s="48" t="str">
@@ -22776,7 +24757,7 @@
       <c r="S14" s="201"/>
       <c r="T14" s="201"/>
       <c r="U14" s="201" t="str">
-        <f>$B$2&amp;$C$5&amp;$I$2&amp;RIGHT(Sector_Fuels!$K$9,3)&amp;"00"</f>
+        <f>$B$2&amp;$C$5&amp;$I$2&amp;RIGHT(Sector_Fuels!$L$9,3)&amp;"00"</f>
         <v>ELCTEOIL00</v>
       </c>
       <c r="V14" s="205" t="str">
@@ -22818,7 +24799,7 @@
       <c r="S15" s="201"/>
       <c r="T15" s="201"/>
       <c r="U15" s="201" t="str">
-        <f>$B$2&amp;$E$5&amp;$I$2&amp;RIGHT(Sector_Fuels!$K$10,3)&amp;"00"</f>
+        <f>$B$2&amp;$E$5&amp;$I$2&amp;RIGHT(Sector_Fuels!$L$10,3)&amp;"00"</f>
         <v>ELCRERNW00</v>
       </c>
       <c r="V15" s="205" t="str">
@@ -22843,7 +24824,7 @@
         <v>ELCTEOIL00</v>
       </c>
       <c r="C16" s="48" t="str">
-        <f>$B$2&amp;RIGHT(Sector_Fuels!$K$9,3)</f>
+        <f>$B$2&amp;RIGHT(Sector_Fuels!$L$9,3)</f>
         <v>ELCOIL</v>
       </c>
       <c r="D16" s="48" t="str">
@@ -22885,7 +24866,7 @@
       <c r="S16" s="201"/>
       <c r="T16" s="201"/>
       <c r="U16" s="201" t="str">
-        <f>$B$2&amp;$C$5&amp;$I$2&amp;RIGHT(Sector_Fuels!$K$11,3)&amp;"00"</f>
+        <f>$B$2&amp;$C$5&amp;$I$2&amp;RIGHT(Sector_Fuels!$L$11,3)&amp;"00"</f>
         <v>ELCTENUC00</v>
       </c>
       <c r="V16" s="205" t="str">
@@ -22929,7 +24910,7 @@
       <c r="S17" s="201"/>
       <c r="T17" s="201"/>
       <c r="U17" s="201" t="str">
-        <f>$B$2&amp;$C$5&amp;$J$2&amp;RIGHT(Sector_Fuels!$K$7,3)&amp;"00"</f>
+        <f>$B$2&amp;$C$5&amp;$J$2&amp;RIGHT(Sector_Fuels!$L$7,3)&amp;"00"</f>
         <v>ELCTNCOA00</v>
       </c>
       <c r="V17" s="205" t="str">
@@ -22954,7 +24935,7 @@
         <v>ELCRERNW00</v>
       </c>
       <c r="C18" s="48" t="str">
-        <f>$B$2&amp;RIGHT(Sector_Fuels!$K$10,3)</f>
+        <f>$B$2&amp;RIGHT(Sector_Fuels!$L$10,3)</f>
         <v>ELCRNW</v>
       </c>
       <c r="D18" s="48" t="str">
@@ -22994,7 +24975,7 @@
       <c r="S18" s="201"/>
       <c r="T18" s="201"/>
       <c r="U18" s="201" t="str">
-        <f>$B$2&amp;$C$5&amp;$J$2&amp;RIGHT(Sector_Fuels!$K$8,3)&amp;"00"</f>
+        <f>$B$2&amp;$C$5&amp;$J$2&amp;RIGHT(Sector_Fuels!$L$8,3)&amp;"00"</f>
         <v>ELCTNGAS00</v>
       </c>
       <c r="V18" s="205" t="str">
@@ -23019,7 +25000,7 @@
         <v>ELCTENUC00</v>
       </c>
       <c r="C19" s="178" t="str">
-        <f>$B$2&amp;RIGHT(Sector_Fuels!$K$11,3)</f>
+        <f>$B$2&amp;RIGHT(Sector_Fuels!$L$11,3)</f>
         <v>ELCNUC</v>
       </c>
       <c r="D19" s="178" t="str">
@@ -23062,7 +25043,7 @@
       <c r="S19" s="201"/>
       <c r="T19" s="201"/>
       <c r="U19" s="201" t="str">
-        <f>$B$2&amp;$C$5&amp;$J$2&amp;RIGHT(Sector_Fuels!$K$9,3)&amp;"00"</f>
+        <f>$B$2&amp;$C$5&amp;$J$2&amp;RIGHT(Sector_Fuels!$L$9,3)&amp;"00"</f>
         <v>ELCTNOIL00</v>
       </c>
       <c r="V19" s="205" t="str">
@@ -23087,7 +25068,7 @@
         <v>ELCTNCOA00</v>
       </c>
       <c r="C20" s="48" t="str">
-        <f>$B$2&amp;RIGHT(Sector_Fuels!$K$7,3)</f>
+        <f>$B$2&amp;RIGHT(Sector_Fuels!$L$7,3)</f>
         <v>ELCCOA</v>
       </c>
       <c r="D20" s="48" t="str">
@@ -23170,7 +25151,7 @@
         <v>ELCTNGAS00</v>
       </c>
       <c r="C22" s="48" t="str">
-        <f>$B$2&amp;RIGHT(Sector_Fuels!$K$8,3)</f>
+        <f>$B$2&amp;RIGHT(Sector_Fuels!$L$8,3)</f>
         <v>ELCGAS</v>
       </c>
       <c r="D22" s="48" t="str">
@@ -23230,7 +25211,7 @@
         <v>ELCTNOIL00</v>
       </c>
       <c r="C24" s="48" t="str">
-        <f>$B$2&amp;RIGHT(Sector_Fuels!$K$9,3)</f>
+        <f>$B$2&amp;RIGHT(Sector_Fuels!$L$9,3)</f>
         <v>ELCOIL</v>
       </c>
       <c r="D24" s="48" t="str">
@@ -23289,7 +25270,7 @@
         <v>212</v>
       </c>
       <c r="C26" s="48" t="str">
-        <f>+Sector_Fuels!D25</f>
+        <f>+Sector_Fuels!D27</f>
         <v>ELCOILS</v>
       </c>
       <c r="D26" s="220" t="s">

--- a/VT_REG_PRI_V03.xlsx
+++ b/VT_REG_PRI_V03.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VEDA\Veda\Veda_Training\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{352D508E-030C-4151-A681-3DCDA9B6A565}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17FB9A5E-8522-461B-A146-DACE0A60993F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="901" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VT_REG_PRI_V03.xlsx
+++ b/VT_REG_PRI_V03.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VEDA\Veda\Veda_Training\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17FB9A5E-8522-461B-A146-DACE0A60993F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26596FF4-B959-4400-BFFE-88D05311BC2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="901" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="901" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EnergyBalance" sheetId="133" r:id="rId1"/>
@@ -19255,8 +19255,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:T36"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -19591,7 +19591,7 @@
         <v>80000</v>
       </c>
       <c r="H11" s="115">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I11" s="109">
         <f>EnergyBalance!$D$5*EnergyBalance!D37*1.1</f>
@@ -19671,7 +19671,7 @@
         <v>160000</v>
       </c>
       <c r="H13" s="115">
-        <v>2.5</v>
+        <v>10</v>
       </c>
       <c r="I13" s="109">
         <f>EnergyBalance!$D$5*EnergyBalance!D38</f>
@@ -19748,7 +19748,7 @@
         <v>320000</v>
       </c>
       <c r="H15" s="115">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="I15" s="177"/>
       <c r="J15" s="9"/>
@@ -19790,7 +19790,7 @@
       <c r="F16" s="15"/>
       <c r="G16" s="14"/>
       <c r="H16" s="115">
-        <v>2.75</v>
+        <v>10</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -19821,7 +19821,7 @@
         <v>191</v>
       </c>
       <c r="H17" s="115">
-        <v>2.75</v>
+        <v>10</v>
       </c>
       <c r="I17" s="110">
         <f>-EnergyBalance!D7</f>
@@ -20889,8 +20889,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:Y37"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -23045,8 +23045,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="B1:R35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView topLeftCell="B16" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22:G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>

--- a/VT_REG_PRI_V03.xlsx
+++ b/VT_REG_PRI_V03.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr showObjects="placeholders" codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VEDA\Veda\Veda_Training\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda_models\Veda_Training\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26596FF4-B959-4400-BFFE-88D05311BC2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6642D1F-851C-4426-A91B-E3CEB8BDFF17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="901" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="901" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EnergyBalance" sheetId="133" r:id="rId1"/>
@@ -9914,11 +9914,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="0.000"/>
-    <numFmt numFmtId="166" formatCode="General_)"/>
-    <numFmt numFmtId="167" formatCode="0.0"/>
-    <numFmt numFmtId="168" formatCode="\Te\x\t"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="General_)"/>
+    <numFmt numFmtId="166" formatCode="0.0"/>
+    <numFmt numFmtId="167" formatCode="\Te\x\t"/>
   </numFmts>
   <fonts count="29" x14ac:knownFonts="1">
     <font>
@@ -10494,7 +10494,7 @@
     <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="7" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="9" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -10635,13 +10635,13 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="9" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="166" fontId="9" fillId="15" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="15" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="15" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -10657,7 +10657,7 @@
     <xf numFmtId="1" fontId="15" fillId="7" borderId="11" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="15" fillId="7" borderId="5" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="15" fillId="7" borderId="5" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="15" fillId="7" borderId="19" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -10672,31 +10672,31 @@
     <xf numFmtId="1" fontId="15" fillId="7" borderId="22" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="9" fillId="16" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="16" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="9" fillId="16" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="16" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="9" fillId="15" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="15" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="9" fillId="15" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="15" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="9" fillId="15" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="15" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="9" fillId="15" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="15" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="9" fillId="15" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="15" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="9" fillId="15" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="15" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="9" fillId="15" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="15" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="14" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -10705,13 +10705,13 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="9" fillId="15" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="15" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="9" fillId="15" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="15" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="14" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -10814,17 +10814,17 @@
     <xf numFmtId="0" fontId="21" fillId="3" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="9" fillId="13" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="13" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="3" fillId="13" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -10843,57 +10843,57 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="10" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="1" fontId="4" fillId="16" borderId="0" xfId="10" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="4" fillId="16" borderId="0" xfId="10" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="4" fillId="16" borderId="2" xfId="10" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="4" fillId="16" borderId="0" xfId="10" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="4" fillId="16" borderId="2" xfId="10" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="12" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="2" xfId="10" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="168" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="168" fontId="21" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="21" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="21" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="21" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="10" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="5" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="3" fillId="2" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="10" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="3" fillId="2" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="168" fontId="3" fillId="2" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="3" fillId="2" borderId="4" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="21" fillId="3" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyFont="1"/>
@@ -10909,9 +10909,9 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="1" fillId="16" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="16" borderId="0" xfId="9" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1">
@@ -19256,7 +19256,7 @@
   <dimension ref="A1:T36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -19591,7 +19591,7 @@
         <v>80000</v>
       </c>
       <c r="H11" s="115">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I11" s="109">
         <f>EnergyBalance!$D$5*EnergyBalance!D37*1.1</f>

--- a/VT_REG_PRI_V03.xlsx
+++ b/VT_REG_PRI_V03.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda_models\Veda_Training\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6642D1F-851C-4426-A91B-E3CEB8BDFF17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{920C9B16-684A-4B7C-BE05-D029B3F432B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="901" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19591,7 +19591,7 @@
         <v>80000</v>
       </c>
       <c r="H11" s="115">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I11" s="109">
         <f>EnergyBalance!$D$5*EnergyBalance!D37*1.1</f>

--- a/VT_REG_PRI_V03.xlsx
+++ b/VT_REG_PRI_V03.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda_models\Veda_Training\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{920C9B16-684A-4B7C-BE05-D029B3F432B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1A880D8-7D43-4169-A5EB-3DC8B3033596}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="901" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19591,7 +19591,7 @@
         <v>80000</v>
       </c>
       <c r="H11" s="115">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I11" s="109">
         <f>EnergyBalance!$D$5*EnergyBalance!D37*1.1</f>
